--- a/Web_Form_Chek_list.xlsx
+++ b/Web_Form_Chek_list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07F0190-862A-4D28-8A0C-298E81F5D58E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D018200F-92A6-4361-82FA-96C8BC644459}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,8 +12,7 @@
     <sheet name="Гранич. знач." sheetId="2" r:id="rId2"/>
     <sheet name="Классы экв-ти" sheetId="7" r:id="rId3"/>
     <sheet name="Pairwise" sheetId="4" r:id="rId4"/>
-    <sheet name="Test-case" sheetId="5" r:id="rId5"/>
-    <sheet name="Баг-репорты" sheetId="8" r:id="rId6"/>
+    <sheet name="Баг-репорты" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="398">
   <si>
     <t>ID</t>
   </si>
@@ -1358,6 +1357,127 @@
   </si>
   <si>
     <t>Email, введенный без домена верхнего уровня</t>
+  </si>
+  <si>
+    <t>Не регистрируется пользователь с незаполненым полем Username</t>
+  </si>
+  <si>
+    <t>Ввести
+Name: JackNick 
+Surname:
+Email: qwerty@qwerty.ru 
+Password: 1@Qwerty</t>
+  </si>
+  <si>
+    <t>Выводится окно с надписью
+"Error: Error: All Fields are Required"</t>
+  </si>
+  <si>
+    <t>Выводится синее поле с надписью:
+"Success! Hello: JackNick"</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Windows 10 LTSC x 64</t>
+  </si>
+  <si>
+    <t>Сообщение о неудачной регистрации не корректно.</t>
+  </si>
+  <si>
+    <t>Ширина полей не стабильна.</t>
+  </si>
+  <si>
+    <t>Ввести
+Name: JackNick 
+Surname:
+Email: qwerty@qwerty.ru 
+Password: Qwerty</t>
+  </si>
+  <si>
+    <t>Уменьшить окно браузера по ширине 
+на значение меньше 668 пикселей.</t>
+  </si>
+  <si>
+    <t>Поля увеличиваются по ширине до значения ширины окна.</t>
+  </si>
+  <si>
+    <t>Выводится краcное поле c надписью:
+Error: invalid Password</t>
+  </si>
+  <si>
+    <t>Поля уменьшаются пропорционально окну.</t>
+  </si>
+  <si>
+    <t>Trivial</t>
+  </si>
+  <si>
+    <t>Регистрируется пользователь с невалидным Email</t>
+  </si>
+  <si>
+    <t>Регистрируется пользователь с невалидным Password</t>
+  </si>
+  <si>
+    <t>Выводится синее поле с надписью:
+"Success! Hello: JackNick2 Back"</t>
+  </si>
+  <si>
+    <t>Выводится краcное поле c надписью:
+Error: invalid Email</t>
+  </si>
+  <si>
+    <t>Регистрируется пользователь с невалидным Name</t>
+  </si>
+  <si>
+    <t>Выводится синее поле с надписью:
+"Success! Hello: Джек Back"</t>
+  </si>
+  <si>
+    <t>Выводится краcное поле c надписью:
+Error: invalid Name</t>
+  </si>
+  <si>
+    <t>Bug-6</t>
+  </si>
+  <si>
+    <t>Bug-7</t>
+  </si>
+  <si>
+    <t>Bug-8</t>
+  </si>
+  <si>
+    <t>Bug-9</t>
+  </si>
+  <si>
+    <t>Bug-10</t>
+  </si>
+  <si>
+    <t>Bug-11</t>
+  </si>
+  <si>
+    <t>Ввести невалидный Name:
+Name: Джек
+Surname: Back 
+Email: tywe@1qwerty.ru
+Password: Qwerty</t>
+  </si>
+  <si>
+    <t>Ввести невалидный Email:
+Name: Jack 
+Surname: Back 
+Email: ty@1qwerty.ru
+Password: 2@Qwerty</t>
+  </si>
+  <si>
+    <t>Ввести невалидный Password
+Name: Jack 
+Surname: Back 
+Email: tywe@1qwerty.ru
+Password: Qwerty</t>
   </si>
 </sst>
 </file>
@@ -1463,7 +1583,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1539,6 +1659,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1962,7 +2088,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -2161,51 +2287,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2298,6 +2379,75 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2590,7 +2740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G420"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -2606,7 +2756,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="79" t="s">
         <v>202</v>
       </c>
       <c r="B1" s="70" t="s">
@@ -2619,23 +2769,23 @@
       <c r="G1" s="41"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="77" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="95">
+      <c r="B2" s="80">
         <v>44596</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="78" t="s">
         <v>204</v>
       </c>
-      <c r="B3" s="96" t="s">
+      <c r="B3" s="81" t="s">
         <v>185</v>
       </c>
       <c r="C3" s="2"/>
@@ -2663,49 +2813,49 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A6" s="105" t="s">
+      <c r="A6" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="108" t="s">
+      <c r="B6" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="109" t="s">
+      <c r="C6" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="109" t="s">
+      <c r="D6" s="94" t="s">
         <v>96</v>
       </c>
-      <c r="E6" s="109" t="s">
+      <c r="E6" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="110" t="s">
+      <c r="F6" s="95" t="s">
         <v>3</v>
       </c>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="51">
-      <c r="A7" s="119">
+      <c r="A7" s="104">
         <v>1</v>
       </c>
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="96" t="s">
         <v>205</v>
       </c>
-      <c r="C7" s="112" t="s">
+      <c r="C7" s="97" t="s">
         <v>206</v>
       </c>
-      <c r="D7" s="112" t="s">
+      <c r="D7" s="97" t="s">
         <v>207</v>
       </c>
-      <c r="E7" s="113" t="s">
+      <c r="E7" s="98" t="s">
         <v>274</v>
       </c>
-      <c r="F7" s="114" t="s">
+      <c r="F7" s="99" t="s">
         <v>99</v>
       </c>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" ht="51">
-      <c r="A8" s="103">
+      <c r="A8" s="88">
         <v>2</v>
       </c>
       <c r="B8" s="13" t="s">
@@ -2714,19 +2864,19 @@
       <c r="C8" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="D8" s="97" t="s">
+      <c r="D8" s="82" t="s">
         <v>209</v>
       </c>
-      <c r="E8" s="106" t="s">
+      <c r="E8" s="91" t="s">
         <v>274</v>
       </c>
-      <c r="F8" s="115" t="s">
+      <c r="F8" s="100" t="s">
         <v>99</v>
       </c>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="51">
-      <c r="A9" s="104">
+      <c r="A9" s="89">
         <v>3</v>
       </c>
       <c r="B9" s="13" t="s">
@@ -2735,19 +2885,19 @@
       <c r="C9" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="D9" s="97" t="s">
+      <c r="D9" s="82" t="s">
         <v>211</v>
       </c>
-      <c r="E9" s="106" t="s">
+      <c r="E9" s="91" t="s">
         <v>274</v>
       </c>
-      <c r="F9" s="115" t="s">
+      <c r="F9" s="100" t="s">
         <v>99</v>
       </c>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" ht="51">
-      <c r="A10" s="104">
+      <c r="A10" s="89">
         <v>4</v>
       </c>
       <c r="B10" s="13" t="s">
@@ -2756,19 +2906,19 @@
       <c r="C10" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="D10" s="97" t="s">
+      <c r="D10" s="82" t="s">
         <v>213</v>
       </c>
-      <c r="E10" s="106" t="s">
+      <c r="E10" s="91" t="s">
         <v>274</v>
       </c>
-      <c r="F10" s="115" t="s">
+      <c r="F10" s="100" t="s">
         <v>99</v>
       </c>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" ht="51">
-      <c r="A11" s="104">
+      <c r="A11" s="89">
         <v>5</v>
       </c>
       <c r="B11" s="13" t="s">
@@ -2777,19 +2927,19 @@
       <c r="C11" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="D11" s="97" t="s">
+      <c r="D11" s="82" t="s">
         <v>215</v>
       </c>
-      <c r="E11" s="106" t="s">
+      <c r="E11" s="91" t="s">
         <v>274</v>
       </c>
-      <c r="F11" s="115" t="s">
+      <c r="F11" s="100" t="s">
         <v>99</v>
       </c>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" ht="51">
-      <c r="A12" s="104">
+      <c r="A12" s="89">
         <v>6</v>
       </c>
       <c r="B12" s="13" t="s">
@@ -2798,19 +2948,19 @@
       <c r="C12" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="D12" s="97" t="s">
+      <c r="D12" s="82" t="s">
         <v>217</v>
       </c>
-      <c r="E12" s="106" t="s">
+      <c r="E12" s="91" t="s">
         <v>274</v>
       </c>
-      <c r="F12" s="115" t="s">
+      <c r="F12" s="100" t="s">
         <v>99</v>
       </c>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" ht="51">
-      <c r="A13" s="104">
+      <c r="A13" s="89">
         <v>7</v>
       </c>
       <c r="B13" s="13" t="s">
@@ -2819,19 +2969,19 @@
       <c r="C13" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="D13" s="97" t="s">
+      <c r="D13" s="82" t="s">
         <v>219</v>
       </c>
-      <c r="E13" s="106" t="s">
+      <c r="E13" s="91" t="s">
         <v>274</v>
       </c>
-      <c r="F13" s="115" t="s">
+      <c r="F13" s="100" t="s">
         <v>99</v>
       </c>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" ht="51">
-      <c r="A14" s="104">
+      <c r="A14" s="89">
         <v>8</v>
       </c>
       <c r="B14" s="13" t="s">
@@ -2840,17 +2990,17 @@
       <c r="C14" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="D14" s="97" t="s">
+      <c r="D14" s="82" t="s">
         <v>221</v>
       </c>
-      <c r="E14" s="106"/>
-      <c r="F14" s="115" t="s">
+      <c r="E14" s="91"/>
+      <c r="F14" s="100" t="s">
         <v>99</v>
       </c>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" ht="51">
-      <c r="A15" s="104">
+      <c r="A15" s="89">
         <v>9</v>
       </c>
       <c r="B15" s="13" t="s">
@@ -2859,19 +3009,19 @@
       <c r="C15" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="D15" s="97" t="s">
+      <c r="D15" s="82" t="s">
         <v>223</v>
       </c>
-      <c r="E15" s="106" t="s">
+      <c r="E15" s="91" t="s">
         <v>275</v>
       </c>
-      <c r="F15" s="115" t="s">
+      <c r="F15" s="100" t="s">
         <v>99</v>
       </c>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" ht="51">
-      <c r="A16" s="104">
+      <c r="A16" s="89">
         <v>10</v>
       </c>
       <c r="B16" s="13" t="s">
@@ -2880,19 +3030,19 @@
       <c r="C16" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="D16" s="97" t="s">
+      <c r="D16" s="82" t="s">
         <v>225</v>
       </c>
-      <c r="E16" s="106" t="s">
+      <c r="E16" s="91" t="s">
         <v>275</v>
       </c>
-      <c r="F16" s="115" t="s">
+      <c r="F16" s="100" t="s">
         <v>99</v>
       </c>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" ht="51">
-      <c r="A17" s="104">
+      <c r="A17" s="89">
         <v>11</v>
       </c>
       <c r="B17" s="13" t="s">
@@ -2901,19 +3051,19 @@
       <c r="C17" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="D17" s="97" t="s">
+      <c r="D17" s="82" t="s">
         <v>227</v>
       </c>
-      <c r="E17" s="106" t="s">
+      <c r="E17" s="91" t="s">
         <v>275</v>
       </c>
-      <c r="F17" s="115" t="s">
+      <c r="F17" s="100" t="s">
         <v>99</v>
       </c>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" ht="51">
-      <c r="A18" s="104">
+      <c r="A18" s="89">
         <v>12</v>
       </c>
       <c r="B18" s="13" t="s">
@@ -2922,19 +3072,19 @@
       <c r="C18" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="D18" s="97" t="s">
+      <c r="D18" s="82" t="s">
         <v>229</v>
       </c>
-      <c r="E18" s="106" t="s">
+      <c r="E18" s="91" t="s">
         <v>275</v>
       </c>
-      <c r="F18" s="115" t="s">
+      <c r="F18" s="100" t="s">
         <v>99</v>
       </c>
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="51">
-      <c r="A19" s="104">
+      <c r="A19" s="89">
         <v>13</v>
       </c>
       <c r="B19" s="13" t="s">
@@ -2943,19 +3093,19 @@
       <c r="C19" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="D19" s="97" t="s">
+      <c r="D19" s="82" t="s">
         <v>231</v>
       </c>
-      <c r="E19" s="106" t="s">
+      <c r="E19" s="91" t="s">
         <v>275</v>
       </c>
-      <c r="F19" s="115" t="s">
+      <c r="F19" s="100" t="s">
         <v>99</v>
       </c>
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" ht="51">
-      <c r="A20" s="104">
+      <c r="A20" s="89">
         <v>14</v>
       </c>
       <c r="B20" s="13" t="s">
@@ -2964,17 +3114,17 @@
       <c r="C20" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="D20" s="97" t="s">
+      <c r="D20" s="82" t="s">
         <v>221</v>
       </c>
-      <c r="E20" s="106"/>
-      <c r="F20" s="115" t="s">
+      <c r="E20" s="91"/>
+      <c r="F20" s="100" t="s">
         <v>99</v>
       </c>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" ht="51">
-      <c r="A21" s="104">
+      <c r="A21" s="89">
         <v>15</v>
       </c>
       <c r="B21" s="13" t="s">
@@ -2983,19 +3133,19 @@
       <c r="C21" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="D21" s="97" t="s">
+      <c r="D21" s="82" t="s">
         <v>233</v>
       </c>
-      <c r="E21" s="106" t="s">
+      <c r="E21" s="91" t="s">
         <v>276</v>
       </c>
-      <c r="F21" s="115" t="s">
+      <c r="F21" s="100" t="s">
         <v>99</v>
       </c>
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" ht="51">
-      <c r="A22" s="104">
+      <c r="A22" s="89">
         <v>16</v>
       </c>
       <c r="B22" s="13" t="s">
@@ -3004,19 +3154,19 @@
       <c r="C22" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="D22" s="97" t="s">
+      <c r="D22" s="82" t="s">
         <v>233</v>
       </c>
-      <c r="E22" s="106" t="s">
+      <c r="E22" s="91" t="s">
         <v>276</v>
       </c>
-      <c r="F22" s="115" t="s">
+      <c r="F22" s="100" t="s">
         <v>99</v>
       </c>
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" ht="51">
-      <c r="A23" s="104">
+      <c r="A23" s="89">
         <v>17</v>
       </c>
       <c r="B23" s="13" t="s">
@@ -3025,19 +3175,19 @@
       <c r="C23" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="D23" s="97" t="s">
+      <c r="D23" s="82" t="s">
         <v>233</v>
       </c>
-      <c r="E23" s="106" t="s">
+      <c r="E23" s="91" t="s">
         <v>276</v>
       </c>
-      <c r="F23" s="115" t="s">
+      <c r="F23" s="100" t="s">
         <v>99</v>
       </c>
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" ht="51">
-      <c r="A24" s="104">
+      <c r="A24" s="89">
         <v>18</v>
       </c>
       <c r="B24" s="13" t="s">
@@ -3046,19 +3196,19 @@
       <c r="C24" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="D24" s="97" t="s">
+      <c r="D24" s="82" t="s">
         <v>233</v>
       </c>
-      <c r="E24" s="106" t="s">
+      <c r="E24" s="91" t="s">
         <v>276</v>
       </c>
-      <c r="F24" s="115" t="s">
+      <c r="F24" s="100" t="s">
         <v>99</v>
       </c>
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" ht="51">
-      <c r="A25" s="104">
+      <c r="A25" s="89">
         <v>19</v>
       </c>
       <c r="B25" s="13" t="s">
@@ -3067,19 +3217,19 @@
       <c r="C25" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="D25" s="97" t="s">
+      <c r="D25" s="82" t="s">
         <v>233</v>
       </c>
-      <c r="E25" s="106" t="s">
+      <c r="E25" s="91" t="s">
         <v>277</v>
       </c>
-      <c r="F25" s="115" t="s">
+      <c r="F25" s="100" t="s">
         <v>99</v>
       </c>
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" ht="51">
-      <c r="A26" s="104">
+      <c r="A26" s="89">
         <v>20</v>
       </c>
       <c r="B26" s="13" t="s">
@@ -3088,19 +3238,19 @@
       <c r="C26" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="D26" s="97" t="s">
+      <c r="D26" s="82" t="s">
         <v>233</v>
       </c>
-      <c r="E26" s="106" t="s">
+      <c r="E26" s="91" t="s">
         <v>278</v>
       </c>
-      <c r="F26" s="115" t="s">
+      <c r="F26" s="100" t="s">
         <v>99</v>
       </c>
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" ht="51">
-      <c r="A27" s="104">
+      <c r="A27" s="89">
         <v>21</v>
       </c>
       <c r="B27" s="13" t="s">
@@ -3109,19 +3259,19 @@
       <c r="C27" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="D27" s="97" t="s">
+      <c r="D27" s="82" t="s">
         <v>233</v>
       </c>
-      <c r="E27" s="106" t="s">
+      <c r="E27" s="91" t="s">
         <v>277</v>
       </c>
-      <c r="F27" s="115" t="s">
+      <c r="F27" s="100" t="s">
         <v>99</v>
       </c>
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" ht="51">
-      <c r="A28" s="104">
+      <c r="A28" s="89">
         <v>22</v>
       </c>
       <c r="B28" s="13" t="s">
@@ -3130,19 +3280,19 @@
       <c r="C28" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="D28" s="97" t="s">
+      <c r="D28" s="82" t="s">
         <v>233</v>
       </c>
-      <c r="E28" s="106" t="s">
+      <c r="E28" s="91" t="s">
         <v>277</v>
       </c>
-      <c r="F28" s="115" t="s">
+      <c r="F28" s="100" t="s">
         <v>99</v>
       </c>
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" ht="51">
-      <c r="A29" s="104">
+      <c r="A29" s="89">
         <v>23</v>
       </c>
       <c r="B29" s="13" t="s">
@@ -3151,19 +3301,19 @@
       <c r="C29" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="D29" s="97" t="s">
+      <c r="D29" s="82" t="s">
         <v>221</v>
       </c>
-      <c r="E29" s="106" t="s">
+      <c r="E29" s="91" t="s">
         <v>279</v>
       </c>
-      <c r="F29" s="115" t="s">
+      <c r="F29" s="100" t="s">
         <v>99</v>
       </c>
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:7" ht="51">
-      <c r="A30" s="104">
+      <c r="A30" s="89">
         <v>24</v>
       </c>
       <c r="B30" s="13" t="s">
@@ -3172,17 +3322,17 @@
       <c r="C30" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="D30" s="97" t="s">
+      <c r="D30" s="82" t="s">
         <v>221</v>
       </c>
-      <c r="E30" s="106"/>
-      <c r="F30" s="115" t="s">
+      <c r="E30" s="91"/>
+      <c r="F30" s="100" t="s">
         <v>99</v>
       </c>
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" ht="51">
-      <c r="A31" s="104">
+      <c r="A31" s="89">
         <v>25</v>
       </c>
       <c r="B31" s="13" t="s">
@@ -3191,19 +3341,19 @@
       <c r="C31" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="D31" s="97" t="s">
+      <c r="D31" s="82" t="s">
         <v>243</v>
       </c>
-      <c r="E31" s="106" t="s">
+      <c r="E31" s="91" t="s">
         <v>280</v>
       </c>
-      <c r="F31" s="115" t="s">
+      <c r="F31" s="100" t="s">
         <v>99</v>
       </c>
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7" ht="51">
-      <c r="A32" s="104">
+      <c r="A32" s="89">
         <v>26</v>
       </c>
       <c r="B32" s="13" t="s">
@@ -3212,19 +3362,19 @@
       <c r="C32" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="D32" s="97" t="s">
+      <c r="D32" s="82" t="s">
         <v>225</v>
       </c>
-      <c r="E32" s="106" t="s">
+      <c r="E32" s="91" t="s">
         <v>280</v>
       </c>
-      <c r="F32" s="115" t="s">
+      <c r="F32" s="100" t="s">
         <v>99</v>
       </c>
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:7" ht="51">
-      <c r="A33" s="104">
+      <c r="A33" s="89">
         <v>27</v>
       </c>
       <c r="B33" s="13" t="s">
@@ -3233,17 +3383,17 @@
       <c r="C33" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="D33" s="97" t="s">
+      <c r="D33" s="82" t="s">
         <v>221</v>
       </c>
-      <c r="E33" s="106"/>
-      <c r="F33" s="115" t="s">
+      <c r="E33" s="91"/>
+      <c r="F33" s="100" t="s">
         <v>99</v>
       </c>
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="104">
+      <c r="A34" s="89">
         <v>28</v>
       </c>
       <c r="B34" s="13" t="s">
@@ -3255,17 +3405,17 @@
       <c r="D34" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="E34" s="106"/>
-      <c r="F34" s="115" t="s">
+      <c r="E34" s="91"/>
+      <c r="F34" s="100" t="s">
         <v>99</v>
       </c>
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:7" ht="51">
-      <c r="A35" s="104">
+      <c r="A35" s="89">
         <v>29</v>
       </c>
-      <c r="B35" s="116" t="s">
+      <c r="B35" s="101" t="s">
         <v>248</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -3274,16 +3424,16 @@
       <c r="D35" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="E35" s="106" t="s">
+      <c r="E35" s="91" t="s">
         <v>281</v>
       </c>
-      <c r="F35" s="117" t="s">
+      <c r="F35" s="102" t="s">
         <v>98</v>
       </c>
       <c r="G35" s="2"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="104">
+      <c r="A36" s="89">
         <v>30</v>
       </c>
       <c r="B36" s="13" t="s">
@@ -3295,16 +3445,16 @@
       <c r="D36" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="E36" s="106" t="s">
+      <c r="E36" s="91" t="s">
         <v>282</v>
       </c>
-      <c r="F36" s="115" t="s">
+      <c r="F36" s="100" t="s">
         <v>99</v>
       </c>
       <c r="G36" s="2"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="104">
+      <c r="A37" s="89">
         <v>31</v>
       </c>
       <c r="B37" s="13" t="s">
@@ -3316,16 +3466,16 @@
       <c r="D37" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="E37" s="106" t="s">
+      <c r="E37" s="91" t="s">
         <v>283</v>
       </c>
-      <c r="F37" s="117" t="s">
+      <c r="F37" s="102" t="s">
         <v>98</v>
       </c>
       <c r="G37" s="2"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="104">
+      <c r="A38" s="89">
         <v>32</v>
       </c>
       <c r="B38" s="13" t="s">
@@ -3337,16 +3487,16 @@
       <c r="D38" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="E38" s="106" t="s">
+      <c r="E38" s="91" t="s">
         <v>282</v>
       </c>
-      <c r="F38" s="117" t="s">
+      <c r="F38" s="102" t="s">
         <v>98</v>
       </c>
       <c r="G38" s="2"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="104">
+      <c r="A39" s="89">
         <v>33</v>
       </c>
       <c r="B39" s="13" t="s">
@@ -3358,16 +3508,16 @@
       <c r="D39" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="E39" s="106" t="s">
+      <c r="E39" s="91" t="s">
         <v>284</v>
       </c>
-      <c r="F39" s="117" t="s">
+      <c r="F39" s="102" t="s">
         <v>98</v>
       </c>
       <c r="G39" s="2"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="104">
+      <c r="A40" s="89">
         <v>34</v>
       </c>
       <c r="B40" s="13" t="s">
@@ -3379,16 +3529,16 @@
       <c r="D40" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="E40" s="106" t="s">
+      <c r="E40" s="91" t="s">
         <v>282</v>
       </c>
-      <c r="F40" s="115" t="s">
+      <c r="F40" s="100" t="s">
         <v>99</v>
       </c>
       <c r="G40" s="2"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="104">
+      <c r="A41" s="89">
         <v>35</v>
       </c>
       <c r="B41" s="13" t="s">
@@ -3400,16 +3550,16 @@
       <c r="D41" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="E41" s="106" t="s">
+      <c r="E41" s="91" t="s">
         <v>285</v>
       </c>
-      <c r="F41" s="115" t="s">
+      <c r="F41" s="100" t="s">
         <v>99</v>
       </c>
       <c r="G41" s="2"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="104">
+      <c r="A42" s="89">
         <v>36</v>
       </c>
       <c r="B42" s="13" t="s">
@@ -3418,19 +3568,19 @@
       <c r="C42" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="D42" s="98" t="s">
+      <c r="D42" s="83" t="s">
         <v>257</v>
       </c>
-      <c r="E42" s="106" t="s">
+      <c r="E42" s="91" t="s">
         <v>282</v>
       </c>
-      <c r="F42" s="115" t="s">
+      <c r="F42" s="100" t="s">
         <v>99</v>
       </c>
       <c r="G42" s="2"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="104">
+      <c r="A43" s="89">
         <v>37</v>
       </c>
       <c r="B43" s="13" t="s">
@@ -3442,16 +3592,16 @@
       <c r="D43" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="E43" s="106" t="s">
+      <c r="E43" s="91" t="s">
         <v>286</v>
       </c>
-      <c r="F43" s="115" t="s">
+      <c r="F43" s="100" t="s">
         <v>99</v>
       </c>
       <c r="G43" s="2"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="104">
+      <c r="A44" s="89">
         <v>38</v>
       </c>
       <c r="B44" s="13" t="s">
@@ -3463,16 +3613,16 @@
       <c r="D44" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="E44" s="106" t="s">
+      <c r="E44" s="91" t="s">
         <v>282</v>
       </c>
-      <c r="F44" s="115" t="s">
+      <c r="F44" s="100" t="s">
         <v>99</v>
       </c>
       <c r="G44" s="2"/>
     </row>
     <row r="45" spans="1:7" ht="25.5">
-      <c r="A45" s="104">
+      <c r="A45" s="89">
         <v>39</v>
       </c>
       <c r="B45" s="13" t="s">
@@ -3484,37 +3634,37 @@
       <c r="D45" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="E45" s="106" t="s">
+      <c r="E45" s="91" t="s">
         <v>288</v>
       </c>
-      <c r="F45" s="117" t="s">
+      <c r="F45" s="102" t="s">
         <v>98</v>
       </c>
       <c r="G45" s="2"/>
     </row>
     <row r="46" spans="1:7" ht="51">
-      <c r="A46" s="104">
+      <c r="A46" s="89">
         <v>40</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="C46" s="99" t="s">
+      <c r="C46" s="84" t="s">
         <v>263</v>
       </c>
       <c r="D46" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="E46" s="106" t="s">
+      <c r="E46" s="91" t="s">
         <v>289</v>
       </c>
-      <c r="F46" s="117" t="s">
+      <c r="F46" s="102" t="s">
         <v>98</v>
       </c>
       <c r="G46" s="2"/>
     </row>
     <row r="47" spans="1:7" ht="38.25">
-      <c r="A47" s="104">
+      <c r="A47" s="89">
         <v>41</v>
       </c>
       <c r="B47" s="13" t="s">
@@ -3526,16 +3676,16 @@
       <c r="D47" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="E47" s="106" t="s">
+      <c r="E47" s="91" t="s">
         <v>324</v>
       </c>
-      <c r="F47" s="115" t="s">
+      <c r="F47" s="100" t="s">
         <v>99</v>
       </c>
       <c r="G47" s="2"/>
     </row>
     <row r="48" spans="1:7" ht="38.25">
-      <c r="A48" s="104">
+      <c r="A48" s="89">
         <v>42</v>
       </c>
       <c r="B48" s="13" t="s">
@@ -3547,16 +3697,16 @@
       <c r="D48" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="E48" s="106" t="s">
+      <c r="E48" s="91" t="s">
         <v>324</v>
       </c>
-      <c r="F48" s="117" t="s">
+      <c r="F48" s="102" t="s">
         <v>98</v>
       </c>
       <c r="G48" s="2"/>
     </row>
     <row r="49" spans="1:7" ht="25.5">
-      <c r="A49" s="104">
+      <c r="A49" s="89">
         <v>43</v>
       </c>
       <c r="B49" s="13" t="s">
@@ -3568,371 +3718,371 @@
       <c r="D49" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="E49" s="106" t="s">
+      <c r="E49" s="91" t="s">
         <v>325</v>
       </c>
-      <c r="F49" s="117" t="s">
+      <c r="F49" s="102" t="s">
         <v>98</v>
       </c>
       <c r="G49" s="2"/>
     </row>
     <row r="50" spans="1:7" ht="51">
-      <c r="A50" s="104">
+      <c r="A50" s="89">
         <v>44</v>
       </c>
       <c r="B50" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="C50" s="99" t="s">
+      <c r="C50" s="84" t="s">
         <v>327</v>
       </c>
       <c r="D50" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="E50" s="106" t="s">
+      <c r="E50" s="91" t="s">
         <v>289</v>
       </c>
-      <c r="F50" s="115" t="s">
+      <c r="F50" s="100" t="s">
         <v>99</v>
       </c>
       <c r="G50" s="2"/>
     </row>
     <row r="51" spans="1:7" ht="51">
-      <c r="A51" s="104">
+      <c r="A51" s="89">
         <v>45</v>
       </c>
       <c r="B51" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="C51" s="99" t="s">
+      <c r="C51" s="84" t="s">
         <v>330</v>
       </c>
       <c r="D51" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="E51" s="106" t="s">
+      <c r="E51" s="91" t="s">
         <v>289</v>
       </c>
-      <c r="F51" s="115" t="s">
+      <c r="F51" s="100" t="s">
         <v>99</v>
       </c>
       <c r="G51" s="2"/>
     </row>
     <row r="52" spans="1:7" ht="51">
-      <c r="A52" s="104">
+      <c r="A52" s="89">
         <v>46</v>
       </c>
       <c r="B52" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="C52" s="99" t="s">
+      <c r="C52" s="84" t="s">
         <v>332</v>
       </c>
       <c r="D52" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="E52" s="106" t="s">
+      <c r="E52" s="91" t="s">
         <v>289</v>
       </c>
-      <c r="F52" s="115" t="s">
+      <c r="F52" s="100" t="s">
         <v>99</v>
       </c>
       <c r="G52" s="2"/>
     </row>
     <row r="53" spans="1:7" ht="63.75">
-      <c r="A53" s="104">
+      <c r="A53" s="89">
         <v>47</v>
       </c>
       <c r="B53" s="13" t="s">
         <v>333</v>
       </c>
-      <c r="C53" s="99" t="s">
+      <c r="C53" s="84" t="s">
         <v>334</v>
       </c>
       <c r="D53" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="E53" s="106" t="s">
+      <c r="E53" s="91" t="s">
         <v>361</v>
       </c>
-      <c r="F53" s="117" t="s">
+      <c r="F53" s="102" t="s">
         <v>98</v>
       </c>
       <c r="G53" s="2"/>
     </row>
     <row r="54" spans="1:7" ht="63.75">
-      <c r="A54" s="104">
+      <c r="A54" s="89">
         <v>48</v>
       </c>
-      <c r="B54" s="116" t="s">
+      <c r="B54" s="101" t="s">
         <v>362</v>
       </c>
-      <c r="C54" s="99" t="s">
+      <c r="C54" s="84" t="s">
         <v>335</v>
       </c>
       <c r="D54" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="E54" s="106" t="s">
+      <c r="E54" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="F54" s="117" t="s">
+      <c r="F54" s="102" t="s">
         <v>98</v>
       </c>
       <c r="G54" s="2"/>
     </row>
     <row r="55" spans="1:7" ht="51">
-      <c r="A55" s="104">
+      <c r="A55" s="89">
         <v>49</v>
       </c>
       <c r="B55" s="13" t="s">
         <v>364</v>
       </c>
-      <c r="C55" s="99" t="s">
+      <c r="C55" s="84" t="s">
         <v>336</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="E55" s="106" t="s">
+      <c r="E55" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="F55" s="117" t="s">
+      <c r="F55" s="102" t="s">
         <v>98</v>
       </c>
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:7" ht="51">
-      <c r="A56" s="104">
+      <c r="A56" s="89">
         <v>50</v>
       </c>
       <c r="B56" s="13" t="s">
         <v>365</v>
       </c>
-      <c r="C56" s="99" t="s">
+      <c r="C56" s="84" t="s">
         <v>337</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="E56" s="106" t="s">
+      <c r="E56" s="91" t="s">
         <v>279</v>
       </c>
-      <c r="F56" s="117" t="s">
+      <c r="F56" s="102" t="s">
         <v>98</v>
       </c>
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:7" ht="57">
-      <c r="A57" s="104">
+      <c r="A57" s="89">
         <v>51</v>
       </c>
       <c r="B57" s="13" t="s">
         <v>363</v>
       </c>
-      <c r="C57" s="121" t="s">
+      <c r="C57" s="106" t="s">
         <v>338</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="E57" s="106" t="s">
+      <c r="E57" s="91" t="s">
         <v>278</v>
       </c>
-      <c r="F57" s="117" t="s">
+      <c r="F57" s="102" t="s">
         <v>98</v>
       </c>
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:7" ht="51">
-      <c r="A58" s="104">
+      <c r="A58" s="89">
         <v>52</v>
       </c>
       <c r="B58" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="C58" s="99" t="s">
+      <c r="C58" s="84" t="s">
         <v>339</v>
       </c>
       <c r="D58" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="E58" s="106"/>
-      <c r="F58" s="117" t="s">
+      <c r="E58" s="91"/>
+      <c r="F58" s="102" t="s">
         <v>98</v>
       </c>
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:7" ht="51">
-      <c r="A59" s="104">
+      <c r="A59" s="89">
         <v>53</v>
       </c>
-      <c r="B59" s="118" t="s">
+      <c r="B59" s="103" t="s">
         <v>340</v>
       </c>
-      <c r="C59" s="107" t="s">
+      <c r="C59" s="92" t="s">
         <v>341</v>
       </c>
       <c r="D59" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="E59" s="106" t="s">
+      <c r="E59" s="91" t="s">
         <v>279</v>
       </c>
-      <c r="F59" s="117" t="s">
+      <c r="F59" s="102" t="s">
         <v>98</v>
       </c>
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:7" ht="63.75">
-      <c r="A60" s="104">
+      <c r="A60" s="89">
         <v>54</v>
       </c>
-      <c r="B60" s="116" t="s">
+      <c r="B60" s="101" t="s">
         <v>342</v>
       </c>
-      <c r="C60" s="99" t="s">
+      <c r="C60" s="84" t="s">
         <v>343</v>
       </c>
       <c r="D60" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="E60" s="106" t="s">
+      <c r="E60" s="91" t="s">
         <v>280</v>
       </c>
-      <c r="F60" s="117" t="s">
+      <c r="F60" s="102" t="s">
         <v>98</v>
       </c>
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:7" ht="51">
-      <c r="A61" s="104">
+      <c r="A61" s="89">
         <v>55</v>
       </c>
       <c r="B61" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="C61" s="99" t="s">
+      <c r="C61" s="84" t="s">
         <v>345</v>
       </c>
       <c r="D61" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="E61" s="106" t="s">
+      <c r="E61" s="91" t="s">
         <v>280</v>
       </c>
-      <c r="F61" s="117" t="s">
+      <c r="F61" s="102" t="s">
         <v>98</v>
       </c>
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:7" ht="51">
-      <c r="A62" s="104">
+      <c r="A62" s="89">
         <v>56</v>
       </c>
       <c r="B62" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="C62" s="99" t="s">
+      <c r="C62" s="84" t="s">
         <v>347</v>
       </c>
       <c r="D62" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="E62" s="106" t="s">
+      <c r="E62" s="91" t="s">
         <v>280</v>
       </c>
-      <c r="F62" s="117" t="s">
+      <c r="F62" s="102" t="s">
         <v>98</v>
       </c>
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:7" ht="51">
-      <c r="A63" s="104">
+      <c r="A63" s="89">
         <v>57</v>
       </c>
       <c r="B63" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="C63" s="99" t="s">
+      <c r="C63" s="84" t="s">
         <v>349</v>
       </c>
       <c r="D63" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="E63" s="106" t="s">
+      <c r="E63" s="91" t="s">
         <v>280</v>
       </c>
-      <c r="F63" s="117" t="s">
+      <c r="F63" s="102" t="s">
         <v>98</v>
       </c>
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:7" ht="63.75">
-      <c r="A64" s="104">
+      <c r="A64" s="89">
         <v>58</v>
       </c>
-      <c r="B64" s="116" t="s">
+      <c r="B64" s="101" t="s">
         <v>350</v>
       </c>
-      <c r="C64" s="99" t="s">
+      <c r="C64" s="84" t="s">
         <v>351</v>
       </c>
       <c r="D64" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="E64" s="106" t="s">
+      <c r="E64" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="F64" s="115" t="s">
+      <c r="F64" s="100" t="s">
         <v>99</v>
       </c>
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7" ht="51">
-      <c r="A65" s="104">
+      <c r="A65" s="89">
         <v>59</v>
       </c>
       <c r="B65" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="C65" s="99" t="s">
+      <c r="C65" s="84" t="s">
         <v>353</v>
       </c>
       <c r="D65" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="E65" s="106" t="s">
+      <c r="E65" s="91" t="s">
         <v>274</v>
       </c>
-      <c r="F65" s="117" t="s">
+      <c r="F65" s="102" t="s">
         <v>98</v>
       </c>
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7" ht="51">
-      <c r="A66" s="104">
+      <c r="A66" s="89">
         <v>60</v>
       </c>
       <c r="B66" s="13" t="s">
         <v>354</v>
       </c>
-      <c r="C66" s="99" t="s">
+      <c r="C66" s="84" t="s">
         <v>355</v>
       </c>
       <c r="D66" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="E66" s="106" t="s">
+      <c r="E66" s="91" t="s">
         <v>81</v>
       </c>
-      <c r="F66" s="117" t="s">
+      <c r="F66" s="102" t="s">
         <v>98</v>
       </c>
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7" ht="51">
-      <c r="A67" s="104">
+      <c r="A67" s="89">
         <v>61</v>
       </c>
       <c r="B67" s="13" t="s">
@@ -3944,16 +4094,16 @@
       <c r="D67" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="E67" s="106" t="s">
+      <c r="E67" s="91" t="s">
         <v>274</v>
       </c>
-      <c r="F67" s="117" t="s">
+      <c r="F67" s="102" t="s">
         <v>98</v>
       </c>
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7" ht="51.75" thickBot="1">
-      <c r="A68" s="104">
+      <c r="A68" s="89">
         <v>62</v>
       </c>
       <c r="B68" s="14" t="s">
@@ -3965,8 +4115,8 @@
       <c r="D68" s="31" t="s">
         <v>328</v>
       </c>
-      <c r="E68" s="120"/>
-      <c r="F68" s="117" t="s">
+      <c r="E68" s="105"/>
+      <c r="F68" s="102" t="s">
         <v>98</v>
       </c>
       <c r="G68" s="2"/>
@@ -7224,15 +7374,15 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="4" customFormat="1">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="84"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="115"/>
     </row>
     <row r="3" spans="1:40" ht="39.75" customHeight="1">
       <c r="A3" s="13">
@@ -7371,15 +7521,15 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" s="85" t="s">
+      <c r="A9" s="116" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="86"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="87"/>
+      <c r="B9" s="117"/>
+      <c r="C9" s="117"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="118"/>
     </row>
     <row r="10" spans="1:40" ht="39.75" customHeight="1">
       <c r="A10" s="13">
@@ -7518,26 +7668,26 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" s="79" t="s">
+      <c r="A16" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="80"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="81"/>
+      <c r="B16" s="111"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="112"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="76" t="s">
+      <c r="A17" s="107" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="77"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="78"/>
+      <c r="B17" s="108"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="109"/>
     </row>
     <row r="18" spans="1:7" ht="38.25">
       <c r="A18" s="13">
@@ -7678,15 +7828,15 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="76" t="s">
+      <c r="A24" s="107" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="77"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="78"/>
+      <c r="B24" s="108"/>
+      <c r="C24" s="108"/>
+      <c r="D24" s="108"/>
+      <c r="E24" s="108"/>
+      <c r="F24" s="108"/>
+      <c r="G24" s="109"/>
     </row>
     <row r="25" spans="1:7" ht="38.25">
       <c r="A25" s="13">
@@ -7827,15 +7977,15 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="76" t="s">
+      <c r="A31" s="107" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="77"/>
-      <c r="C31" s="77"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="77"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="78"/>
+      <c r="B31" s="108"/>
+      <c r="C31" s="108"/>
+      <c r="D31" s="108"/>
+      <c r="E31" s="108"/>
+      <c r="F31" s="108"/>
+      <c r="G31" s="109"/>
     </row>
     <row r="32" spans="1:7" ht="38.25">
       <c r="A32" s="13">
@@ -7976,15 +8126,15 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="79" t="s">
+      <c r="A38" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="80"/>
-      <c r="C38" s="80"/>
-      <c r="D38" s="80"/>
-      <c r="E38" s="80"/>
-      <c r="F38" s="80"/>
-      <c r="G38" s="81"/>
+      <c r="B38" s="111"/>
+      <c r="C38" s="111"/>
+      <c r="D38" s="111"/>
+      <c r="E38" s="111"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="112"/>
     </row>
     <row r="39" spans="1:9" ht="38.25">
       <c r="A39" s="13">
@@ -12537,38 +12687,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="101" t="s">
+      <c r="B1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="101" t="s">
+      <c r="C1" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="101" t="s">
+      <c r="D1" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="101" t="s">
+      <c r="E1" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="101" t="s">
+      <c r="F1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="102" t="s">
+      <c r="G1" s="87" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="81"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="112"/>
     </row>
     <row r="3" spans="1:7" ht="41.25" customHeight="1">
       <c r="A3" s="13">
@@ -12640,15 +12790,15 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="81"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="112"/>
     </row>
     <row r="7" spans="1:7" ht="38.25">
       <c r="A7" s="13">
@@ -12720,26 +12870,26 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="80"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="81"/>
+      <c r="B10" s="111"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="112"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="88" t="s">
+      <c r="A11" s="119" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="89"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="90"/>
+      <c r="B11" s="120"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="121"/>
     </row>
     <row r="12" spans="1:7" ht="42.75" customHeight="1">
       <c r="A12" s="13">
@@ -12811,15 +12961,15 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="119" t="s">
         <v>121</v>
       </c>
-      <c r="B15" s="89"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="90"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="121"/>
     </row>
     <row r="16" spans="1:7" ht="38.25">
       <c r="A16" s="13">
@@ -12892,15 +13042,15 @@
       <c r="I18" s="37"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="88" t="s">
+      <c r="A19" s="119" t="s">
         <v>128</v>
       </c>
-      <c r="B19" s="89"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="90"/>
+      <c r="B19" s="120"/>
+      <c r="C19" s="120"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="120"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="121"/>
     </row>
     <row r="20" spans="1:11" ht="38.25">
       <c r="A20" s="13">
@@ -12972,15 +13122,15 @@
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="79" t="s">
+      <c r="A23" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="80"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="81"/>
+      <c r="B23" s="111"/>
+      <c r="C23" s="111"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="111"/>
+      <c r="F23" s="111"/>
+      <c r="G23" s="112"/>
     </row>
     <row r="24" spans="1:11" ht="38.25">
       <c r="A24" s="13">
@@ -16405,23 +16555,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{840D283B-59EB-4729-832F-FB5CD19B3B08}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148A02EB-2AB5-4CEE-AD31-2C5B103FBDAA}">
   <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:B49"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16955,97 +17093,123 @@
       <c r="H32" s="2"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="71" t="s">
+      <c r="A33" s="73" t="s">
         <v>164</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="123" t="s">
         <v>172</v>
       </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
+      <c r="C33" s="124"/>
+      <c r="D33" s="125" t="s">
+        <v>164</v>
+      </c>
+      <c r="E33" s="126" t="s">
+        <v>172</v>
+      </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="71" t="s">
+      <c r="A34" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="123" t="s">
         <v>198</v>
       </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
+      <c r="C34" s="124"/>
+      <c r="D34" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="123" t="s">
+        <v>389</v>
+      </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="71" t="s">
+    <row r="35" spans="1:8" ht="15" customHeight="1">
+      <c r="A35" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
+      <c r="C35" s="124"/>
+      <c r="D35" s="125" t="s">
+        <v>162</v>
+      </c>
+      <c r="E35" s="126" t="s">
+        <v>367</v>
+      </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="72" t="s">
+      <c r="A36" s="73" t="s">
         <v>165</v>
       </c>
-      <c r="B36" s="70"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
+      <c r="B36" s="79"/>
+      <c r="C36" s="124"/>
+      <c r="D36" s="125" t="s">
+        <v>165</v>
+      </c>
+      <c r="E36" s="127"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="74" t="s">
+    <row r="37" spans="1:8" ht="75">
+      <c r="A37" s="122" t="s">
         <v>166</v>
       </c>
-      <c r="B37" s="65" t="s">
+      <c r="B37" s="128" t="s">
         <v>176</v>
       </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
+      <c r="C37" s="124"/>
+      <c r="D37" s="125" t="s">
+        <v>166</v>
+      </c>
+      <c r="E37" s="126" t="s">
+        <v>368</v>
+      </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" ht="25.5">
       <c r="A38" s="73" t="s">
         <v>97</v>
       </c>
-      <c r="B38" s="66" t="s">
+      <c r="B38" s="128" t="s">
         <v>200</v>
       </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
+      <c r="C38" s="124"/>
+      <c r="D38" s="125" t="s">
+        <v>97</v>
+      </c>
+      <c r="E38" s="127" t="s">
+        <v>369</v>
+      </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" ht="25.5">
       <c r="A39" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="B39" s="66" t="s">
+      <c r="B39" s="128" t="s">
         <v>201</v>
       </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
+      <c r="C39" s="124"/>
+      <c r="D39" s="125" t="s">
+        <v>96</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>370</v>
+      </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -17054,12 +17218,16 @@
       <c r="A40" s="73" t="s">
         <v>163</v>
       </c>
-      <c r="B40" s="66" t="s">
+      <c r="B40" s="128" t="s">
         <v>181</v>
       </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
+      <c r="C40" s="124"/>
+      <c r="D40" s="125" t="s">
+        <v>163</v>
+      </c>
+      <c r="E40" s="126" t="s">
+        <v>371</v>
+      </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -17068,12 +17236,16 @@
       <c r="A41" s="73" t="s">
         <v>167</v>
       </c>
-      <c r="B41" s="66" t="s">
+      <c r="B41" s="128" t="s">
         <v>182</v>
       </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
+      <c r="C41" s="124"/>
+      <c r="D41" s="125" t="s">
+        <v>167</v>
+      </c>
+      <c r="E41" s="126" t="s">
+        <v>372</v>
+      </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
@@ -17082,12 +17254,16 @@
       <c r="A42" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B42" s="66" t="s">
+      <c r="B42" s="128" t="s">
         <v>183</v>
       </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
+      <c r="C42" s="124"/>
+      <c r="D42" s="125" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="126" t="s">
+        <v>183</v>
+      </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
@@ -17096,12 +17272,16 @@
       <c r="A43" s="73" t="s">
         <v>168</v>
       </c>
-      <c r="B43" s="66" t="s">
+      <c r="B43" s="128" t="s">
         <v>186</v>
       </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
+      <c r="C43" s="124"/>
+      <c r="D43" s="125" t="s">
+        <v>168</v>
+      </c>
+      <c r="E43" s="126" t="s">
+        <v>373</v>
+      </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
@@ -17110,12 +17290,16 @@
       <c r="A44" s="73" t="s">
         <v>169</v>
       </c>
-      <c r="B44" s="66" t="s">
+      <c r="B44" s="128" t="s">
         <v>185</v>
       </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
+      <c r="C44" s="124"/>
+      <c r="D44" s="125" t="s">
+        <v>169</v>
+      </c>
+      <c r="E44" s="126" t="s">
+        <v>185</v>
+      </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
@@ -17124,12 +17308,16 @@
       <c r="A45" s="73" t="s">
         <v>170</v>
       </c>
-      <c r="B45" s="66" t="s">
+      <c r="B45" s="128" t="s">
         <v>184</v>
       </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
+      <c r="C45" s="124"/>
+      <c r="D45" s="125" t="s">
+        <v>170</v>
+      </c>
+      <c r="E45" s="126" t="s">
+        <v>184</v>
+      </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
@@ -17138,12 +17326,16 @@
       <c r="A46" s="73" t="s">
         <v>171</v>
       </c>
-      <c r="B46" s="75" t="s">
+      <c r="B46" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
+      <c r="C46" s="124"/>
+      <c r="D46" s="125" t="s">
+        <v>171</v>
+      </c>
+      <c r="E46" s="36" t="s">
+        <v>175</v>
+      </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
@@ -17169,461 +17361,731 @@
       <c r="H48" s="2"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="6"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
+      <c r="A49" s="125" t="s">
+        <v>164</v>
+      </c>
+      <c r="B49" s="126" t="s">
+        <v>172</v>
+      </c>
+      <c r="C49" s="129"/>
+      <c r="D49" s="125" t="s">
+        <v>164</v>
+      </c>
+      <c r="E49" s="126" t="s">
+        <v>172</v>
+      </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="6"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
+      <c r="A50" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="123" t="s">
+        <v>390</v>
+      </c>
+      <c r="C50" s="129"/>
+      <c r="D50" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="E50" s="123" t="s">
+        <v>391</v>
+      </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="6"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
+      <c r="A51" s="125" t="s">
+        <v>162</v>
+      </c>
+      <c r="B51" s="126" t="s">
+        <v>374</v>
+      </c>
+      <c r="C51" s="129"/>
+      <c r="D51" s="125" t="s">
+        <v>162</v>
+      </c>
+      <c r="E51" s="126" t="s">
+        <v>375</v>
+      </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="6"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
+      <c r="A52" s="125" t="s">
+        <v>165</v>
+      </c>
+      <c r="B52" s="127"/>
+      <c r="C52" s="129"/>
+      <c r="D52" s="125" t="s">
+        <v>165</v>
+      </c>
+      <c r="E52" s="127"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
     </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="6"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
+    <row r="53" spans="1:8" ht="75">
+      <c r="A53" s="125" t="s">
+        <v>166</v>
+      </c>
+      <c r="B53" s="126" t="s">
+        <v>376</v>
+      </c>
+      <c r="C53" s="129"/>
+      <c r="D53" s="125" t="s">
+        <v>166</v>
+      </c>
+      <c r="E53" s="126" t="s">
+        <v>377</v>
+      </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
     </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="6"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
+    <row r="54" spans="1:8" ht="25.5">
+      <c r="A54" s="125" t="s">
+        <v>97</v>
+      </c>
+      <c r="B54" s="127" t="s">
+        <v>369</v>
+      </c>
+      <c r="C54" s="129"/>
+      <c r="D54" s="125" t="s">
+        <v>97</v>
+      </c>
+      <c r="E54" s="127" t="s">
+        <v>378</v>
+      </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
     </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="6"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
+    <row r="55" spans="1:8" ht="25.5">
+      <c r="A55" s="125" t="s">
+        <v>96</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="C55" s="129"/>
+      <c r="D55" s="125" t="s">
+        <v>96</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>380</v>
+      </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="6"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
+      <c r="A56" s="125" t="s">
+        <v>163</v>
+      </c>
+      <c r="B56" s="126" t="s">
+        <v>381</v>
+      </c>
+      <c r="C56" s="129"/>
+      <c r="D56" s="125" t="s">
+        <v>163</v>
+      </c>
+      <c r="E56" s="126" t="s">
+        <v>381</v>
+      </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="6"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
+      <c r="A57" s="125" t="s">
+        <v>167</v>
+      </c>
+      <c r="B57" s="126" t="s">
+        <v>182</v>
+      </c>
+      <c r="C57" s="129"/>
+      <c r="D57" s="125" t="s">
+        <v>167</v>
+      </c>
+      <c r="E57" s="126" t="s">
+        <v>182</v>
+      </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="6"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
+      <c r="A58" s="125" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" s="126" t="s">
+        <v>183</v>
+      </c>
+      <c r="C58" s="129"/>
+      <c r="D58" s="125" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="126" t="s">
+        <v>183</v>
+      </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="6"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
+      <c r="A59" s="125" t="s">
+        <v>168</v>
+      </c>
+      <c r="B59" s="126" t="s">
+        <v>373</v>
+      </c>
+      <c r="C59" s="129"/>
+      <c r="D59" s="125" t="s">
+        <v>168</v>
+      </c>
+      <c r="E59" s="126" t="s">
+        <v>373</v>
+      </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="6"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
+      <c r="A60" s="125" t="s">
+        <v>169</v>
+      </c>
+      <c r="B60" s="126" t="s">
+        <v>185</v>
+      </c>
+      <c r="C60" s="129"/>
+      <c r="D60" s="125" t="s">
+        <v>169</v>
+      </c>
+      <c r="E60" s="126" t="s">
+        <v>185</v>
+      </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="6"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
+      <c r="A61" s="125" t="s">
+        <v>170</v>
+      </c>
+      <c r="B61" s="126" t="s">
+        <v>184</v>
+      </c>
+      <c r="C61" s="129"/>
+      <c r="D61" s="125" t="s">
+        <v>170</v>
+      </c>
+      <c r="E61" s="126" t="s">
+        <v>184</v>
+      </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="6"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
+      <c r="A62" s="125" t="s">
+        <v>171</v>
+      </c>
+      <c r="B62" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C62" s="129"/>
+      <c r="D62" s="125" t="s">
+        <v>171</v>
+      </c>
+      <c r="E62" s="36" t="s">
+        <v>175</v>
+      </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="6"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
+      <c r="A63" s="129"/>
+      <c r="B63" s="129"/>
+      <c r="C63" s="129"/>
+      <c r="D63" s="129"/>
+      <c r="E63" s="129"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="6"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
+      <c r="A64" s="129"/>
+      <c r="B64" s="129"/>
+      <c r="C64" s="129"/>
+      <c r="D64" s="129"/>
+      <c r="E64" s="129"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="6"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
+      <c r="A65" s="125" t="s">
+        <v>164</v>
+      </c>
+      <c r="B65" s="126" t="s">
+        <v>172</v>
+      </c>
+      <c r="C65" s="129"/>
+      <c r="D65" s="125" t="s">
+        <v>164</v>
+      </c>
+      <c r="E65" s="126" t="s">
+        <v>172</v>
+      </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="6"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
+      <c r="A66" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" s="123" t="s">
+        <v>392</v>
+      </c>
+      <c r="C66" s="129"/>
+      <c r="D66" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="E66" s="123" t="s">
+        <v>393</v>
+      </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="6"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
+      <c r="A67" s="125" t="s">
+        <v>162</v>
+      </c>
+      <c r="B67" s="126" t="s">
+        <v>382</v>
+      </c>
+      <c r="C67" s="129"/>
+      <c r="D67" s="125" t="s">
+        <v>162</v>
+      </c>
+      <c r="E67" s="126" t="s">
+        <v>383</v>
+      </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="6"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
+      <c r="A68" s="125" t="s">
+        <v>165</v>
+      </c>
+      <c r="B68" s="127"/>
+      <c r="C68" s="129"/>
+      <c r="D68" s="125" t="s">
+        <v>165</v>
+      </c>
+      <c r="E68" s="127"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
     </row>
-    <row r="69" spans="1:8">
-      <c r="A69" s="6"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
+    <row r="69" spans="1:8" ht="63.75">
+      <c r="A69" s="125" t="s">
+        <v>166</v>
+      </c>
+      <c r="B69" s="127" t="s">
+        <v>396</v>
+      </c>
+      <c r="C69" s="129"/>
+      <c r="D69" s="125" t="s">
+        <v>166</v>
+      </c>
+      <c r="E69" s="127" t="s">
+        <v>397</v>
+      </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
     </row>
-    <row r="70" spans="1:8">
-      <c r="A70" s="6"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
+    <row r="70" spans="1:8" ht="25.5">
+      <c r="A70" s="125" t="s">
+        <v>97</v>
+      </c>
+      <c r="B70" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="C70" s="129"/>
+      <c r="D70" s="125" t="s">
+        <v>97</v>
+      </c>
+      <c r="E70" s="17" t="s">
+        <v>384</v>
+      </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
     </row>
-    <row r="71" spans="1:8">
-      <c r="A71" s="6"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
+    <row r="71" spans="1:8" ht="25.5">
+      <c r="A71" s="125" t="s">
+        <v>96</v>
+      </c>
+      <c r="B71" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="C71" s="129"/>
+      <c r="D71" s="125" t="s">
+        <v>96</v>
+      </c>
+      <c r="E71" s="17" t="s">
+        <v>379</v>
+      </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="6"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
+      <c r="A72" s="125" t="s">
+        <v>163</v>
+      </c>
+      <c r="B72" s="126" t="s">
+        <v>181</v>
+      </c>
+      <c r="C72" s="129"/>
+      <c r="D72" s="125" t="s">
+        <v>163</v>
+      </c>
+      <c r="E72" s="126" t="s">
+        <v>181</v>
+      </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="6"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
+      <c r="A73" s="125" t="s">
+        <v>167</v>
+      </c>
+      <c r="B73" s="126" t="s">
+        <v>182</v>
+      </c>
+      <c r="C73" s="129"/>
+      <c r="D73" s="125" t="s">
+        <v>167</v>
+      </c>
+      <c r="E73" s="126" t="s">
+        <v>182</v>
+      </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="6"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
+      <c r="A74" s="125" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" s="126" t="s">
+        <v>183</v>
+      </c>
+      <c r="C74" s="129"/>
+      <c r="D74" s="125" t="s">
+        <v>3</v>
+      </c>
+      <c r="E74" s="126" t="s">
+        <v>183</v>
+      </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="6"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
+      <c r="A75" s="125" t="s">
+        <v>168</v>
+      </c>
+      <c r="B75" s="126" t="s">
+        <v>373</v>
+      </c>
+      <c r="C75" s="129"/>
+      <c r="D75" s="125" t="s">
+        <v>168</v>
+      </c>
+      <c r="E75" s="126" t="s">
+        <v>373</v>
+      </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="6"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
+      <c r="A76" s="125" t="s">
+        <v>169</v>
+      </c>
+      <c r="B76" s="126" t="s">
+        <v>185</v>
+      </c>
+      <c r="C76" s="129"/>
+      <c r="D76" s="125" t="s">
+        <v>169</v>
+      </c>
+      <c r="E76" s="126" t="s">
+        <v>185</v>
+      </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="6"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
+      <c r="A77" s="125" t="s">
+        <v>170</v>
+      </c>
+      <c r="B77" s="126" t="s">
+        <v>184</v>
+      </c>
+      <c r="C77" s="129"/>
+      <c r="D77" s="125" t="s">
+        <v>170</v>
+      </c>
+      <c r="E77" s="126" t="s">
+        <v>184</v>
+      </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="6"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
+      <c r="A78" s="125" t="s">
+        <v>171</v>
+      </c>
+      <c r="B78" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C78" s="129"/>
+      <c r="D78" s="125" t="s">
+        <v>171</v>
+      </c>
+      <c r="E78" s="36" t="s">
+        <v>175</v>
+      </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="6"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
+      <c r="A79" s="129"/>
+      <c r="B79" s="129"/>
+      <c r="C79" s="129"/>
+      <c r="D79" s="129"/>
+      <c r="E79" s="129"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="6"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
+      <c r="A80" s="129"/>
+      <c r="B80" s="129"/>
+      <c r="C80" s="129"/>
+      <c r="D80" s="129"/>
+      <c r="E80" s="129"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="6"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
+      <c r="A81" s="125" t="s">
+        <v>164</v>
+      </c>
+      <c r="B81" s="126" t="s">
+        <v>172</v>
+      </c>
+      <c r="C81" s="129"/>
+      <c r="D81" s="129"/>
+      <c r="E81" s="129"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="6"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
+      <c r="A82" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" s="123" t="s">
+        <v>394</v>
+      </c>
+      <c r="C82" s="129"/>
+      <c r="D82" s="129"/>
+      <c r="E82" s="129"/>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="6"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
+      <c r="A83" s="125" t="s">
+        <v>162</v>
+      </c>
+      <c r="B83" s="126" t="s">
+        <v>386</v>
+      </c>
+      <c r="C83" s="129"/>
+      <c r="D83" s="129"/>
+      <c r="E83" s="129"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="6"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
+      <c r="A84" s="125" t="s">
+        <v>165</v>
+      </c>
+      <c r="B84" s="127"/>
+      <c r="C84" s="129"/>
+      <c r="D84" s="129"/>
+      <c r="E84" s="129"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
     </row>
-    <row r="85" spans="1:8">
-      <c r="A85" s="6"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
+    <row r="85" spans="1:8" ht="63.75">
+      <c r="A85" s="125" t="s">
+        <v>166</v>
+      </c>
+      <c r="B85" s="127" t="s">
+        <v>395</v>
+      </c>
+      <c r="C85" s="129"/>
+      <c r="D85" s="129"/>
+      <c r="E85" s="129"/>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
     </row>
-    <row r="86" spans="1:8">
-      <c r="A86" s="6"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
+    <row r="86" spans="1:8" ht="25.5">
+      <c r="A86" s="125" t="s">
+        <v>97</v>
+      </c>
+      <c r="B86" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="C86" s="129"/>
+      <c r="D86" s="129"/>
+      <c r="E86" s="129"/>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
     </row>
-    <row r="87" spans="1:8">
-      <c r="A87" s="6"/>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
+    <row r="87" spans="1:8" ht="25.5">
+      <c r="A87" s="125" t="s">
+        <v>96</v>
+      </c>
+      <c r="B87" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="C87" s="129"/>
+      <c r="D87" s="129"/>
+      <c r="E87" s="129"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="6"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
+      <c r="A88" s="125" t="s">
+        <v>163</v>
+      </c>
+      <c r="B88" s="126" t="s">
+        <v>181</v>
+      </c>
+      <c r="C88" s="129"/>
+      <c r="D88" s="129"/>
+      <c r="E88" s="129"/>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="6"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
+      <c r="A89" s="125" t="s">
+        <v>167</v>
+      </c>
+      <c r="B89" s="126" t="s">
+        <v>182</v>
+      </c>
+      <c r="C89" s="129"/>
+      <c r="D89" s="129"/>
+      <c r="E89" s="129"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="6"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
+      <c r="A90" s="125" t="s">
+        <v>3</v>
+      </c>
+      <c r="B90" s="126" t="s">
+        <v>183</v>
+      </c>
+      <c r="C90" s="129"/>
+      <c r="D90" s="129"/>
+      <c r="E90" s="129"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
     </row>
     <row r="91" spans="1:8">
-      <c r="A91" s="6"/>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
+      <c r="A91" s="125" t="s">
+        <v>168</v>
+      </c>
+      <c r="B91" s="126" t="s">
+        <v>373</v>
+      </c>
+      <c r="C91" s="129"/>
+      <c r="D91" s="129"/>
+      <c r="E91" s="129"/>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" s="6"/>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
+      <c r="A92" s="125" t="s">
+        <v>169</v>
+      </c>
+      <c r="B92" s="126" t="s">
+        <v>185</v>
+      </c>
+      <c r="C92" s="129"/>
+      <c r="D92" s="129"/>
+      <c r="E92" s="129"/>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="6"/>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
+      <c r="A93" s="125" t="s">
+        <v>170</v>
+      </c>
+      <c r="B93" s="126" t="s">
+        <v>184</v>
+      </c>
+      <c r="C93" s="129"/>
+      <c r="D93" s="129"/>
+      <c r="E93" s="129"/>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
     </row>
     <row r="94" spans="1:8">
-      <c r="A94" s="6"/>
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
+      <c r="A94" s="125" t="s">
+        <v>171</v>
+      </c>
+      <c r="B94" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C94" s="129"/>
+      <c r="D94" s="129"/>
+      <c r="E94" s="129"/>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
@@ -17885,8 +18347,14 @@
     <hyperlink ref="B30" r:id="rId3" xr:uid="{25AEBDE2-5E2B-475E-9F75-77151F0F0777}"/>
     <hyperlink ref="E30" r:id="rId4" xr:uid="{06B0AD77-8127-4AC2-8540-047E89A59C36}"/>
     <hyperlink ref="B46" r:id="rId5" xr:uid="{E1C19043-C5CB-4C0C-9C8D-8219637B70C1}"/>
+    <hyperlink ref="E46" r:id="rId6" xr:uid="{11FEB61B-83E8-4B51-BCF2-378B1E41EE1E}"/>
+    <hyperlink ref="B62" r:id="rId7" xr:uid="{06C4753B-A007-4CCE-A5EC-A2ADCC8C4F7F}"/>
+    <hyperlink ref="E62" r:id="rId8" xr:uid="{CAC89666-7B64-453B-888C-37A394B6E8B9}"/>
+    <hyperlink ref="B78" r:id="rId9" xr:uid="{F4374276-F08B-4EC8-9169-C95B4B8388F6}"/>
+    <hyperlink ref="E78" r:id="rId10" xr:uid="{D5CE4271-57C6-43C6-8028-D41A0633EFFF}"/>
+    <hyperlink ref="B94" r:id="rId11" xr:uid="{A8109BF1-4621-45D2-9781-F06782A9F395}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId12"/>
 </worksheet>
 </file>
--- a/Web_Form_Chek_list.xlsx
+++ b/Web_Form_Chek_list.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D018200F-92A6-4361-82FA-96C8BC644459}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8E010C-4808-45BD-BD7F-78DD0333F0A7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Общий" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="374">
   <si>
     <t>ID</t>
   </si>
@@ -38,15 +38,9 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Проверка поля "Name"</t>
   </si>
   <si>
-    <t>I</t>
-  </si>
-  <si>
     <t>Ui</t>
   </si>
   <si>
@@ -92,9 +86,6 @@
     <t>ytukyuk@mail.com</t>
   </si>
   <si>
-    <t>Maria</t>
-  </si>
-  <si>
     <t>S</t>
   </si>
   <si>
@@ -105,12 +96,6 @@
   </si>
   <si>
     <t>4flcbndhfjrlfkdj45snzndschfld847psirbak09vncmskfhfnmzh8jajfddor</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Alexandra</t>
   </si>
   <si>
     <t>Ввести 64 знака</t>
@@ -284,9 +269,6 @@
     <t>h4nd9ketFnsva@hrg</t>
   </si>
   <si>
-    <t>Surname</t>
-  </si>
-  <si>
     <t>3.7.2</t>
   </si>
   <si>
@@ -349,17 +331,6 @@
 "Success! Hello: User hflcbndhf947fkdjrnchfbsmchf01cmfpsirba756vncmsjnhcvmzhqjaj98dorhw"</t>
   </si>
   <si>
-    <t>Ввести 1 значение</t>
-  </si>
-  <si>
-    <t>Q</t>
-  </si>
-  <si>
-    <t>Успешная регистрация.
-Выводится синее поле с надписью:
-"Success! Hello: Q"</t>
-  </si>
-  <si>
     <t>Ввести 19 значений</t>
   </si>
   <si>
@@ -377,14 +348,6 @@
     <t>Alexandr-Georgi-Serafim-Vladimir-Stefan-Pavel-Valentin-Andrew-Roman-Grigoriiy</t>
   </si>
   <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t>Успешная регистрация.
-Выводится синее поле с надписью:
-"Success! Hello: User Z"</t>
-  </si>
-  <si>
     <t>Ввести 16 значений</t>
   </si>
   <si>
@@ -420,12 +383,6 @@
     <t>Название сервиса:</t>
   </si>
   <si>
-    <t>Ввести 1 символ</t>
-  </si>
-  <si>
-    <t>kjhdfgk@m.ru</t>
-  </si>
-  <si>
     <t>Ввести 12 символов</t>
   </si>
   <si>
@@ -441,9 +398,6 @@
     <t>Доменное имя:</t>
   </si>
   <si>
-    <t>hfidj@mail.c</t>
-  </si>
-  <si>
     <t>Ввести 8 символов</t>
   </si>
   <si>
@@ -474,72 +428,6 @@
     <t>`</t>
   </si>
   <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>dftght@@mail.ru</t>
-  </si>
-  <si>
-    <t>Fedotov</t>
-  </si>
-  <si>
-    <t>dfs@mail!ru</t>
-  </si>
-  <si>
-    <t>hdGjsg@jdj9</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>dvjdii@mail.ru</t>
-  </si>
-  <si>
-    <t>jsc@hgdfY7</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>Komarov</t>
-  </si>
-  <si>
-    <t>xbaidh@gmail.com</t>
-  </si>
-  <si>
-    <t>JDEJ</t>
-  </si>
-  <si>
-    <t>Zayceva</t>
-  </si>
-  <si>
-    <t>nskfvc@iCloud.com</t>
-  </si>
-  <si>
-    <t>&amp;*#%(</t>
-  </si>
-  <si>
-    <t>Petr</t>
-  </si>
-  <si>
-    <t>ksvfb@yandex.ru</t>
-  </si>
-  <si>
-    <t>fdj0kjh@hcB</t>
-  </si>
-  <si>
-    <t>Sonya</t>
-  </si>
-  <si>
-    <t>Smolkina</t>
-  </si>
-  <si>
-    <t>dd*(z)@mail.ru</t>
-  </si>
-  <si>
-    <t>bgHg6d@gb</t>
-  </si>
-  <si>
     <t>Summary</t>
   </si>
   <si>
@@ -621,24 +509,15 @@
     <t>В поле Surname плейсхолдер содержит знак вопроса (?)</t>
   </si>
   <si>
-    <t>В названии поля Surname пропущена буква n.</t>
-  </si>
-  <si>
     <t>Название поля - Surame</t>
   </si>
   <si>
     <t>Название поля - Surname</t>
   </si>
   <si>
-    <t>Неправильное название интерфейса регистрации вверху страницы.</t>
-  </si>
-  <si>
     <t>Название формы регистрации - ITCareerToday web form</t>
   </si>
   <si>
-    <t>Название формы регистрации - Registered</t>
-  </si>
-  <si>
     <t>High</t>
   </si>
   <si>
@@ -649,9 +528,6 @@
   </si>
   <si>
     <t>Bug-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Название кнопки Submit находится не посредеине </t>
   </si>
   <si>
     <t>Название кнопки Submit съехало вправо</t>
@@ -932,21 +808,11 @@
 "Success! Hello: JackNick"</t>
   </si>
   <si>
-    <t>Проверка соответствия
-требованиям поля с сообщением
-об успешной регистрации</t>
-  </si>
-  <si>
     <t>Визуальный осмотр поля.</t>
   </si>
   <si>
     <t xml:space="preserve">Корректные надписи размещения текста в поле, соответствующие требованиям 
 </t>
-  </si>
-  <si>
-    <t>Проверка соответствия
-требованиям поля с сообщением
-о неуспешной регистрации</t>
   </si>
   <si>
     <t>Корректные надписи размещения текста в поле, соответствующие требованиям</t>
@@ -1362,136 +1228,183 @@
     <t>Не регистрируется пользователь с незаполненым полем Username</t>
   </si>
   <si>
-    <t>Ввести
+    <t>Выводится окно с надписью
+"Error: Error: All Fields are Required"</t>
+  </si>
+  <si>
+    <t>Выводится синее поле с надписью:
+"Success! Hello: JackNick"</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Windows 10 LTSC x 64</t>
+  </si>
+  <si>
+    <t>Сообщение о неудачной регистрации не корректно.</t>
+  </si>
+  <si>
+    <t>Ширина полей не стабильна.</t>
+  </si>
+  <si>
+    <t>Поля увеличиваются по ширине до значения ширины окна.</t>
+  </si>
+  <si>
+    <t>Выводится краcное поле c надписью:
+Error: invalid Password</t>
+  </si>
+  <si>
+    <t>Поля уменьшаются пропорционально окну.</t>
+  </si>
+  <si>
+    <t>Trivial</t>
+  </si>
+  <si>
+    <t>Регистрируется пользователь с невалидным Email</t>
+  </si>
+  <si>
+    <t>Регистрируется пользователь с невалидным Password</t>
+  </si>
+  <si>
+    <t>Выводится синее поле с надписью:
+"Success! Hello: JackNick2 Back"</t>
+  </si>
+  <si>
+    <t>Выводится краcное поле c надписью:
+Error: invalid Email</t>
+  </si>
+  <si>
+    <t>Регистрируется пользователь с невалидным Name</t>
+  </si>
+  <si>
+    <t>Выводится синее поле с надписью:
+"Success! Hello: Джек Back"</t>
+  </si>
+  <si>
+    <t>Выводится краcное поле c надписью:
+Error: invalid Name</t>
+  </si>
+  <si>
+    <t>Bug-6</t>
+  </si>
+  <si>
+    <t>Bug-7</t>
+  </si>
+  <si>
+    <t>Bug-8</t>
+  </si>
+  <si>
+    <t>Bug-9</t>
+  </si>
+  <si>
+    <t>Bug-10</t>
+  </si>
+  <si>
+    <t>Bug-11</t>
+  </si>
+  <si>
+    <t>1. Открыть интерфес регитсрации                                                                  2.Ввести
 Name: JackNick 
 Surname:
 Email: qwerty@qwerty.ru 
 Password: 1@Qwerty</t>
   </si>
   <si>
-    <t>Выводится окно с надписью
-"Error: Error: All Fields are Required"</t>
-  </si>
-  <si>
-    <t>Выводится синее поле с надписью:
-"Success! Hello: JackNick"</t>
-  </si>
-  <si>
-    <t>Major</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>Windows 10 LTSC x 64</t>
-  </si>
-  <si>
-    <t>Сообщение о неудачной регистрации не корректно.</t>
-  </si>
-  <si>
-    <t>Ширина полей не стабильна.</t>
-  </si>
-  <si>
-    <t>Ввести
+    <t>1. Открыть интерфейс регистрации                                                            2.Ввести невалидный Email:
+Name: Jack 
+Surname: Back 
+Email: ty@1qwerty.ru
+Password: 2@Qwerty</t>
+  </si>
+  <si>
+    <t>1. Открыть интерфейс регистрации                                                                 2. Ввести невалидный Name:
+Name: Джек
+Surname: Back 
+Email: tywe@1qwerty.ru
+Password: Qwerty</t>
+  </si>
+  <si>
+    <t>1. Открыть интерфейс регистрации                                                           2. Ввести невалидный Password
+Name: Jack 
+Surname: Back 
+Email: tywe@1qwerty.ru
+Password: Qwerty</t>
+  </si>
+  <si>
+    <t>1. Открыть интерфейс регистрации                                                                    2. Уменьшить окно браузера по ширине 
+на значение меньше 668 пикселей.</t>
+  </si>
+  <si>
+    <t>1. Открыть интерфейс регитсрации                                                                                 2. Ввести
 Name: JackNick 
 Surname:
 Email: qwerty@qwerty.ru 
 Password: Qwerty</t>
   </si>
   <si>
-    <t>Уменьшить окно браузера по ширине 
-на значение меньше 668 пикселей.</t>
-  </si>
-  <si>
-    <t>Поля увеличиваются по ширине до значения ширины окна.</t>
-  </si>
-  <si>
-    <t>Выводится краcное поле c надписью:
-Error: invalid Password</t>
-  </si>
-  <si>
-    <t>Поля уменьшаются пропорционально окну.</t>
-  </si>
-  <si>
-    <t>Trivial</t>
-  </si>
-  <si>
-    <t>Регистрируется пользователь с невалидным Email</t>
-  </si>
-  <si>
-    <t>Регистрируется пользователь с невалидным Password</t>
-  </si>
-  <si>
-    <t>Выводится синее поле с надписью:
-"Success! Hello: JackNick2 Back"</t>
-  </si>
-  <si>
-    <t>Выводится краcное поле c надписью:
-Error: invalid Email</t>
-  </si>
-  <si>
-    <t>Регистрируется пользователь с невалидным Name</t>
-  </si>
-  <si>
-    <t>Выводится синее поле с надписью:
-"Success! Hello: Джек Back"</t>
-  </si>
-  <si>
-    <t>Выводится краcное поле c надписью:
-Error: invalid Name</t>
-  </si>
-  <si>
-    <t>Bug-6</t>
-  </si>
-  <si>
-    <t>Bug-7</t>
-  </si>
-  <si>
-    <t>Bug-8</t>
-  </si>
-  <si>
-    <t>Bug-9</t>
-  </si>
-  <si>
-    <t>Bug-10</t>
-  </si>
-  <si>
-    <t>Bug-11</t>
-  </si>
-  <si>
-    <t>Ввести невалидный Name:
-Name: Джек
-Surname: Back 
-Email: tywe@1qwerty.ru
-Password: Qwerty</t>
-  </si>
-  <si>
-    <t>Ввести невалидный Email:
-Name: Jack 
-Surname: Back 
-Email: ty@1qwerty.ru
-Password: 2@Qwerty</t>
-  </si>
-  <si>
-    <t>Ввести невалидный Password
-Name: Jack 
-Surname: Back 
-Email: tywe@1qwerty.ru
-Password: Qwerty</t>
+    <t>Текст сообщения при неуспешной регистрации. Расположен внизу формы в красном поле.</t>
+  </si>
+  <si>
+    <t>Текст сообщения при успешной регистрации: "Success! Hello, User!". Расположен внизу формы в голубом поле.</t>
+  </si>
+  <si>
+    <t>Внизу выводится сообщение о невозможности регистрации</t>
+  </si>
+  <si>
+    <t>Название формы регистрации - Registeration Form</t>
+  </si>
+  <si>
+    <t>В названии поля Surname пропущена буква n - "Surame".</t>
+  </si>
+  <si>
+    <t>Название формы - "ITCareerToday web form".</t>
+  </si>
+  <si>
+    <t>Название кнопки Submit находится смещено вправо</t>
+  </si>
+  <si>
+    <t>Браузер</t>
+  </si>
+  <si>
+    <t>ОС</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>MacOS</t>
+  </si>
+  <si>
+    <t>iOS</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>Safari</t>
+  </si>
+  <si>
+    <t>Mozilla</t>
+  </si>
+  <si>
+    <t>Yandex</t>
+  </si>
+  <si>
+    <t>Opera</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1553,19 +1466,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Roboto"/>
@@ -1582,8 +1482,16 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1617,18 +1525,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4CCCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1668,8 +1564,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF46BDC6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE599"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9FC5E8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9CB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEA9999"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="31">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -2083,12 +2009,64 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -2099,161 +2077,102 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2271,161 +2190,116 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2434,20 +2308,110 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2740,8 +2704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G420"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2756,37 +2720,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="79" t="s">
-        <v>202</v>
-      </c>
-      <c r="B1" s="70" t="s">
-        <v>273</v>
-      </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
+      <c r="A1" s="56" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1">
-      <c r="A2" s="77" t="s">
-        <v>203</v>
-      </c>
-      <c r="B2" s="80">
+      <c r="A2" s="54" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="57">
         <v>44596</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="78" t="s">
-        <v>204</v>
-      </c>
-      <c r="B3" s="81" t="s">
-        <v>185</v>
+      <c r="A3" s="55" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" s="58" t="s">
+        <v>149</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -2795,8 +2759,8 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="67"/>
-      <c r="B4" s="67"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -2804,8 +2768,8 @@
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A5" s="67"/>
-      <c r="B5" s="67"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2813,1311 +2777,1311 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A6" s="90" t="s">
+      <c r="A6" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="93" t="s">
+      <c r="B6" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="94" t="s">
+      <c r="C6" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="71" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="51">
+      <c r="A7" s="81">
+        <v>1</v>
+      </c>
+      <c r="B7" s="73" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="74" t="s">
+        <v>166</v>
+      </c>
+      <c r="D7" s="74" t="s">
+        <v>167</v>
+      </c>
+      <c r="E7" s="75" t="s">
+        <v>232</v>
+      </c>
+      <c r="F7" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="51">
+      <c r="A8" s="65">
+        <v>2</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D8" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="E8" s="68" t="s">
+        <v>232</v>
+      </c>
+      <c r="F8" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" ht="51">
+      <c r="A9" s="66">
+        <v>3</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D9" s="59" t="s">
+        <v>171</v>
+      </c>
+      <c r="E9" s="68" t="s">
+        <v>232</v>
+      </c>
+      <c r="F9" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" ht="51">
+      <c r="A10" s="66">
+        <v>4</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D10" s="59" t="s">
+        <v>173</v>
+      </c>
+      <c r="E10" s="68" t="s">
+        <v>232</v>
+      </c>
+      <c r="F10" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" ht="51">
+      <c r="A11" s="66">
+        <v>5</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" s="59" t="s">
+        <v>175</v>
+      </c>
+      <c r="E11" s="68" t="s">
+        <v>232</v>
+      </c>
+      <c r="F11" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" ht="51">
+      <c r="A12" s="66">
+        <v>6</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="D12" s="59" t="s">
+        <v>177</v>
+      </c>
+      <c r="E12" s="68" t="s">
+        <v>232</v>
+      </c>
+      <c r="F12" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" ht="51">
+      <c r="A13" s="66">
+        <v>7</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D13" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="E13" s="68" t="s">
+        <v>232</v>
+      </c>
+      <c r="F13" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" ht="51">
+      <c r="A14" s="66">
+        <v>8</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="D14" s="59" t="s">
+        <v>181</v>
+      </c>
+      <c r="E14" s="68"/>
+      <c r="F14" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" ht="51">
+      <c r="A15" s="66">
+        <v>9</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="D15" s="59" t="s">
+        <v>183</v>
+      </c>
+      <c r="E15" s="68" t="s">
+        <v>233</v>
+      </c>
+      <c r="F15" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" ht="51">
+      <c r="A16" s="66">
+        <v>10</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D16" s="59" t="s">
+        <v>185</v>
+      </c>
+      <c r="E16" s="68" t="s">
+        <v>233</v>
+      </c>
+      <c r="F16" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="51">
+      <c r="A17" s="66">
+        <v>11</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D17" s="59" t="s">
+        <v>187</v>
+      </c>
+      <c r="E17" s="68" t="s">
+        <v>233</v>
+      </c>
+      <c r="F17" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" ht="51">
+      <c r="A18" s="66">
+        <v>12</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="D18" s="59" t="s">
+        <v>189</v>
+      </c>
+      <c r="E18" s="68" t="s">
+        <v>233</v>
+      </c>
+      <c r="F18" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" ht="51">
+      <c r="A19" s="66">
+        <v>13</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="D19" s="59" t="s">
+        <v>191</v>
+      </c>
+      <c r="E19" s="68" t="s">
+        <v>233</v>
+      </c>
+      <c r="F19" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" ht="51">
+      <c r="A20" s="66">
+        <v>14</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="D20" s="59" t="s">
+        <v>181</v>
+      </c>
+      <c r="E20" s="68"/>
+      <c r="F20" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" ht="51">
+      <c r="A21" s="66">
+        <v>15</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="D21" s="59" t="s">
+        <v>193</v>
+      </c>
+      <c r="E21" s="68" t="s">
+        <v>234</v>
+      </c>
+      <c r="F21" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" ht="51">
+      <c r="A22" s="66">
+        <v>16</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="D22" s="59" t="s">
+        <v>193</v>
+      </c>
+      <c r="E22" s="68" t="s">
+        <v>234</v>
+      </c>
+      <c r="F22" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" ht="51">
+      <c r="A23" s="66">
+        <v>17</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D23" s="59" t="s">
+        <v>193</v>
+      </c>
+      <c r="E23" s="68" t="s">
+        <v>234</v>
+      </c>
+      <c r="F23" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" ht="51">
+      <c r="A24" s="66">
+        <v>18</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="D24" s="59" t="s">
+        <v>193</v>
+      </c>
+      <c r="E24" s="68" t="s">
+        <v>234</v>
+      </c>
+      <c r="F24" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" ht="51">
+      <c r="A25" s="66">
+        <v>19</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D25" s="59" t="s">
+        <v>193</v>
+      </c>
+      <c r="E25" s="68" t="s">
+        <v>235</v>
+      </c>
+      <c r="F25" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" ht="51">
+      <c r="A26" s="66">
+        <v>20</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D26" s="59" t="s">
+        <v>193</v>
+      </c>
+      <c r="E26" s="68" t="s">
+        <v>236</v>
+      </c>
+      <c r="F26" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" ht="51">
+      <c r="A27" s="66">
+        <v>21</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D27" s="59" t="s">
+        <v>193</v>
+      </c>
+      <c r="E27" s="68" t="s">
+        <v>235</v>
+      </c>
+      <c r="F27" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" ht="51">
+      <c r="A28" s="66">
+        <v>22</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D28" s="59" t="s">
+        <v>193</v>
+      </c>
+      <c r="E28" s="68" t="s">
+        <v>235</v>
+      </c>
+      <c r="F28" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" ht="51">
+      <c r="A29" s="66">
+        <v>23</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="D29" s="59" t="s">
+        <v>181</v>
+      </c>
+      <c r="E29" s="68" t="s">
+        <v>237</v>
+      </c>
+      <c r="F29" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" ht="51">
+      <c r="A30" s="66">
+        <v>24</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="D30" s="59" t="s">
+        <v>181</v>
+      </c>
+      <c r="E30" s="68"/>
+      <c r="F30" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" ht="51">
+      <c r="A31" s="66">
+        <v>25</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D31" s="59" t="s">
+        <v>203</v>
+      </c>
+      <c r="E31" s="68" t="s">
+        <v>238</v>
+      </c>
+      <c r="F31" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" ht="51">
+      <c r="A32" s="66">
+        <v>26</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="D32" s="59" t="s">
+        <v>185</v>
+      </c>
+      <c r="E32" s="68" t="s">
+        <v>238</v>
+      </c>
+      <c r="F32" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" ht="51">
+      <c r="A33" s="66">
+        <v>27</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="D33" s="59" t="s">
+        <v>181</v>
+      </c>
+      <c r="E33" s="68"/>
+      <c r="F33" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="66">
+        <v>28</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="E34" s="68"/>
+      <c r="F34" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" ht="51">
+      <c r="A35" s="66">
+        <v>29</v>
+      </c>
+      <c r="B35" s="78" t="s">
+        <v>208</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="E35" s="68" t="s">
+        <v>239</v>
+      </c>
+      <c r="F35" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="66">
+        <v>30</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="E36" s="68" t="s">
+        <v>240</v>
+      </c>
+      <c r="F36" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="66">
+        <v>31</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="E37" s="68" t="s">
+        <v>241</v>
+      </c>
+      <c r="F37" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="66">
+        <v>32</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="E38" s="68" t="s">
+        <v>240</v>
+      </c>
+      <c r="F38" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="66">
+        <v>33</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="E39" s="68" t="s">
+        <v>242</v>
+      </c>
+      <c r="F39" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="66">
         <v>34</v>
       </c>
-      <c r="D6" s="94" t="s">
-        <v>96</v>
-      </c>
-      <c r="E6" s="94" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="95" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" ht="51">
-      <c r="A7" s="104">
-        <v>1</v>
-      </c>
-      <c r="B7" s="96" t="s">
-        <v>205</v>
-      </c>
-      <c r="C7" s="97" t="s">
-        <v>206</v>
-      </c>
-      <c r="D7" s="97" t="s">
-        <v>207</v>
-      </c>
-      <c r="E7" s="98" t="s">
-        <v>274</v>
-      </c>
-      <c r="F7" s="99" t="s">
-        <v>99</v>
-      </c>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="51">
-      <c r="A8" s="88">
-        <v>2</v>
-      </c>
-      <c r="B8" s="13" t="s">
+      <c r="B40" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="E40" s="68" t="s">
+        <v>240</v>
+      </c>
+      <c r="F40" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="66">
+        <v>35</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="E41" s="68" t="s">
+        <v>243</v>
+      </c>
+      <c r="F41" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="66">
+        <v>36</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="D42" s="60" t="s">
+        <v>217</v>
+      </c>
+      <c r="E42" s="68" t="s">
+        <v>240</v>
+      </c>
+      <c r="F42" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="66">
+        <v>37</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="E43" s="68" t="s">
+        <v>244</v>
+      </c>
+      <c r="F43" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="66">
+        <v>38</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="E44" s="68" t="s">
+        <v>240</v>
+      </c>
+      <c r="F44" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="1:7" ht="25.5">
+      <c r="A45" s="66">
+        <v>39</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="E45" s="68" t="s">
+        <v>246</v>
+      </c>
+      <c r="F45" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="1:7" ht="51">
+      <c r="A46" s="66">
+        <v>40</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="C46" s="61" t="s">
+        <v>223</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="E46" s="68" t="s">
+        <v>247</v>
+      </c>
+      <c r="F46" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="1:7" ht="51">
+      <c r="A47" s="66">
+        <v>41</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="E47" s="68" t="s">
+        <v>282</v>
+      </c>
+      <c r="F47" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="1:7" ht="38.25">
+      <c r="A48" s="66">
+        <v>42</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="E48" s="68" t="s">
+        <v>282</v>
+      </c>
+      <c r="F48" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="1:7" ht="25.5">
+      <c r="A49" s="66">
+        <v>43</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="E49" s="68" t="s">
+        <v>283</v>
+      </c>
+      <c r="F49" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="1:7" ht="51">
+      <c r="A50" s="66">
+        <v>44</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="C50" s="61" t="s">
+        <v>285</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="E50" s="68" t="s">
+        <v>247</v>
+      </c>
+      <c r="F50" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="1:7" ht="51">
+      <c r="A51" s="66">
+        <v>45</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="C51" s="61" t="s">
+        <v>288</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="E51" s="68" t="s">
+        <v>247</v>
+      </c>
+      <c r="F51" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="1:7" ht="51">
+      <c r="A52" s="66">
+        <v>46</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="C52" s="61" t="s">
         <v>290</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="D8" s="82" t="s">
-        <v>209</v>
-      </c>
-      <c r="E8" s="91" t="s">
-        <v>274</v>
-      </c>
-      <c r="F8" s="100" t="s">
-        <v>99</v>
-      </c>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" ht="51">
-      <c r="A9" s="89">
-        <v>3</v>
-      </c>
-      <c r="B9" s="13" t="s">
+      <c r="D52" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="E52" s="68" t="s">
+        <v>247</v>
+      </c>
+      <c r="F52" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="1:7" ht="63.75">
+      <c r="A53" s="66">
+        <v>47</v>
+      </c>
+      <c r="B53" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="D9" s="82" t="s">
-        <v>211</v>
-      </c>
-      <c r="E9" s="91" t="s">
-        <v>274</v>
-      </c>
-      <c r="F9" s="100" t="s">
-        <v>99</v>
-      </c>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" ht="51">
-      <c r="A10" s="89">
-        <v>4</v>
-      </c>
-      <c r="B10" s="13" t="s">
+      <c r="C53" s="61" t="s">
         <v>292</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="D10" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="E10" s="91" t="s">
-        <v>274</v>
-      </c>
-      <c r="F10" s="100" t="s">
-        <v>99</v>
-      </c>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" ht="51">
-      <c r="A11" s="89">
-        <v>5</v>
-      </c>
-      <c r="B11" s="13" t="s">
+      <c r="D53" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="E53" s="68" t="s">
+        <v>319</v>
+      </c>
+      <c r="F53" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="G53" s="2"/>
+    </row>
+    <row r="54" spans="1:7" ht="63.75">
+      <c r="A54" s="66">
+        <v>48</v>
+      </c>
+      <c r="B54" s="78" t="s">
+        <v>320</v>
+      </c>
+      <c r="C54" s="61" t="s">
         <v>293</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="D11" s="82" t="s">
-        <v>215</v>
-      </c>
-      <c r="E11" s="91" t="s">
-        <v>274</v>
-      </c>
-      <c r="F11" s="100" t="s">
-        <v>99</v>
-      </c>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" ht="51">
-      <c r="A12" s="89">
-        <v>6</v>
-      </c>
-      <c r="B12" s="13" t="s">
+      <c r="D54" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="E54" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="F54" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" spans="1:7" ht="51">
+      <c r="A55" s="66">
+        <v>49</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="C55" s="61" t="s">
         <v>294</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="D12" s="82" t="s">
-        <v>217</v>
-      </c>
-      <c r="E12" s="91" t="s">
-        <v>274</v>
-      </c>
-      <c r="F12" s="100" t="s">
-        <v>99</v>
-      </c>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" ht="51">
-      <c r="A13" s="89">
-        <v>7</v>
-      </c>
-      <c r="B13" s="13" t="s">
+      <c r="D55" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="E55" s="68" t="s">
+        <v>81</v>
+      </c>
+      <c r="F55" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" spans="1:7" ht="51">
+      <c r="A56" s="66">
+        <v>50</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="C56" s="61" t="s">
         <v>295</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="D13" s="82" t="s">
-        <v>219</v>
-      </c>
-      <c r="E13" s="91" t="s">
-        <v>274</v>
-      </c>
-      <c r="F13" s="100" t="s">
-        <v>99</v>
-      </c>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" ht="51">
-      <c r="A14" s="89">
-        <v>8</v>
-      </c>
-      <c r="B14" s="13" t="s">
+      <c r="D56" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="E56" s="68" t="s">
+        <v>237</v>
+      </c>
+      <c r="F56" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="G56" s="2"/>
+    </row>
+    <row r="57" spans="1:7" ht="57">
+      <c r="A57" s="66">
+        <v>51</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="C57" s="83" t="s">
         <v>296</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="D14" s="82" t="s">
-        <v>221</v>
-      </c>
-      <c r="E14" s="91"/>
-      <c r="F14" s="100" t="s">
-        <v>99</v>
-      </c>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" ht="51">
-      <c r="A15" s="89">
-        <v>9</v>
-      </c>
-      <c r="B15" s="13" t="s">
+      <c r="D57" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="E57" s="68" t="s">
+        <v>236</v>
+      </c>
+      <c r="F57" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="G57" s="2"/>
+    </row>
+    <row r="58" spans="1:7" ht="51">
+      <c r="A58" s="66">
+        <v>52</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="C58" s="61" t="s">
         <v>297</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="D15" s="82" t="s">
-        <v>223</v>
-      </c>
-      <c r="E15" s="91" t="s">
-        <v>275</v>
-      </c>
-      <c r="F15" s="100" t="s">
-        <v>99</v>
-      </c>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" ht="51">
-      <c r="A16" s="89">
-        <v>10</v>
-      </c>
-      <c r="B16" s="13" t="s">
+      <c r="D58" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="E58" s="68"/>
+      <c r="F58" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="G58" s="2"/>
+    </row>
+    <row r="59" spans="1:7" ht="51">
+      <c r="A59" s="66">
+        <v>53</v>
+      </c>
+      <c r="B59" s="80" t="s">
         <v>298</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="D16" s="82" t="s">
-        <v>225</v>
-      </c>
-      <c r="E16" s="91" t="s">
-        <v>275</v>
-      </c>
-      <c r="F16" s="100" t="s">
-        <v>99</v>
-      </c>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" ht="51">
-      <c r="A17" s="89">
-        <v>11</v>
-      </c>
-      <c r="B17" s="13" t="s">
+      <c r="C59" s="69" t="s">
         <v>299</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="D17" s="82" t="s">
-        <v>227</v>
-      </c>
-      <c r="E17" s="91" t="s">
-        <v>275</v>
-      </c>
-      <c r="F17" s="100" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" ht="51">
-      <c r="A18" s="89">
-        <v>12</v>
-      </c>
-      <c r="B18" s="13" t="s">
+      <c r="D59" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="E59" s="68" t="s">
+        <v>237</v>
+      </c>
+      <c r="F59" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="G59" s="2"/>
+    </row>
+    <row r="60" spans="1:7" ht="63.75">
+      <c r="A60" s="66">
+        <v>54</v>
+      </c>
+      <c r="B60" s="78" t="s">
         <v>300</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="D18" s="82" t="s">
-        <v>229</v>
-      </c>
-      <c r="E18" s="91" t="s">
-        <v>275</v>
-      </c>
-      <c r="F18" s="100" t="s">
-        <v>99</v>
-      </c>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" ht="51">
-      <c r="A19" s="89">
-        <v>13</v>
-      </c>
-      <c r="B19" s="13" t="s">
+      <c r="C60" s="61" t="s">
         <v>301</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="D19" s="82" t="s">
-        <v>231</v>
-      </c>
-      <c r="E19" s="91" t="s">
-        <v>275</v>
-      </c>
-      <c r="F19" s="100" t="s">
-        <v>99</v>
-      </c>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" ht="51">
-      <c r="A20" s="89">
-        <v>14</v>
-      </c>
-      <c r="B20" s="13" t="s">
+      <c r="D60" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="E60" s="68" t="s">
+        <v>238</v>
+      </c>
+      <c r="F60" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="G60" s="2"/>
+    </row>
+    <row r="61" spans="1:7" ht="51">
+      <c r="A61" s="66">
+        <v>55</v>
+      </c>
+      <c r="B61" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="D20" s="82" t="s">
-        <v>221</v>
-      </c>
-      <c r="E20" s="91"/>
-      <c r="F20" s="100" t="s">
-        <v>99</v>
-      </c>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" ht="51">
-      <c r="A21" s="89">
-        <v>15</v>
-      </c>
-      <c r="B21" s="13" t="s">
+      <c r="C61" s="61" t="s">
         <v>303</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="D61" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="E61" s="68" t="s">
+        <v>238</v>
+      </c>
+      <c r="F61" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="G61" s="2"/>
+    </row>
+    <row r="62" spans="1:7" ht="51">
+      <c r="A62" s="66">
+        <v>56</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="C62" s="61" t="s">
+        <v>305</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="E62" s="68" t="s">
+        <v>238</v>
+      </c>
+      <c r="F62" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="G62" s="2"/>
+    </row>
+    <row r="63" spans="1:7" ht="51">
+      <c r="A63" s="66">
+        <v>57</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="C63" s="61" t="s">
+        <v>307</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="E63" s="68" t="s">
+        <v>238</v>
+      </c>
+      <c r="F63" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="G63" s="2"/>
+    </row>
+    <row r="64" spans="1:7" ht="63.75">
+      <c r="A64" s="66">
+        <v>58</v>
+      </c>
+      <c r="B64" s="78" t="s">
+        <v>308</v>
+      </c>
+      <c r="C64" s="61" t="s">
+        <v>309</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="E64" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="F64" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="G64" s="2"/>
+    </row>
+    <row r="65" spans="1:7" ht="51">
+      <c r="A65" s="66">
+        <v>59</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="C65" s="61" t="s">
+        <v>311</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="E65" s="68" t="s">
         <v>232</v>
       </c>
-      <c r="D21" s="82" t="s">
-        <v>233</v>
-      </c>
-      <c r="E21" s="91" t="s">
-        <v>276</v>
-      </c>
-      <c r="F21" s="100" t="s">
-        <v>99</v>
-      </c>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" ht="51">
-      <c r="A22" s="89">
-        <v>16</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="D22" s="82" t="s">
-        <v>233</v>
-      </c>
-      <c r="E22" s="91" t="s">
-        <v>276</v>
-      </c>
-      <c r="F22" s="100" t="s">
-        <v>99</v>
-      </c>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" ht="51">
-      <c r="A23" s="89">
-        <v>17</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D23" s="82" t="s">
-        <v>233</v>
-      </c>
-      <c r="E23" s="91" t="s">
-        <v>276</v>
-      </c>
-      <c r="F23" s="100" t="s">
-        <v>99</v>
-      </c>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" ht="51">
-      <c r="A24" s="89">
-        <v>18</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="D24" s="82" t="s">
-        <v>233</v>
-      </c>
-      <c r="E24" s="91" t="s">
-        <v>276</v>
-      </c>
-      <c r="F24" s="100" t="s">
-        <v>99</v>
-      </c>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" ht="51">
-      <c r="A25" s="89">
-        <v>19</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="D25" s="82" t="s">
-        <v>233</v>
-      </c>
-      <c r="E25" s="91" t="s">
-        <v>277</v>
-      </c>
-      <c r="F25" s="100" t="s">
-        <v>99</v>
-      </c>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" ht="51">
-      <c r="A26" s="89">
-        <v>20</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="D26" s="82" t="s">
-        <v>233</v>
-      </c>
-      <c r="E26" s="91" t="s">
-        <v>278</v>
-      </c>
-      <c r="F26" s="100" t="s">
-        <v>99</v>
-      </c>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" ht="51">
-      <c r="A27" s="89">
-        <v>21</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="D27" s="82" t="s">
-        <v>233</v>
-      </c>
-      <c r="E27" s="91" t="s">
-        <v>277</v>
-      </c>
-      <c r="F27" s="100" t="s">
-        <v>99</v>
-      </c>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" ht="51">
-      <c r="A28" s="89">
-        <v>22</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="D28" s="82" t="s">
-        <v>233</v>
-      </c>
-      <c r="E28" s="91" t="s">
-        <v>277</v>
-      </c>
-      <c r="F28" s="100" t="s">
-        <v>99</v>
-      </c>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" ht="51">
-      <c r="A29" s="89">
-        <v>23</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="D29" s="82" t="s">
-        <v>221</v>
-      </c>
-      <c r="E29" s="91" t="s">
-        <v>279</v>
-      </c>
-      <c r="F29" s="100" t="s">
-        <v>99</v>
-      </c>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" ht="51">
-      <c r="A30" s="89">
-        <v>24</v>
-      </c>
-      <c r="B30" s="13" t="s">
+      <c r="F65" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="G65" s="2"/>
+    </row>
+    <row r="66" spans="1:7" ht="51">
+      <c r="A66" s="66">
+        <v>60</v>
+      </c>
+      <c r="B66" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="C30" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="D30" s="82" t="s">
-        <v>221</v>
-      </c>
-      <c r="E30" s="91"/>
-      <c r="F30" s="100" t="s">
-        <v>99</v>
-      </c>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" ht="51">
-      <c r="A31" s="89">
-        <v>25</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="D31" s="82" t="s">
-        <v>243</v>
-      </c>
-      <c r="E31" s="91" t="s">
-        <v>280</v>
-      </c>
-      <c r="F31" s="100" t="s">
-        <v>99</v>
-      </c>
-      <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" ht="51">
-      <c r="A32" s="89">
-        <v>26</v>
-      </c>
-      <c r="B32" s="13" t="s">
+      <c r="C66" s="61" t="s">
         <v>313</v>
       </c>
-      <c r="C32" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="D32" s="82" t="s">
-        <v>225</v>
-      </c>
-      <c r="E32" s="91" t="s">
-        <v>280</v>
-      </c>
-      <c r="F32" s="100" t="s">
-        <v>99</v>
-      </c>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="1:7" ht="51">
-      <c r="A33" s="89">
-        <v>27</v>
-      </c>
-      <c r="B33" s="13" t="s">
+      <c r="D66" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="C33" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="D33" s="82" t="s">
-        <v>221</v>
-      </c>
-      <c r="E33" s="91"/>
-      <c r="F33" s="100" t="s">
-        <v>99</v>
-      </c>
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="89">
-        <v>28</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="E34" s="91"/>
-      <c r="F34" s="100" t="s">
-        <v>99</v>
-      </c>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="1:7" ht="51">
-      <c r="A35" s="89">
-        <v>29</v>
-      </c>
-      <c r="B35" s="101" t="s">
-        <v>248</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="E35" s="91" t="s">
-        <v>281</v>
-      </c>
-      <c r="F35" s="102" t="s">
-        <v>98</v>
-      </c>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="89">
-        <v>30</v>
-      </c>
-      <c r="B36" s="13" t="s">
+      <c r="E66" s="68" t="s">
+        <v>75</v>
+      </c>
+      <c r="F66" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="G66" s="2"/>
+    </row>
+    <row r="67" spans="1:7" ht="51">
+      <c r="A67" s="66">
+        <v>61</v>
+      </c>
+      <c r="B67" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="C36" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="E36" s="91" t="s">
-        <v>282</v>
-      </c>
-      <c r="F36" s="100" t="s">
-        <v>99</v>
-      </c>
-      <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="89">
-        <v>31</v>
-      </c>
-      <c r="B37" s="13" t="s">
+      <c r="C67" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="C37" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="E37" s="91" t="s">
-        <v>283</v>
-      </c>
-      <c r="F37" s="102" t="s">
-        <v>98</v>
-      </c>
-      <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="89">
-        <v>32</v>
-      </c>
-      <c r="B38" s="13" t="s">
+      <c r="D67" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="E67" s="68" t="s">
+        <v>232</v>
+      </c>
+      <c r="F67" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="G67" s="2"/>
+    </row>
+    <row r="68" spans="1:7" ht="51.75" thickBot="1">
+      <c r="A68" s="66">
+        <v>62</v>
+      </c>
+      <c r="B68" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="C38" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="E38" s="91" t="s">
-        <v>282</v>
-      </c>
-      <c r="F38" s="102" t="s">
-        <v>98</v>
-      </c>
-      <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="89">
-        <v>33</v>
-      </c>
-      <c r="B39" s="13" t="s">
+      <c r="C68" s="31" t="s">
         <v>318</v>
       </c>
-      <c r="C39" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="E39" s="91" t="s">
-        <v>284</v>
-      </c>
-      <c r="F39" s="102" t="s">
-        <v>98</v>
-      </c>
-      <c r="G39" s="2"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="89">
-        <v>34</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>319</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="E40" s="91" t="s">
-        <v>282</v>
-      </c>
-      <c r="F40" s="100" t="s">
-        <v>99</v>
-      </c>
-      <c r="G40" s="2"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="89">
-        <v>35</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="E41" s="91" t="s">
-        <v>285</v>
-      </c>
-      <c r="F41" s="100" t="s">
-        <v>99</v>
-      </c>
-      <c r="G41" s="2"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="89">
-        <v>36</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="D42" s="83" t="s">
-        <v>257</v>
-      </c>
-      <c r="E42" s="91" t="s">
-        <v>282</v>
-      </c>
-      <c r="F42" s="100" t="s">
-        <v>99</v>
-      </c>
-      <c r="G42" s="2"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="89">
-        <v>37</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>322</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="E43" s="91" t="s">
+      <c r="D68" s="31" t="s">
         <v>286</v>
       </c>
-      <c r="F43" s="100" t="s">
-        <v>99</v>
-      </c>
-      <c r="G43" s="2"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="89">
-        <v>38</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>323</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="E44" s="91" t="s">
-        <v>282</v>
-      </c>
-      <c r="F44" s="100" t="s">
-        <v>99</v>
-      </c>
-      <c r="G44" s="2"/>
-    </row>
-    <row r="45" spans="1:7" ht="25.5">
-      <c r="A45" s="89">
-        <v>39</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="E45" s="91" t="s">
-        <v>288</v>
-      </c>
-      <c r="F45" s="102" t="s">
-        <v>98</v>
-      </c>
-      <c r="G45" s="2"/>
-    </row>
-    <row r="46" spans="1:7" ht="51">
-      <c r="A46" s="89">
-        <v>40</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="C46" s="84" t="s">
-        <v>263</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="E46" s="91" t="s">
-        <v>289</v>
-      </c>
-      <c r="F46" s="102" t="s">
-        <v>98</v>
-      </c>
-      <c r="G46" s="2"/>
-    </row>
-    <row r="47" spans="1:7" ht="38.25">
-      <c r="A47" s="89">
-        <v>41</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="E47" s="91" t="s">
-        <v>324</v>
-      </c>
-      <c r="F47" s="100" t="s">
-        <v>99</v>
-      </c>
-      <c r="G47" s="2"/>
-    </row>
-    <row r="48" spans="1:7" ht="38.25">
-      <c r="A48" s="89">
-        <v>42</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="E48" s="91" t="s">
-        <v>324</v>
-      </c>
-      <c r="F48" s="102" t="s">
-        <v>98</v>
-      </c>
-      <c r="G48" s="2"/>
-    </row>
-    <row r="49" spans="1:7" ht="25.5">
-      <c r="A49" s="89">
-        <v>43</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="E49" s="91" t="s">
-        <v>325</v>
-      </c>
-      <c r="F49" s="102" t="s">
-        <v>98</v>
-      </c>
-      <c r="G49" s="2"/>
-    </row>
-    <row r="50" spans="1:7" ht="51">
-      <c r="A50" s="89">
-        <v>44</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>326</v>
-      </c>
-      <c r="C50" s="84" t="s">
-        <v>327</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="E50" s="91" t="s">
-        <v>289</v>
-      </c>
-      <c r="F50" s="100" t="s">
-        <v>99</v>
-      </c>
-      <c r="G50" s="2"/>
-    </row>
-    <row r="51" spans="1:7" ht="51">
-      <c r="A51" s="89">
-        <v>45</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="C51" s="84" t="s">
-        <v>330</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="E51" s="91" t="s">
-        <v>289</v>
-      </c>
-      <c r="F51" s="100" t="s">
-        <v>99</v>
-      </c>
-      <c r="G51" s="2"/>
-    </row>
-    <row r="52" spans="1:7" ht="51">
-      <c r="A52" s="89">
-        <v>46</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="C52" s="84" t="s">
-        <v>332</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="E52" s="91" t="s">
-        <v>289</v>
-      </c>
-      <c r="F52" s="100" t="s">
-        <v>99</v>
-      </c>
-      <c r="G52" s="2"/>
-    </row>
-    <row r="53" spans="1:7" ht="63.75">
-      <c r="A53" s="89">
-        <v>47</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>333</v>
-      </c>
-      <c r="C53" s="84" t="s">
-        <v>334</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="E53" s="91" t="s">
-        <v>361</v>
-      </c>
-      <c r="F53" s="102" t="s">
-        <v>98</v>
-      </c>
-      <c r="G53" s="2"/>
-    </row>
-    <row r="54" spans="1:7" ht="63.75">
-      <c r="A54" s="89">
-        <v>48</v>
-      </c>
-      <c r="B54" s="101" t="s">
-        <v>362</v>
-      </c>
-      <c r="C54" s="84" t="s">
-        <v>335</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="E54" s="91" t="s">
-        <v>85</v>
-      </c>
-      <c r="F54" s="102" t="s">
-        <v>98</v>
-      </c>
-      <c r="G54" s="2"/>
-    </row>
-    <row r="55" spans="1:7" ht="51">
-      <c r="A55" s="89">
-        <v>49</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="C55" s="84" t="s">
-        <v>336</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="E55" s="91" t="s">
-        <v>87</v>
-      </c>
-      <c r="F55" s="102" t="s">
-        <v>98</v>
-      </c>
-      <c r="G55" s="2"/>
-    </row>
-    <row r="56" spans="1:7" ht="51">
-      <c r="A56" s="89">
-        <v>50</v>
-      </c>
-      <c r="B56" s="13" t="s">
-        <v>365</v>
-      </c>
-      <c r="C56" s="84" t="s">
-        <v>337</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="E56" s="91" t="s">
-        <v>279</v>
-      </c>
-      <c r="F56" s="102" t="s">
-        <v>98</v>
-      </c>
-      <c r="G56" s="2"/>
-    </row>
-    <row r="57" spans="1:7" ht="57">
-      <c r="A57" s="89">
-        <v>51</v>
-      </c>
-      <c r="B57" s="13" t="s">
-        <v>363</v>
-      </c>
-      <c r="C57" s="106" t="s">
-        <v>338</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="E57" s="91" t="s">
-        <v>278</v>
-      </c>
-      <c r="F57" s="102" t="s">
-        <v>98</v>
-      </c>
-      <c r="G57" s="2"/>
-    </row>
-    <row r="58" spans="1:7" ht="51">
-      <c r="A58" s="89">
-        <v>52</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>366</v>
-      </c>
-      <c r="C58" s="84" t="s">
-        <v>339</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="E58" s="91"/>
-      <c r="F58" s="102" t="s">
-        <v>98</v>
-      </c>
-      <c r="G58" s="2"/>
-    </row>
-    <row r="59" spans="1:7" ht="51">
-      <c r="A59" s="89">
-        <v>53</v>
-      </c>
-      <c r="B59" s="103" t="s">
-        <v>340</v>
-      </c>
-      <c r="C59" s="92" t="s">
-        <v>341</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="E59" s="91" t="s">
-        <v>279</v>
-      </c>
-      <c r="F59" s="102" t="s">
-        <v>98</v>
-      </c>
-      <c r="G59" s="2"/>
-    </row>
-    <row r="60" spans="1:7" ht="63.75">
-      <c r="A60" s="89">
-        <v>54</v>
-      </c>
-      <c r="B60" s="101" t="s">
-        <v>342</v>
-      </c>
-      <c r="C60" s="84" t="s">
-        <v>343</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="E60" s="91" t="s">
-        <v>280</v>
-      </c>
-      <c r="F60" s="102" t="s">
-        <v>98</v>
-      </c>
-      <c r="G60" s="2"/>
-    </row>
-    <row r="61" spans="1:7" ht="51">
-      <c r="A61" s="89">
-        <v>55</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>344</v>
-      </c>
-      <c r="C61" s="84" t="s">
-        <v>345</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="E61" s="91" t="s">
-        <v>280</v>
-      </c>
-      <c r="F61" s="102" t="s">
-        <v>98</v>
-      </c>
-      <c r="G61" s="2"/>
-    </row>
-    <row r="62" spans="1:7" ht="51">
-      <c r="A62" s="89">
-        <v>56</v>
-      </c>
-      <c r="B62" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="C62" s="84" t="s">
-        <v>347</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="E62" s="91" t="s">
-        <v>280</v>
-      </c>
-      <c r="F62" s="102" t="s">
-        <v>98</v>
-      </c>
-      <c r="G62" s="2"/>
-    </row>
-    <row r="63" spans="1:7" ht="51">
-      <c r="A63" s="89">
-        <v>57</v>
-      </c>
-      <c r="B63" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="C63" s="84" t="s">
-        <v>349</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="E63" s="91" t="s">
-        <v>280</v>
-      </c>
-      <c r="F63" s="102" t="s">
-        <v>98</v>
-      </c>
-      <c r="G63" s="2"/>
-    </row>
-    <row r="64" spans="1:7" ht="63.75">
-      <c r="A64" s="89">
-        <v>58</v>
-      </c>
-      <c r="B64" s="101" t="s">
-        <v>350</v>
-      </c>
-      <c r="C64" s="84" t="s">
-        <v>351</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="E64" s="91" t="s">
-        <v>82</v>
-      </c>
-      <c r="F64" s="100" t="s">
-        <v>99</v>
-      </c>
-      <c r="G64" s="2"/>
-    </row>
-    <row r="65" spans="1:7" ht="51">
-      <c r="A65" s="89">
-        <v>59</v>
-      </c>
-      <c r="B65" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="C65" s="84" t="s">
-        <v>353</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="E65" s="91" t="s">
-        <v>274</v>
-      </c>
-      <c r="F65" s="102" t="s">
-        <v>98</v>
-      </c>
-      <c r="G65" s="2"/>
-    </row>
-    <row r="66" spans="1:7" ht="51">
-      <c r="A66" s="89">
-        <v>60</v>
-      </c>
-      <c r="B66" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="C66" s="84" t="s">
-        <v>355</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="E66" s="91" t="s">
-        <v>81</v>
-      </c>
-      <c r="F66" s="102" t="s">
-        <v>98</v>
-      </c>
-      <c r="G66" s="2"/>
-    </row>
-    <row r="67" spans="1:7" ht="51">
-      <c r="A67" s="89">
-        <v>61</v>
-      </c>
-      <c r="B67" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="E67" s="91" t="s">
-        <v>274</v>
-      </c>
-      <c r="F67" s="102" t="s">
-        <v>98</v>
-      </c>
-      <c r="G67" s="2"/>
-    </row>
-    <row r="68" spans="1:7" ht="51.75" thickBot="1">
-      <c r="A68" s="89">
-        <v>62</v>
-      </c>
-      <c r="B68" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="C68" s="31" t="s">
-        <v>360</v>
-      </c>
-      <c r="D68" s="31" t="s">
-        <v>328</v>
-      </c>
-      <c r="E68" s="105"/>
-      <c r="F68" s="102" t="s">
-        <v>98</v>
+      <c r="E68" s="82"/>
+      <c r="F68" s="79" t="s">
+        <v>92</v>
       </c>
       <c r="G68" s="2"/>
     </row>
@@ -7302,8 +7266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16014DB-E127-4DD3-A029-EA6CBAF81788}">
   <dimension ref="A1:AN481"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7325,13 +7289,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F1" s="24" t="s">
         <v>1</v>
@@ -7374,37 +7338,37 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="4" customFormat="1">
-      <c r="A2" s="113" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="115"/>
+      <c r="A2" s="98" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="100"/>
     </row>
     <row r="3" spans="1:40" ht="39.75" customHeight="1">
       <c r="A3" s="13">
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>46</v>
+        <v>33</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>358</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:40" ht="38.25" customHeight="1">
@@ -7412,22 +7376,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>46</v>
+        <v>35</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>358</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:40" ht="64.5" customHeight="1">
@@ -7435,22 +7399,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>46</v>
+        <v>37</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>358</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:40" ht="66.75" customHeight="1">
@@ -7458,22 +7422,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>46</v>
+        <v>39</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>358</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:40" ht="30">
@@ -7481,22 +7445,20 @@
         <v>5</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>46</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="E7" s="17"/>
       <c r="F7" s="18" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:40" ht="26.25" thickBot="1">
@@ -7504,54 +7466,50 @@
         <v>6</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C8" s="15"/>
-      <c r="D8" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>46</v>
-      </c>
+      <c r="D8" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="E8" s="17"/>
       <c r="F8" s="19" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="117"/>
-      <c r="C9" s="117"/>
-      <c r="D9" s="117"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="117"/>
-      <c r="G9" s="118"/>
+      <c r="A9" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="102"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="103"/>
     </row>
     <row r="10" spans="1:40" ht="39.75" customHeight="1">
       <c r="A10" s="13">
         <v>7</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>47</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E10" s="11"/>
       <c r="F10" s="18" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:40" ht="39.75" customHeight="1">
@@ -7559,22 +7517,20 @@
         <v>8</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>48</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E11" s="11"/>
       <c r="F11" s="18" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:40" ht="65.25" customHeight="1">
@@ -7582,22 +7538,20 @@
         <v>9</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>49</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="E12" s="11"/>
       <c r="F12" s="18" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:40" ht="65.25" customHeight="1">
@@ -7605,22 +7559,20 @@
         <v>10</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>50</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="E13" s="11"/>
       <c r="F13" s="18" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:40" ht="63.75">
@@ -7628,22 +7580,22 @@
         <v>11</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>46</v>
+        <v>22</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>358</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:40" ht="51.75" thickBot="1">
@@ -7651,65 +7603,65 @@
         <v>12</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40">
+      <c r="A16" s="95" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="96"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="97"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:40">
-      <c r="A16" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="111"/>
-      <c r="C16" s="111"/>
-      <c r="D16" s="111"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="111"/>
-      <c r="G16" s="112"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="107" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="108"/>
-      <c r="C17" s="108"/>
-      <c r="D17" s="108"/>
-      <c r="E17" s="108"/>
-      <c r="F17" s="108"/>
-      <c r="G17" s="109"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="94"/>
     </row>
     <row r="18" spans="1:7" ht="38.25">
       <c r="A18" s="13">
         <v>13</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>46</v>
+        <v>9</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>358</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="41.25" customHeight="1">
@@ -7717,22 +7669,20 @@
         <v>14</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>54</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E19" s="11"/>
       <c r="F19" s="18" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="41.25" customHeight="1">
@@ -7740,22 +7690,20 @@
         <v>15</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>54</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E20" s="11"/>
       <c r="F20" s="18" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="40.5" customHeight="1">
@@ -7763,22 +7711,20 @@
         <v>16</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>54</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E21" s="11"/>
       <c r="F21" s="18" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="41.25" customHeight="1">
@@ -7786,22 +7732,20 @@
         <v>17</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>54</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E22" s="11"/>
       <c r="F22" s="18" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="38.25">
@@ -7809,56 +7753,56 @@
         <v>18</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>46</v>
+        <v>15</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>358</v>
       </c>
       <c r="E23" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="92" t="s">
         <v>54</v>
       </c>
-      <c r="F23" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="G23" s="20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="107" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="108"/>
-      <c r="C24" s="108"/>
-      <c r="D24" s="108"/>
-      <c r="E24" s="108"/>
-      <c r="F24" s="108"/>
-      <c r="G24" s="109"/>
+      <c r="B24" s="93"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="94"/>
     </row>
     <row r="25" spans="1:7" ht="38.25">
       <c r="A25" s="13">
         <v>19</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>46</v>
+        <v>12</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>358</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="41.25" customHeight="1">
@@ -7866,22 +7810,20 @@
         <v>20</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>54</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E26" s="11"/>
       <c r="F26" s="18" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="39" customHeight="1">
@@ -7889,22 +7831,20 @@
         <v>21</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>54</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E27" s="11"/>
       <c r="F27" s="18" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G27" s="21" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="40.5" customHeight="1">
@@ -7912,22 +7852,20 @@
         <v>22</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>54</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E28" s="11"/>
       <c r="F28" s="18" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="38.25" customHeight="1">
@@ -7935,22 +7873,20 @@
         <v>23</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>54</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E29" s="11"/>
       <c r="F29" s="18" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="38.25">
@@ -7958,56 +7894,56 @@
         <v>24</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>46</v>
+        <v>61</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>358</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="107" t="s">
-        <v>67</v>
-      </c>
-      <c r="B31" s="108"/>
-      <c r="C31" s="108"/>
-      <c r="D31" s="108"/>
-      <c r="E31" s="108"/>
-      <c r="F31" s="108"/>
-      <c r="G31" s="109"/>
+      <c r="A31" s="92" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="93"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="94"/>
     </row>
     <row r="32" spans="1:7" ht="38.25">
       <c r="A32" s="13">
         <v>25</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>46</v>
+        <v>17</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>358</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="38.25" customHeight="1">
@@ -8015,22 +7951,20 @@
         <v>26</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>54</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E33" s="11"/>
       <c r="F33" s="18" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G33" s="21" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="38.25" customHeight="1">
@@ -8038,22 +7972,20 @@
         <v>27</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>54</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E34" s="11"/>
       <c r="F34" s="18" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G34" s="21" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="42" customHeight="1">
@@ -8061,22 +7993,20 @@
         <v>28</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>54</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E35" s="11"/>
       <c r="F35" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="G35" s="21" t="s">
         <v>93</v>
-      </c>
-      <c r="G35" s="21" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="39.75" customHeight="1">
@@ -8084,22 +8014,20 @@
         <v>29</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>54</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E36" s="11"/>
       <c r="F36" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="G36" s="21" t="s">
         <v>93</v>
-      </c>
-      <c r="G36" s="21" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="39" thickBot="1">
@@ -8107,56 +8035,56 @@
         <v>30</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C37" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="G37" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="D37" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F37" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="G37" s="20" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="110" t="s">
-        <v>20</v>
-      </c>
-      <c r="B38" s="111"/>
-      <c r="C38" s="111"/>
-      <c r="D38" s="111"/>
-      <c r="E38" s="111"/>
-      <c r="F38" s="111"/>
-      <c r="G38" s="112"/>
+      <c r="A38" s="95" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="96"/>
+      <c r="C38" s="96"/>
+      <c r="D38" s="96"/>
+      <c r="E38" s="96"/>
+      <c r="F38" s="96"/>
+      <c r="G38" s="97"/>
     </row>
     <row r="39" spans="1:9" ht="38.25">
       <c r="A39" s="13">
         <v>31</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>46</v>
+        <v>67</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>358</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G39" s="20" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="42" customHeight="1">
@@ -8164,22 +8092,20 @@
         <v>32</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>54</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E40" s="11"/>
       <c r="F40" s="18" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G40" s="21" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="42" customHeight="1">
@@ -8187,22 +8113,20 @@
         <v>33</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>54</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E41" s="11"/>
       <c r="F41" s="18" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G41" s="21" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="42.75" customHeight="1">
@@ -8210,22 +8134,20 @@
         <v>34</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>54</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E42" s="11"/>
       <c r="F42" s="18" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G42" s="21" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="42" customHeight="1">
@@ -8233,22 +8155,20 @@
         <v>35</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>54</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E43" s="11"/>
       <c r="F43" s="18" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G43" s="21" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="39" thickBot="1">
@@ -8256,22 +8176,22 @@
         <v>36</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C44" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="D44" s="15" t="s">
-        <v>46</v>
+        <v>74</v>
+      </c>
+      <c r="D44" s="34" t="s">
+        <v>358</v>
       </c>
       <c r="E44" s="29" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F44" s="19" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G44" s="30" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -12669,10 +12589,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3328AEE8-87F8-4BF7-A56F-EF19DC386E57}">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12686,532 +12606,464 @@
     <col min="7" max="7" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A1" s="85" t="s">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="86" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="86" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="86" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="86" t="s">
+      <c r="C1" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="87" t="s">
+      <c r="G1" s="64" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="112"/>
-    </row>
-    <row r="3" spans="1:7" ht="41.25" customHeight="1">
+    <row r="2" spans="1:9">
+      <c r="A2" s="95" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="97"/>
+    </row>
+    <row r="3" spans="1:9" ht="43.5" customHeight="1">
       <c r="A3" s="13">
         <v>1</v>
       </c>
       <c r="B3" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="33"/>
+      <c r="F3" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="40.5" customHeight="1" thickBot="1">
+      <c r="A4" s="14">
+        <v>2</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>358</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>358</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="95" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="97"/>
+    </row>
+    <row r="6" spans="1:9" ht="42.75" customHeight="1">
+      <c r="A6" s="13">
+        <v>3</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="D6" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="E6" s="33"/>
+      <c r="F6" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="39" thickBot="1">
+      <c r="A7" s="14">
+        <v>4</v>
+      </c>
+      <c r="B7" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="C7" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>358</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="95" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="97"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="43.5" customHeight="1">
-      <c r="A4" s="13">
-        <v>2</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="C4" s="17" t="s">
+      <c r="B9" s="105"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="106"/>
+    </row>
+    <row r="10" spans="1:9" ht="42.75" customHeight="1">
+      <c r="A10" s="13">
+        <v>5</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="C10" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="E4" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="F4" s="18" t="s">
+      <c r="D10" s="107" t="s">
+        <v>358</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="42.75" customHeight="1">
+      <c r="A11" s="13">
+        <v>6</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="33"/>
+      <c r="F11" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="39" thickBot="1">
+      <c r="A12" s="13">
+        <v>7</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>358</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="104" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="105"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="106"/>
+    </row>
+    <row r="14" spans="1:9" ht="38.25">
+      <c r="A14" s="13">
+        <v>8</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="33"/>
+      <c r="F14" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="G4" s="21" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="40.5" customHeight="1" thickBot="1">
-      <c r="A5" s="14">
-        <v>3</v>
-      </c>
-      <c r="B5" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="19" t="s">
+      <c r="G14" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="38.25">
+      <c r="A15" s="13">
+        <v>9</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="107" t="s">
+        <v>358</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="G5" s="30" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="110" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="111"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="112"/>
-    </row>
-    <row r="7" spans="1:7" ht="38.25">
-      <c r="A7" s="13">
-        <v>5</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="42.75" customHeight="1">
-      <c r="A8" s="13">
-        <v>6</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="39" thickBot="1">
-      <c r="A9" s="14">
-        <v>7</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="C9" s="34" t="s">
+      <c r="G15" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="I15" s="37"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="104" t="s">
         <v>115</v>
       </c>
-      <c r="D9" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="G9" s="30" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="111"/>
-      <c r="C10" s="111"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="112"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="119" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="120"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="121"/>
-    </row>
-    <row r="12" spans="1:7" ht="42.75" customHeight="1">
-      <c r="A12" s="13">
-        <v>8</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="42.75" customHeight="1">
-      <c r="A13" s="13">
-        <v>9</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="38.25">
-      <c r="A14" s="13">
-        <v>10</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="119" t="s">
-        <v>121</v>
-      </c>
-      <c r="B15" s="120"/>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="121"/>
-    </row>
-    <row r="16" spans="1:7" ht="38.25">
-      <c r="A16" s="13">
-        <v>11</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>98</v>
-      </c>
+      <c r="B16" s="105"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="106"/>
     </row>
     <row r="17" spans="1:11" ht="38.25">
       <c r="A17" s="13">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>125</v>
+        <v>116</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>117</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="33" t="s">
-        <v>54</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E17" s="33"/>
       <c r="F17" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="38.25">
-      <c r="A18" s="13">
-        <v>13</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="C18" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>46</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="39" thickBot="1">
+      <c r="A18" s="14">
+        <v>11</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>41</v>
       </c>
       <c r="E18" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>88</v>
+        <v>49</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>87</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="I18" s="37"/>
+        <v>92</v>
+      </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="119" t="s">
-        <v>128</v>
-      </c>
-      <c r="B19" s="120"/>
-      <c r="C19" s="120"/>
-      <c r="D19" s="120"/>
-      <c r="E19" s="120"/>
-      <c r="F19" s="120"/>
-      <c r="G19" s="121"/>
+      <c r="A19" s="95" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="96"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="97"/>
     </row>
     <row r="20" spans="1:11" ht="38.25">
       <c r="A20" s="13">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="38.25">
       <c r="A21" s="13">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>54</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E21" s="33"/>
       <c r="F21" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G21" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="G21" s="21" t="s">
-        <v>99</v>
+      <c r="K21" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="39" thickBot="1">
       <c r="A22" s="14">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C22" s="39" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="33" t="s">
-        <v>54</v>
+        <v>358</v>
+      </c>
+      <c r="E22" s="35" t="s">
+        <v>49</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>98</v>
+        <v>89</v>
+      </c>
+      <c r="G22" s="30" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="110" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="111"/>
-      <c r="C23" s="111"/>
-      <c r="D23" s="111"/>
-      <c r="E23" s="111"/>
-      <c r="F23" s="111"/>
-      <c r="G23" s="112"/>
-    </row>
-    <row r="24" spans="1:11" ht="38.25">
-      <c r="A24" s="13">
-        <v>17</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="G24" s="20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="38.25">
-      <c r="A25" s="13">
-        <v>18</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="C25" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="D25" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="K25" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="39" thickBot="1">
-      <c r="A26" s="14">
-        <v>19</v>
-      </c>
-      <c r="B26" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="C26" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="D26" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E26" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="F26" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="G26" s="30" t="s">
-        <v>98</v>
-      </c>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="2"/>
@@ -13348,65 +13200,27 @@
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-    </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="A19:G19"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="A16:G16"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C12" r:id="rId1" xr:uid="{B15EE737-4430-42BD-847D-4FF6C250DF1D}"/>
-    <hyperlink ref="C13" r:id="rId2" xr:uid="{2A04DAD3-C6F1-4F08-A086-DC0769DD051D}"/>
-    <hyperlink ref="C14" r:id="rId3" xr:uid="{FB74BF89-4245-4A25-AADF-0B2E2ADFB2D9}"/>
-    <hyperlink ref="C16" r:id="rId4" xr:uid="{5A590D0E-B12B-4814-89AA-286D4413EAB2}"/>
-    <hyperlink ref="C17" r:id="rId5" xr:uid="{C065B6E3-D1B6-413B-B4E3-25895B197F8A}"/>
-    <hyperlink ref="C18" r:id="rId6" xr:uid="{47DA3D8D-BA20-48FF-9B52-45B3D57B06D6}"/>
-    <hyperlink ref="C20" r:id="rId7" xr:uid="{A1F1B1A3-B428-405B-8704-AA8E5C1A5716}"/>
-    <hyperlink ref="C21" r:id="rId8" xr:uid="{D611E47A-BD6A-4056-9E94-7653EF655F10}"/>
-    <hyperlink ref="C22" r:id="rId9" xr:uid="{8A43C465-3733-4DBE-A0A5-0794CF04E408}"/>
-    <hyperlink ref="C24" r:id="rId10" xr:uid="{4A23C596-575E-4ECE-A954-903C67E592B1}"/>
-    <hyperlink ref="C26" r:id="rId11" xr:uid="{B6DABE23-B96C-46FD-BD5A-43EAC9AC0445}"/>
-    <hyperlink ref="C25" r:id="rId12" xr:uid="{CD43C39E-C864-4172-8534-7EB2492968D9}"/>
+    <hyperlink ref="C10" r:id="rId1" xr:uid="{B15EE737-4430-42BD-847D-4FF6C250DF1D}"/>
+    <hyperlink ref="C11" r:id="rId2" xr:uid="{2A04DAD3-C6F1-4F08-A086-DC0769DD051D}"/>
+    <hyperlink ref="C12" r:id="rId3" xr:uid="{FB74BF89-4245-4A25-AADF-0B2E2ADFB2D9}"/>
+    <hyperlink ref="C14" r:id="rId4" xr:uid="{C065B6E3-D1B6-413B-B4E3-25895B197F8A}"/>
+    <hyperlink ref="C15" r:id="rId5" xr:uid="{47DA3D8D-BA20-48FF-9B52-45B3D57B06D6}"/>
+    <hyperlink ref="C17" r:id="rId6" xr:uid="{D611E47A-BD6A-4056-9E94-7653EF655F10}"/>
+    <hyperlink ref="C18" r:id="rId7" xr:uid="{8A43C465-3733-4DBE-A0A5-0794CF04E408}"/>
+    <hyperlink ref="C20" r:id="rId8" xr:uid="{4A23C596-575E-4ECE-A954-903C67E592B1}"/>
+    <hyperlink ref="C22" r:id="rId9" xr:uid="{B6DABE23-B96C-46FD-BD5A-43EAC9AC0445}"/>
+    <hyperlink ref="C21" r:id="rId10" xr:uid="{CD43C39E-C864-4172-8534-7EB2492968D9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13414,403 +13228,364 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D3211F-EF34-4901-963A-D16631416C21}">
-  <dimension ref="A1:P421"/>
+  <dimension ref="A1:E421"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="2" max="3" width="10.28515625" customWidth="1"/>
     <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="117" t="s">
+        <v>363</v>
+      </c>
+      <c r="C1" s="118" t="s">
+        <v>364</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="119">
+        <v>1</v>
+      </c>
+      <c r="B2" s="114" t="s">
+        <v>365</v>
+      </c>
+      <c r="C2" s="115" t="s">
+        <v>366</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="120">
+        <v>2</v>
+      </c>
+      <c r="B3" s="109" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3" s="108" t="s">
+        <v>367</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="120">
+        <v>3</v>
+      </c>
+      <c r="B4" s="109" t="s">
+        <v>365</v>
+      </c>
+      <c r="C4" s="108" t="s">
+        <v>368</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A5" s="120">
         <v>4</v>
       </c>
-      <c r="C1" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="F1" s="52" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="55">
-        <v>1</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="49" t="s">
+      <c r="B5" s="109" t="s">
+        <v>365</v>
+      </c>
+      <c r="C5" s="108" t="s">
+        <v>369</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A6" s="120">
+        <v>5</v>
+      </c>
+      <c r="B6" s="110" t="s">
+        <v>370</v>
+      </c>
+      <c r="C6" s="108" t="s">
+        <v>367</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="120">
         <v>6</v>
       </c>
-      <c r="D2" s="58" t="s">
-        <v>141</v>
-      </c>
-      <c r="E2" s="59">
-        <v>83765</v>
-      </c>
-      <c r="F2" s="56" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="53">
-        <v>2</v>
-      </c>
-      <c r="B3" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="D3" s="62" t="s">
-        <v>143</v>
-      </c>
-      <c r="E3" s="63" t="s">
-        <v>144</v>
-      </c>
-      <c r="F3" s="57" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="53">
-        <v>3</v>
-      </c>
-      <c r="B4" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="47" t="s">
-        <v>145</v>
-      </c>
-      <c r="D4" s="63" t="s">
-        <v>146</v>
-      </c>
-      <c r="E4" s="63" t="s">
-        <v>147</v>
-      </c>
-      <c r="F4" s="57" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A5" s="53">
-        <v>4</v>
-      </c>
-      <c r="B5" s="47" t="s">
-        <v>148</v>
-      </c>
-      <c r="C5" s="46" t="s">
-        <v>149</v>
-      </c>
-      <c r="D5" s="63" t="s">
-        <v>150</v>
-      </c>
-      <c r="E5" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="F5" s="57" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="53">
-        <v>5</v>
-      </c>
-      <c r="B6" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="D6" s="61" t="s">
-        <v>153</v>
-      </c>
-      <c r="E6" s="60" t="s">
-        <v>154</v>
-      </c>
-      <c r="F6" s="56" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="53">
-        <v>6</v>
-      </c>
-      <c r="B7" s="46" t="s">
-        <v>155</v>
-      </c>
-      <c r="C7" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="D7" s="63" t="s">
-        <v>156</v>
-      </c>
-      <c r="E7" s="61" t="s">
-        <v>157</v>
-      </c>
-      <c r="F7" s="56" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A8" s="54">
+      <c r="B7" s="110" t="s">
+        <v>370</v>
+      </c>
+      <c r="C7" s="108" t="s">
+        <v>368</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="120">
         <v>7</v>
       </c>
-      <c r="B8" s="46" t="s">
-        <v>158</v>
-      </c>
-      <c r="C8" s="46" t="s">
-        <v>159</v>
-      </c>
-      <c r="D8" s="60" t="s">
-        <v>160</v>
-      </c>
-      <c r="E8" s="61" t="s">
-        <v>161</v>
-      </c>
-      <c r="F8" s="56" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="B8" s="110" t="s">
+        <v>370</v>
+      </c>
+      <c r="C8" s="108" t="s">
+        <v>369</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="120">
+        <v>8</v>
+      </c>
+      <c r="B9" s="110" t="s">
+        <v>370</v>
+      </c>
+      <c r="C9" s="108" t="s">
+        <v>366</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+    <row r="10" spans="1:5">
+      <c r="A10" s="120">
+        <v>9</v>
+      </c>
+      <c r="B10" s="111" t="s">
+        <v>371</v>
+      </c>
+      <c r="C10" s="108" t="s">
+        <v>368</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+    <row r="11" spans="1:5">
+      <c r="A11" s="120">
+        <v>10</v>
+      </c>
+      <c r="B11" s="111" t="s">
+        <v>371</v>
+      </c>
+      <c r="C11" s="108" t="s">
+        <v>369</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+    <row r="12" spans="1:5">
+      <c r="A12" s="120">
+        <v>11</v>
+      </c>
+      <c r="B12" s="111" t="s">
+        <v>371</v>
+      </c>
+      <c r="C12" s="108" t="s">
+        <v>366</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+    <row r="13" spans="1:5">
+      <c r="A13" s="120">
+        <v>12</v>
+      </c>
+      <c r="B13" s="111" t="s">
+        <v>371</v>
+      </c>
+      <c r="C13" s="108" t="s">
+        <v>367</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+    <row r="14" spans="1:5">
+      <c r="A14" s="120">
+        <v>13</v>
+      </c>
+      <c r="B14" s="112" t="s">
+        <v>372</v>
+      </c>
+      <c r="C14" s="108" t="s">
+        <v>369</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="50"/>
+    <row r="15" spans="1:5">
+      <c r="A15" s="120">
+        <v>14</v>
+      </c>
+      <c r="B15" s="112" t="s">
+        <v>372</v>
+      </c>
+      <c r="C15" s="108" t="s">
+        <v>366</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+    <row r="16" spans="1:5">
+      <c r="A16" s="120">
+        <v>15</v>
+      </c>
+      <c r="B16" s="112" t="s">
+        <v>372</v>
+      </c>
+      <c r="C16" s="108" t="s">
+        <v>367</v>
+      </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+    <row r="17" spans="1:5">
+      <c r="A17" s="120">
+        <v>16</v>
+      </c>
+      <c r="B17" s="112" t="s">
+        <v>372</v>
+      </c>
+      <c r="C17" s="108" t="s">
+        <v>368</v>
+      </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+    <row r="18" spans="1:5">
+      <c r="A18" s="120">
+        <v>17</v>
+      </c>
+      <c r="B18" s="113" t="s">
+        <v>373</v>
+      </c>
+      <c r="C18" s="108" t="s">
+        <v>366</v>
+      </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="40"/>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="120">
+        <v>18</v>
+      </c>
+      <c r="B19" s="113" t="s">
+        <v>373</v>
+      </c>
+      <c r="C19" s="108" t="s">
+        <v>367</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="120">
+        <v>19</v>
+      </c>
+      <c r="B20" s="113" t="s">
+        <v>373</v>
+      </c>
+      <c r="C20" s="108" t="s">
+        <v>368</v>
+      </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="40"/>
-    </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A21" s="121">
+        <v>20</v>
+      </c>
+      <c r="B21" s="113" t="s">
+        <v>373</v>
+      </c>
+      <c r="C21" s="108" t="s">
+        <v>369</v>
+      </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="43"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="40"/>
-    </row>
-    <row r="22" spans="1:16">
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="44"/>
-      <c r="P22" s="40"/>
-    </row>
-    <row r="23" spans="1:16">
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="43"/>
-      <c r="O23" s="43"/>
-      <c r="P23" s="40"/>
-    </row>
-    <row r="24" spans="1:16">
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="43"/>
-      <c r="O24" s="43"/>
-      <c r="P24" s="40"/>
-    </row>
-    <row r="25" spans="1:16">
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="40"/>
-    </row>
-    <row r="26" spans="1:16">
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="40"/>
-    </row>
-    <row r="27" spans="1:16">
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="40"/>
-    </row>
-    <row r="28" spans="1:16">
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:5">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:5">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:5">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:5">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -16541,16 +16316,8 @@
       <c r="E421" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{64BF1FB4-9567-4525-A7A2-2274B2F183A0}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{C5E5FA3C-2A51-436D-AB9D-D1EF5690D4DA}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{B74E7204-1700-4B44-924E-BF75039B4AA9}"/>
-    <hyperlink ref="E4" r:id="rId4" xr:uid="{30C72246-802B-40D0-B20C-1968F90A0541}"/>
-    <hyperlink ref="D5" r:id="rId5" xr:uid="{DEC7AA7A-D93C-4FFC-8E1C-3678A46540DB}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{9EFD7C8D-99B7-4492-9411-472BDF99E56E}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -16558,8 +16325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148A02EB-2AB5-4CEE-AD31-2C5B103FBDAA}">
   <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16574,231 +16341,231 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="71" t="s">
-        <v>164</v>
+      <c r="A1" s="48" t="s">
+        <v>128</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D1" s="71" t="s">
-        <v>164</v>
+        <v>136</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>128</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>172</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="48" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D2" s="71" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="48" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="71" t="s">
-        <v>162</v>
+      <c r="A3" s="48" t="s">
+        <v>126</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D3" s="71" t="s">
-        <v>162</v>
+        <v>151</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>126</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>188</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="72" t="s">
-        <v>165</v>
-      </c>
-      <c r="B4" s="70"/>
-      <c r="D4" s="72" t="s">
-        <v>165</v>
-      </c>
-      <c r="E4" s="70"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="64"/>
+      <c r="A4" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="47"/>
+      <c r="D4" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="47"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="41"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="74" t="s">
-        <v>166</v>
-      </c>
-      <c r="B5" s="65" t="s">
-        <v>176</v>
-      </c>
-      <c r="D5" s="74" t="s">
-        <v>166</v>
-      </c>
-      <c r="E5" s="65" t="s">
-        <v>176</v>
+      <c r="A5" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>140</v>
       </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="73" t="s">
-        <v>97</v>
-      </c>
-      <c r="B6" s="66" t="s">
-        <v>178</v>
-      </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="73" t="s">
-        <v>97</v>
-      </c>
-      <c r="E6" s="66" t="s">
-        <v>179</v>
+      <c r="A6" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="46"/>
+      <c r="D6" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>143</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="73" t="s">
-        <v>96</v>
-      </c>
-      <c r="B7" s="66" t="s">
-        <v>177</v>
-      </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="73" t="s">
-        <v>96</v>
-      </c>
-      <c r="E7" s="66" t="s">
-        <v>180</v>
+      <c r="A7" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="46"/>
+      <c r="D7" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>144</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="73" t="s">
-        <v>163</v>
-      </c>
-      <c r="B8" s="66" t="s">
-        <v>181</v>
-      </c>
-      <c r="C8" s="69"/>
-      <c r="D8" s="73" t="s">
-        <v>163</v>
-      </c>
-      <c r="E8" s="66" t="s">
-        <v>181</v>
+      <c r="A8" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="46"/>
+      <c r="D8" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>145</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="73" t="s">
-        <v>167</v>
-      </c>
-      <c r="B9" s="66" t="s">
-        <v>182</v>
-      </c>
-      <c r="C9" s="69"/>
-      <c r="D9" s="73" t="s">
-        <v>167</v>
-      </c>
-      <c r="E9" s="66" t="s">
-        <v>182</v>
+      <c r="A9" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="46"/>
+      <c r="D9" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" s="43" t="s">
+        <v>146</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="66" t="s">
-        <v>183</v>
-      </c>
-      <c r="C10" s="69"/>
-      <c r="D10" s="73" t="s">
+      <c r="B10" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" s="46"/>
+      <c r="D10" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="66" t="s">
-        <v>183</v>
+      <c r="E10" s="43" t="s">
+        <v>147</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="73" t="s">
-        <v>168</v>
-      </c>
-      <c r="B11" s="66" t="s">
-        <v>186</v>
-      </c>
-      <c r="C11" s="69"/>
-      <c r="D11" s="73" t="s">
-        <v>168</v>
-      </c>
-      <c r="E11" s="66" t="s">
-        <v>186</v>
+      <c r="A11" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="46"/>
+      <c r="D11" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11" s="43" t="s">
+        <v>150</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="73" t="s">
-        <v>169</v>
-      </c>
-      <c r="B12" s="66" t="s">
-        <v>185</v>
-      </c>
-      <c r="C12" s="69"/>
-      <c r="D12" s="73" t="s">
-        <v>169</v>
-      </c>
-      <c r="E12" s="66" t="s">
-        <v>185</v>
+      <c r="A12" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12" s="46"/>
+      <c r="D12" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>149</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="73" t="s">
-        <v>170</v>
-      </c>
-      <c r="B13" s="66" t="s">
-        <v>184</v>
-      </c>
-      <c r="C13" s="69"/>
-      <c r="D13" s="73" t="s">
-        <v>170</v>
-      </c>
-      <c r="E13" s="66" t="s">
-        <v>184</v>
+      <c r="A13" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="C13" s="46"/>
+      <c r="D13" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13" s="43" t="s">
+        <v>148</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="73" t="s">
-        <v>171</v>
-      </c>
-      <c r="B14" s="75" t="s">
-        <v>175</v>
-      </c>
-      <c r="C14" s="69"/>
-      <c r="D14" s="73" t="s">
-        <v>171</v>
-      </c>
-      <c r="E14" s="75" t="s">
-        <v>175</v>
+      <c r="A14" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" s="46"/>
+      <c r="D14" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" s="52" t="s">
+        <v>139</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -16806,267 +16573,267 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="6"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="6"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="71" t="s">
-        <v>164</v>
+      <c r="A17" s="48" t="s">
+        <v>128</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C17" s="69"/>
-      <c r="D17" s="71" t="s">
-        <v>164</v>
+        <v>136</v>
+      </c>
+      <c r="C17" s="46"/>
+      <c r="D17" s="48" t="s">
+        <v>128</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>172</v>
+        <v>136</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="71" t="s">
+      <c r="A18" s="48" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C18" s="69"/>
-      <c r="D18" s="71" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" s="46"/>
+      <c r="D18" s="48" t="s">
         <v>0</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>197</v>
+        <v>158</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="71" t="s">
-        <v>162</v>
+      <c r="A19" s="48" t="s">
+        <v>126</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C19" s="69"/>
-      <c r="D19" s="71" t="s">
-        <v>162</v>
+        <v>360</v>
+      </c>
+      <c r="C19" s="46"/>
+      <c r="D19" s="48" t="s">
+        <v>126</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>192</v>
+        <v>361</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="72" t="s">
-        <v>165</v>
-      </c>
-      <c r="B20" s="70"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="72" t="s">
-        <v>165</v>
-      </c>
-      <c r="E20" s="70"/>
+      <c r="A20" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="B20" s="47"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20" s="47"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="74" t="s">
-        <v>166</v>
-      </c>
-      <c r="B21" s="65" t="s">
-        <v>176</v>
-      </c>
-      <c r="C21" s="69"/>
-      <c r="D21" s="74" t="s">
-        <v>166</v>
-      </c>
-      <c r="E21" s="65" t="s">
-        <v>176</v>
+      <c r="A21" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" s="46"/>
+      <c r="D21" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="E21" s="42" t="s">
+        <v>140</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="73" t="s">
-        <v>97</v>
-      </c>
-      <c r="B22" s="66" t="s">
-        <v>190</v>
-      </c>
-      <c r="C22" s="69"/>
-      <c r="D22" s="73" t="s">
-        <v>97</v>
-      </c>
-      <c r="E22" s="66" t="s">
-        <v>193</v>
+      <c r="A22" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="C22" s="46"/>
+      <c r="D22" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="43" t="s">
+        <v>155</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="73" t="s">
-        <v>96</v>
-      </c>
-      <c r="B23" s="66" t="s">
-        <v>191</v>
-      </c>
-      <c r="C23" s="69"/>
-      <c r="D23" s="73" t="s">
-        <v>96</v>
-      </c>
-      <c r="E23" s="66" t="s">
-        <v>194</v>
+      <c r="A23" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="C23" s="46"/>
+      <c r="D23" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="43" t="s">
+        <v>359</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="73" t="s">
-        <v>163</v>
-      </c>
-      <c r="B24" s="66" t="s">
-        <v>181</v>
-      </c>
-      <c r="C24" s="69"/>
-      <c r="D24" s="73" t="s">
-        <v>163</v>
-      </c>
-      <c r="E24" s="66" t="s">
-        <v>181</v>
+      <c r="A24" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24" s="46"/>
+      <c r="D24" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24" s="43" t="s">
+        <v>145</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="73" t="s">
-        <v>167</v>
-      </c>
-      <c r="B25" s="66" t="s">
-        <v>182</v>
-      </c>
-      <c r="C25" s="69"/>
-      <c r="D25" s="73" t="s">
-        <v>167</v>
-      </c>
-      <c r="E25" s="66" t="s">
-        <v>195</v>
+      <c r="A25" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="B25" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="C25" s="46"/>
+      <c r="D25" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="E25" s="43" t="s">
+        <v>156</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="73" t="s">
+      <c r="A26" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="66" t="s">
-        <v>183</v>
-      </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="73" t="s">
+      <c r="B26" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="C26" s="46"/>
+      <c r="D26" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="66" t="s">
-        <v>183</v>
+      <c r="E26" s="43" t="s">
+        <v>147</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="73" t="s">
-        <v>168</v>
-      </c>
-      <c r="B27" s="66" t="s">
-        <v>186</v>
-      </c>
-      <c r="C27" s="69"/>
-      <c r="D27" s="73" t="s">
-        <v>168</v>
-      </c>
-      <c r="E27" s="66" t="s">
-        <v>186</v>
+      <c r="A27" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="B27" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="C27" s="46"/>
+      <c r="D27" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="E27" s="43" t="s">
+        <v>150</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="73" t="s">
-        <v>169</v>
-      </c>
-      <c r="B28" s="66" t="s">
-        <v>185</v>
-      </c>
-      <c r="C28" s="69"/>
-      <c r="D28" s="73" t="s">
-        <v>169</v>
-      </c>
-      <c r="E28" s="66" t="s">
-        <v>185</v>
+      <c r="A28" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="B28" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="C28" s="46"/>
+      <c r="D28" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="E28" s="43" t="s">
+        <v>149</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="73" t="s">
-        <v>170</v>
-      </c>
-      <c r="B29" s="66" t="s">
-        <v>184</v>
-      </c>
-      <c r="C29" s="69"/>
-      <c r="D29" s="73" t="s">
-        <v>170</v>
-      </c>
-      <c r="E29" s="66" t="s">
-        <v>184</v>
+      <c r="A29" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="B29" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="C29" s="46"/>
+      <c r="D29" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="E29" s="43" t="s">
+        <v>148</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="73" t="s">
-        <v>171</v>
-      </c>
-      <c r="B30" s="75" t="s">
-        <v>175</v>
-      </c>
-      <c r="C30" s="69"/>
-      <c r="D30" s="73" t="s">
-        <v>171</v>
-      </c>
-      <c r="E30" s="75" t="s">
-        <v>175</v>
+      <c r="A30" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="B30" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="C30" s="46"/>
+      <c r="D30" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="E30" s="52" t="s">
+        <v>139</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -17074,10 +16841,10 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="6"/>
-      <c r="B31" s="69"/>
-      <c r="C31" s="69"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="69"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -17093,248 +16860,248 @@
       <c r="H32" s="2"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="73" t="s">
-        <v>164</v>
-      </c>
-      <c r="B33" s="123" t="s">
-        <v>172</v>
-      </c>
-      <c r="C33" s="124"/>
-      <c r="D33" s="125" t="s">
-        <v>164</v>
-      </c>
-      <c r="E33" s="126" t="s">
-        <v>172</v>
+      <c r="A33" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="B33" s="85" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" s="86"/>
+      <c r="D33" s="87" t="s">
+        <v>128</v>
+      </c>
+      <c r="E33" s="88" t="s">
+        <v>136</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="73" t="s">
+      <c r="A34" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="C34" s="124"/>
-      <c r="D34" s="125" t="s">
+      <c r="B34" s="85" t="s">
+        <v>159</v>
+      </c>
+      <c r="C34" s="86"/>
+      <c r="D34" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="E34" s="123" t="s">
-        <v>389</v>
+      <c r="E34" s="85" t="s">
+        <v>344</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1">
-      <c r="A35" s="73" t="s">
-        <v>162</v>
-      </c>
-      <c r="B35" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="C35" s="124"/>
-      <c r="D35" s="125" t="s">
-        <v>162</v>
-      </c>
-      <c r="E35" s="126" t="s">
-        <v>367</v>
+      <c r="A35" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="B35" s="85" t="s">
+        <v>362</v>
+      </c>
+      <c r="C35" s="86"/>
+      <c r="D35" s="87" t="s">
+        <v>126</v>
+      </c>
+      <c r="E35" s="88" t="s">
+        <v>325</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="73" t="s">
-        <v>165</v>
-      </c>
-      <c r="B36" s="79"/>
-      <c r="C36" s="124"/>
-      <c r="D36" s="125" t="s">
-        <v>165</v>
-      </c>
-      <c r="E36" s="127"/>
+      <c r="A36" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B36" s="56"/>
+      <c r="C36" s="86"/>
+      <c r="D36" s="87" t="s">
+        <v>129</v>
+      </c>
+      <c r="E36" s="89"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="1:8" ht="75">
-      <c r="A37" s="122" t="s">
-        <v>166</v>
-      </c>
-      <c r="B37" s="128" t="s">
-        <v>176</v>
-      </c>
-      <c r="C37" s="124"/>
-      <c r="D37" s="125" t="s">
-        <v>166</v>
-      </c>
-      <c r="E37" s="126" t="s">
-        <v>368</v>
+    <row r="37" spans="1:8" ht="90">
+      <c r="A37" s="84" t="s">
+        <v>130</v>
+      </c>
+      <c r="B37" s="90" t="s">
+        <v>140</v>
+      </c>
+      <c r="C37" s="86"/>
+      <c r="D37" s="87" t="s">
+        <v>130</v>
+      </c>
+      <c r="E37" s="88" t="s">
+        <v>350</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
     </row>
     <row r="38" spans="1:8" ht="25.5">
-      <c r="A38" s="73" t="s">
-        <v>97</v>
-      </c>
-      <c r="B38" s="128" t="s">
-        <v>200</v>
-      </c>
-      <c r="C38" s="124"/>
-      <c r="D38" s="125" t="s">
-        <v>97</v>
-      </c>
-      <c r="E38" s="127" t="s">
-        <v>369</v>
+      <c r="A38" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="B38" s="90" t="s">
+        <v>160</v>
+      </c>
+      <c r="C38" s="86"/>
+      <c r="D38" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="E38" s="89" t="s">
+        <v>326</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
     </row>
     <row r="39" spans="1:8" ht="25.5">
-      <c r="A39" s="73" t="s">
-        <v>96</v>
-      </c>
-      <c r="B39" s="128" t="s">
-        <v>201</v>
-      </c>
-      <c r="C39" s="124"/>
-      <c r="D39" s="125" t="s">
-        <v>96</v>
+      <c r="A39" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="B39" s="90" t="s">
+        <v>161</v>
+      </c>
+      <c r="C39" s="86"/>
+      <c r="D39" s="87" t="s">
+        <v>90</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>370</v>
+        <v>327</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="73" t="s">
-        <v>163</v>
-      </c>
-      <c r="B40" s="128" t="s">
-        <v>181</v>
-      </c>
-      <c r="C40" s="124"/>
-      <c r="D40" s="125" t="s">
-        <v>163</v>
-      </c>
-      <c r="E40" s="126" t="s">
-        <v>371</v>
+      <c r="A40" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="B40" s="90" t="s">
+        <v>145</v>
+      </c>
+      <c r="C40" s="86"/>
+      <c r="D40" s="87" t="s">
+        <v>127</v>
+      </c>
+      <c r="E40" s="88" t="s">
+        <v>328</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="73" t="s">
-        <v>167</v>
-      </c>
-      <c r="B41" s="128" t="s">
-        <v>182</v>
-      </c>
-      <c r="C41" s="124"/>
-      <c r="D41" s="125" t="s">
-        <v>167</v>
-      </c>
-      <c r="E41" s="126" t="s">
-        <v>372</v>
+      <c r="A41" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="B41" s="90" t="s">
+        <v>329</v>
+      </c>
+      <c r="C41" s="86"/>
+      <c r="D41" s="87" t="s">
+        <v>131</v>
+      </c>
+      <c r="E41" s="88" t="s">
+        <v>329</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="73" t="s">
+      <c r="A42" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="B42" s="128" t="s">
-        <v>183</v>
-      </c>
-      <c r="C42" s="124"/>
-      <c r="D42" s="125" t="s">
+      <c r="B42" s="90" t="s">
+        <v>147</v>
+      </c>
+      <c r="C42" s="86"/>
+      <c r="D42" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="E42" s="126" t="s">
-        <v>183</v>
+      <c r="E42" s="88" t="s">
+        <v>147</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="73" t="s">
-        <v>168</v>
-      </c>
-      <c r="B43" s="128" t="s">
-        <v>186</v>
-      </c>
-      <c r="C43" s="124"/>
-      <c r="D43" s="125" t="s">
-        <v>168</v>
-      </c>
-      <c r="E43" s="126" t="s">
-        <v>373</v>
+      <c r="A43" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="B43" s="90" t="s">
+        <v>150</v>
+      </c>
+      <c r="C43" s="86"/>
+      <c r="D43" s="87" t="s">
+        <v>132</v>
+      </c>
+      <c r="E43" s="88" t="s">
+        <v>330</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="73" t="s">
-        <v>169</v>
-      </c>
-      <c r="B44" s="128" t="s">
-        <v>185</v>
-      </c>
-      <c r="C44" s="124"/>
-      <c r="D44" s="125" t="s">
-        <v>169</v>
-      </c>
-      <c r="E44" s="126" t="s">
-        <v>185</v>
+      <c r="A44" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="B44" s="90" t="s">
+        <v>149</v>
+      </c>
+      <c r="C44" s="86"/>
+      <c r="D44" s="87" t="s">
+        <v>133</v>
+      </c>
+      <c r="E44" s="88" t="s">
+        <v>149</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="73" t="s">
-        <v>170</v>
-      </c>
-      <c r="B45" s="128" t="s">
-        <v>184</v>
-      </c>
-      <c r="C45" s="124"/>
-      <c r="D45" s="125" t="s">
-        <v>170</v>
-      </c>
-      <c r="E45" s="126" t="s">
-        <v>184</v>
+      <c r="A45" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="B45" s="90" t="s">
+        <v>148</v>
+      </c>
+      <c r="C45" s="86"/>
+      <c r="D45" s="87" t="s">
+        <v>134</v>
+      </c>
+      <c r="E45" s="88" t="s">
+        <v>148</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="73" t="s">
-        <v>171</v>
+      <c r="A46" s="50" t="s">
+        <v>135</v>
       </c>
       <c r="B46" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="C46" s="124"/>
-      <c r="D46" s="125" t="s">
-        <v>171</v>
+        <v>139</v>
+      </c>
+      <c r="C46" s="86"/>
+      <c r="D46" s="87" t="s">
+        <v>135</v>
       </c>
       <c r="E46" s="36" t="s">
-        <v>175</v>
+        <v>139</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -17361,731 +17128,731 @@
       <c r="H48" s="2"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="125" t="s">
-        <v>164</v>
-      </c>
-      <c r="B49" s="126" t="s">
-        <v>172</v>
-      </c>
-      <c r="C49" s="129"/>
-      <c r="D49" s="125" t="s">
-        <v>164</v>
-      </c>
-      <c r="E49" s="126" t="s">
-        <v>172</v>
+      <c r="A49" s="87" t="s">
+        <v>128</v>
+      </c>
+      <c r="B49" s="88" t="s">
+        <v>136</v>
+      </c>
+      <c r="C49" s="91"/>
+      <c r="D49" s="87" t="s">
+        <v>128</v>
+      </c>
+      <c r="E49" s="88" t="s">
+        <v>136</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="125" t="s">
+      <c r="A50" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="123" t="s">
-        <v>390</v>
-      </c>
-      <c r="C50" s="129"/>
-      <c r="D50" s="125" t="s">
+      <c r="B50" s="85" t="s">
+        <v>345</v>
+      </c>
+      <c r="C50" s="91"/>
+      <c r="D50" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="E50" s="123" t="s">
-        <v>391</v>
+      <c r="E50" s="85" t="s">
+        <v>346</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="125" t="s">
-        <v>162</v>
-      </c>
-      <c r="B51" s="126" t="s">
-        <v>374</v>
-      </c>
-      <c r="C51" s="129"/>
-      <c r="D51" s="125" t="s">
-        <v>162</v>
-      </c>
-      <c r="E51" s="126" t="s">
-        <v>375</v>
+      <c r="A51" s="87" t="s">
+        <v>126</v>
+      </c>
+      <c r="B51" s="88" t="s">
+        <v>331</v>
+      </c>
+      <c r="C51" s="91"/>
+      <c r="D51" s="87" t="s">
+        <v>126</v>
+      </c>
+      <c r="E51" s="88" t="s">
+        <v>332</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="125" t="s">
-        <v>165</v>
-      </c>
-      <c r="B52" s="127"/>
-      <c r="C52" s="129"/>
-      <c r="D52" s="125" t="s">
-        <v>165</v>
-      </c>
-      <c r="E52" s="127"/>
+      <c r="A52" s="87" t="s">
+        <v>129</v>
+      </c>
+      <c r="B52" s="89"/>
+      <c r="C52" s="91"/>
+      <c r="D52" s="87" t="s">
+        <v>129</v>
+      </c>
+      <c r="E52" s="89"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
     </row>
-    <row r="53" spans="1:8" ht="75">
-      <c r="A53" s="125" t="s">
-        <v>166</v>
-      </c>
-      <c r="B53" s="126" t="s">
-        <v>376</v>
-      </c>
-      <c r="C53" s="129"/>
-      <c r="D53" s="125" t="s">
-        <v>166</v>
-      </c>
-      <c r="E53" s="126" t="s">
-        <v>377</v>
+    <row r="53" spans="1:8" ht="90">
+      <c r="A53" s="87" t="s">
+        <v>130</v>
+      </c>
+      <c r="B53" s="88" t="s">
+        <v>355</v>
+      </c>
+      <c r="C53" s="91"/>
+      <c r="D53" s="87" t="s">
+        <v>130</v>
+      </c>
+      <c r="E53" s="88" t="s">
+        <v>354</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
     </row>
     <row r="54" spans="1:8" ht="25.5">
-      <c r="A54" s="125" t="s">
-        <v>97</v>
-      </c>
-      <c r="B54" s="127" t="s">
-        <v>369</v>
-      </c>
-      <c r="C54" s="129"/>
-      <c r="D54" s="125" t="s">
-        <v>97</v>
-      </c>
-      <c r="E54" s="127" t="s">
-        <v>378</v>
+      <c r="A54" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="B54" s="89" t="s">
+        <v>326</v>
+      </c>
+      <c r="C54" s="91"/>
+      <c r="D54" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="E54" s="89" t="s">
+        <v>333</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
     </row>
     <row r="55" spans="1:8" ht="25.5">
-      <c r="A55" s="125" t="s">
-        <v>96</v>
+      <c r="A55" s="87" t="s">
+        <v>90</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>379</v>
-      </c>
-      <c r="C55" s="129"/>
-      <c r="D55" s="125" t="s">
-        <v>96</v>
+        <v>334</v>
+      </c>
+      <c r="C55" s="91"/>
+      <c r="D55" s="87" t="s">
+        <v>90</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>380</v>
+        <v>335</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="125" t="s">
-        <v>163</v>
-      </c>
-      <c r="B56" s="126" t="s">
-        <v>381</v>
-      </c>
-      <c r="C56" s="129"/>
-      <c r="D56" s="125" t="s">
-        <v>163</v>
-      </c>
-      <c r="E56" s="126" t="s">
-        <v>381</v>
+      <c r="A56" s="87" t="s">
+        <v>127</v>
+      </c>
+      <c r="B56" s="88" t="s">
+        <v>336</v>
+      </c>
+      <c r="C56" s="91"/>
+      <c r="D56" s="87" t="s">
+        <v>127</v>
+      </c>
+      <c r="E56" s="88" t="s">
+        <v>336</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="125" t="s">
-        <v>167</v>
-      </c>
-      <c r="B57" s="126" t="s">
-        <v>182</v>
-      </c>
-      <c r="C57" s="129"/>
-      <c r="D57" s="125" t="s">
-        <v>167</v>
-      </c>
-      <c r="E57" s="126" t="s">
-        <v>182</v>
+      <c r="A57" s="87" t="s">
+        <v>131</v>
+      </c>
+      <c r="B57" s="88" t="s">
+        <v>146</v>
+      </c>
+      <c r="C57" s="91"/>
+      <c r="D57" s="87" t="s">
+        <v>131</v>
+      </c>
+      <c r="E57" s="88" t="s">
+        <v>146</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="125" t="s">
+      <c r="A58" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="B58" s="126" t="s">
-        <v>183</v>
-      </c>
-      <c r="C58" s="129"/>
-      <c r="D58" s="125" t="s">
+      <c r="B58" s="88" t="s">
+        <v>147</v>
+      </c>
+      <c r="C58" s="91"/>
+      <c r="D58" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="126" t="s">
-        <v>183</v>
+      <c r="E58" s="88" t="s">
+        <v>147</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="125" t="s">
-        <v>168</v>
-      </c>
-      <c r="B59" s="126" t="s">
-        <v>373</v>
-      </c>
-      <c r="C59" s="129"/>
-      <c r="D59" s="125" t="s">
-        <v>168</v>
-      </c>
-      <c r="E59" s="126" t="s">
-        <v>373</v>
+      <c r="A59" s="87" t="s">
+        <v>132</v>
+      </c>
+      <c r="B59" s="88" t="s">
+        <v>330</v>
+      </c>
+      <c r="C59" s="91"/>
+      <c r="D59" s="87" t="s">
+        <v>132</v>
+      </c>
+      <c r="E59" s="88" t="s">
+        <v>330</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="125" t="s">
-        <v>169</v>
-      </c>
-      <c r="B60" s="126" t="s">
-        <v>185</v>
-      </c>
-      <c r="C60" s="129"/>
-      <c r="D60" s="125" t="s">
-        <v>169</v>
-      </c>
-      <c r="E60" s="126" t="s">
-        <v>185</v>
+      <c r="A60" s="87" t="s">
+        <v>133</v>
+      </c>
+      <c r="B60" s="88" t="s">
+        <v>149</v>
+      </c>
+      <c r="C60" s="91"/>
+      <c r="D60" s="87" t="s">
+        <v>133</v>
+      </c>
+      <c r="E60" s="88" t="s">
+        <v>149</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="125" t="s">
-        <v>170</v>
-      </c>
-      <c r="B61" s="126" t="s">
-        <v>184</v>
-      </c>
-      <c r="C61" s="129"/>
-      <c r="D61" s="125" t="s">
-        <v>170</v>
-      </c>
-      <c r="E61" s="126" t="s">
-        <v>184</v>
+      <c r="A61" s="87" t="s">
+        <v>134</v>
+      </c>
+      <c r="B61" s="88" t="s">
+        <v>148</v>
+      </c>
+      <c r="C61" s="91"/>
+      <c r="D61" s="87" t="s">
+        <v>134</v>
+      </c>
+      <c r="E61" s="88" t="s">
+        <v>148</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="125" t="s">
-        <v>171</v>
+      <c r="A62" s="87" t="s">
+        <v>135</v>
       </c>
       <c r="B62" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="C62" s="129"/>
-      <c r="D62" s="125" t="s">
-        <v>171</v>
+        <v>139</v>
+      </c>
+      <c r="C62" s="91"/>
+      <c r="D62" s="87" t="s">
+        <v>135</v>
       </c>
       <c r="E62" s="36" t="s">
-        <v>175</v>
+        <v>139</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="129"/>
-      <c r="B63" s="129"/>
-      <c r="C63" s="129"/>
-      <c r="D63" s="129"/>
-      <c r="E63" s="129"/>
+      <c r="A63" s="91"/>
+      <c r="B63" s="91"/>
+      <c r="C63" s="91"/>
+      <c r="D63" s="91"/>
+      <c r="E63" s="91"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="129"/>
-      <c r="B64" s="129"/>
-      <c r="C64" s="129"/>
-      <c r="D64" s="129"/>
-      <c r="E64" s="129"/>
+      <c r="A64" s="91"/>
+      <c r="B64" s="91"/>
+      <c r="C64" s="91"/>
+      <c r="D64" s="91"/>
+      <c r="E64" s="91"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="125" t="s">
-        <v>164</v>
-      </c>
-      <c r="B65" s="126" t="s">
-        <v>172</v>
-      </c>
-      <c r="C65" s="129"/>
-      <c r="D65" s="125" t="s">
-        <v>164</v>
-      </c>
-      <c r="E65" s="126" t="s">
-        <v>172</v>
+      <c r="A65" s="87" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" s="88" t="s">
+        <v>136</v>
+      </c>
+      <c r="C65" s="91"/>
+      <c r="D65" s="87" t="s">
+        <v>128</v>
+      </c>
+      <c r="E65" s="88" t="s">
+        <v>136</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="125" t="s">
+      <c r="A66" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B66" s="123" t="s">
-        <v>392</v>
-      </c>
-      <c r="C66" s="129"/>
-      <c r="D66" s="125" t="s">
+      <c r="B66" s="85" t="s">
+        <v>347</v>
+      </c>
+      <c r="C66" s="91"/>
+      <c r="D66" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="E66" s="123" t="s">
-        <v>393</v>
+      <c r="E66" s="85" t="s">
+        <v>348</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="125" t="s">
-        <v>162</v>
-      </c>
-      <c r="B67" s="126" t="s">
-        <v>382</v>
-      </c>
-      <c r="C67" s="129"/>
-      <c r="D67" s="125" t="s">
-        <v>162</v>
-      </c>
-      <c r="E67" s="126" t="s">
-        <v>383</v>
+      <c r="A67" s="87" t="s">
+        <v>126</v>
+      </c>
+      <c r="B67" s="88" t="s">
+        <v>337</v>
+      </c>
+      <c r="C67" s="91"/>
+      <c r="D67" s="87" t="s">
+        <v>126</v>
+      </c>
+      <c r="E67" s="88" t="s">
+        <v>338</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="125" t="s">
-        <v>165</v>
-      </c>
-      <c r="B68" s="127"/>
-      <c r="C68" s="129"/>
-      <c r="D68" s="125" t="s">
-        <v>165</v>
-      </c>
-      <c r="E68" s="127"/>
+      <c r="A68" s="87" t="s">
+        <v>129</v>
+      </c>
+      <c r="B68" s="89"/>
+      <c r="C68" s="91"/>
+      <c r="D68" s="87" t="s">
+        <v>129</v>
+      </c>
+      <c r="E68" s="89"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
     </row>
-    <row r="69" spans="1:8" ht="63.75">
-      <c r="A69" s="125" t="s">
-        <v>166</v>
-      </c>
-      <c r="B69" s="127" t="s">
-        <v>396</v>
-      </c>
-      <c r="C69" s="129"/>
-      <c r="D69" s="125" t="s">
-        <v>166</v>
-      </c>
-      <c r="E69" s="127" t="s">
-        <v>397</v>
+    <row r="69" spans="1:8" ht="76.5">
+      <c r="A69" s="87" t="s">
+        <v>130</v>
+      </c>
+      <c r="B69" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="C69" s="91"/>
+      <c r="D69" s="87" t="s">
+        <v>130</v>
+      </c>
+      <c r="E69" s="89" t="s">
+        <v>353</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
     </row>
     <row r="70" spans="1:8" ht="25.5">
-      <c r="A70" s="125" t="s">
-        <v>97</v>
+      <c r="A70" s="87" t="s">
+        <v>91</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>384</v>
-      </c>
-      <c r="C70" s="129"/>
-      <c r="D70" s="125" t="s">
-        <v>97</v>
+        <v>339</v>
+      </c>
+      <c r="C70" s="91"/>
+      <c r="D70" s="87" t="s">
+        <v>91</v>
       </c>
       <c r="E70" s="17" t="s">
-        <v>384</v>
+        <v>339</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
     </row>
     <row r="71" spans="1:8" ht="25.5">
-      <c r="A71" s="125" t="s">
-        <v>96</v>
+      <c r="A71" s="87" t="s">
+        <v>90</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>385</v>
-      </c>
-      <c r="C71" s="129"/>
-      <c r="D71" s="125" t="s">
-        <v>96</v>
+        <v>340</v>
+      </c>
+      <c r="C71" s="91"/>
+      <c r="D71" s="87" t="s">
+        <v>90</v>
       </c>
       <c r="E71" s="17" t="s">
-        <v>379</v>
+        <v>334</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="125" t="s">
-        <v>163</v>
-      </c>
-      <c r="B72" s="126" t="s">
-        <v>181</v>
-      </c>
-      <c r="C72" s="129"/>
-      <c r="D72" s="125" t="s">
-        <v>163</v>
-      </c>
-      <c r="E72" s="126" t="s">
-        <v>181</v>
+      <c r="A72" s="87" t="s">
+        <v>127</v>
+      </c>
+      <c r="B72" s="88" t="s">
+        <v>145</v>
+      </c>
+      <c r="C72" s="91"/>
+      <c r="D72" s="87" t="s">
+        <v>127</v>
+      </c>
+      <c r="E72" s="88" t="s">
+        <v>145</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="125" t="s">
-        <v>167</v>
-      </c>
-      <c r="B73" s="126" t="s">
-        <v>182</v>
-      </c>
-      <c r="C73" s="129"/>
-      <c r="D73" s="125" t="s">
-        <v>167</v>
-      </c>
-      <c r="E73" s="126" t="s">
-        <v>182</v>
+      <c r="A73" s="87" t="s">
+        <v>131</v>
+      </c>
+      <c r="B73" s="88" t="s">
+        <v>146</v>
+      </c>
+      <c r="C73" s="91"/>
+      <c r="D73" s="87" t="s">
+        <v>131</v>
+      </c>
+      <c r="E73" s="88" t="s">
+        <v>146</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="125" t="s">
+      <c r="A74" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="B74" s="126" t="s">
-        <v>183</v>
-      </c>
-      <c r="C74" s="129"/>
-      <c r="D74" s="125" t="s">
+      <c r="B74" s="88" t="s">
+        <v>147</v>
+      </c>
+      <c r="C74" s="91"/>
+      <c r="D74" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="E74" s="126" t="s">
-        <v>183</v>
+      <c r="E74" s="88" t="s">
+        <v>147</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="125" t="s">
-        <v>168</v>
-      </c>
-      <c r="B75" s="126" t="s">
-        <v>373</v>
-      </c>
-      <c r="C75" s="129"/>
-      <c r="D75" s="125" t="s">
-        <v>168</v>
-      </c>
-      <c r="E75" s="126" t="s">
-        <v>373</v>
+      <c r="A75" s="87" t="s">
+        <v>132</v>
+      </c>
+      <c r="B75" s="88" t="s">
+        <v>330</v>
+      </c>
+      <c r="C75" s="91"/>
+      <c r="D75" s="87" t="s">
+        <v>132</v>
+      </c>
+      <c r="E75" s="88" t="s">
+        <v>330</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="125" t="s">
-        <v>169</v>
-      </c>
-      <c r="B76" s="126" t="s">
-        <v>185</v>
-      </c>
-      <c r="C76" s="129"/>
-      <c r="D76" s="125" t="s">
-        <v>169</v>
-      </c>
-      <c r="E76" s="126" t="s">
-        <v>185</v>
+      <c r="A76" s="87" t="s">
+        <v>133</v>
+      </c>
+      <c r="B76" s="88" t="s">
+        <v>149</v>
+      </c>
+      <c r="C76" s="91"/>
+      <c r="D76" s="87" t="s">
+        <v>133</v>
+      </c>
+      <c r="E76" s="88" t="s">
+        <v>149</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="125" t="s">
-        <v>170</v>
-      </c>
-      <c r="B77" s="126" t="s">
-        <v>184</v>
-      </c>
-      <c r="C77" s="129"/>
-      <c r="D77" s="125" t="s">
-        <v>170</v>
-      </c>
-      <c r="E77" s="126" t="s">
-        <v>184</v>
+      <c r="A77" s="87" t="s">
+        <v>134</v>
+      </c>
+      <c r="B77" s="88" t="s">
+        <v>148</v>
+      </c>
+      <c r="C77" s="91"/>
+      <c r="D77" s="87" t="s">
+        <v>134</v>
+      </c>
+      <c r="E77" s="88" t="s">
+        <v>148</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="125" t="s">
-        <v>171</v>
+      <c r="A78" s="87" t="s">
+        <v>135</v>
       </c>
       <c r="B78" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="C78" s="129"/>
-      <c r="D78" s="125" t="s">
-        <v>171</v>
+        <v>139</v>
+      </c>
+      <c r="C78" s="91"/>
+      <c r="D78" s="87" t="s">
+        <v>135</v>
       </c>
       <c r="E78" s="36" t="s">
-        <v>175</v>
+        <v>139</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="129"/>
-      <c r="B79" s="129"/>
-      <c r="C79" s="129"/>
-      <c r="D79" s="129"/>
-      <c r="E79" s="129"/>
+      <c r="A79" s="91"/>
+      <c r="B79" s="91"/>
+      <c r="C79" s="91"/>
+      <c r="D79" s="91"/>
+      <c r="E79" s="91"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="129"/>
-      <c r="B80" s="129"/>
-      <c r="C80" s="129"/>
-      <c r="D80" s="129"/>
-      <c r="E80" s="129"/>
+      <c r="A80" s="91"/>
+      <c r="B80" s="91"/>
+      <c r="C80" s="91"/>
+      <c r="D80" s="91"/>
+      <c r="E80" s="91"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="125" t="s">
-        <v>164</v>
-      </c>
-      <c r="B81" s="126" t="s">
-        <v>172</v>
-      </c>
-      <c r="C81" s="129"/>
-      <c r="D81" s="129"/>
-      <c r="E81" s="129"/>
+      <c r="A81" s="87" t="s">
+        <v>128</v>
+      </c>
+      <c r="B81" s="88" t="s">
+        <v>136</v>
+      </c>
+      <c r="C81" s="91"/>
+      <c r="D81" s="91"/>
+      <c r="E81" s="91"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="125" t="s">
+      <c r="A82" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B82" s="123" t="s">
-        <v>394</v>
-      </c>
-      <c r="C82" s="129"/>
-      <c r="D82" s="129"/>
-      <c r="E82" s="129"/>
+      <c r="B82" s="85" t="s">
+        <v>349</v>
+      </c>
+      <c r="C82" s="91"/>
+      <c r="D82" s="91"/>
+      <c r="E82" s="91"/>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="125" t="s">
-        <v>162</v>
-      </c>
-      <c r="B83" s="126" t="s">
-        <v>386</v>
-      </c>
-      <c r="C83" s="129"/>
-      <c r="D83" s="129"/>
-      <c r="E83" s="129"/>
+      <c r="A83" s="87" t="s">
+        <v>126</v>
+      </c>
+      <c r="B83" s="88" t="s">
+        <v>341</v>
+      </c>
+      <c r="C83" s="91"/>
+      <c r="D83" s="91"/>
+      <c r="E83" s="91"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="125" t="s">
-        <v>165</v>
-      </c>
-      <c r="B84" s="127"/>
-      <c r="C84" s="129"/>
-      <c r="D84" s="129"/>
-      <c r="E84" s="129"/>
+      <c r="A84" s="87" t="s">
+        <v>129</v>
+      </c>
+      <c r="B84" s="89"/>
+      <c r="C84" s="91"/>
+      <c r="D84" s="91"/>
+      <c r="E84" s="91"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
     </row>
-    <row r="85" spans="1:8" ht="63.75">
-      <c r="A85" s="125" t="s">
-        <v>166</v>
-      </c>
-      <c r="B85" s="127" t="s">
-        <v>395</v>
-      </c>
-      <c r="C85" s="129"/>
-      <c r="D85" s="129"/>
-      <c r="E85" s="129"/>
+    <row r="85" spans="1:8" ht="76.5">
+      <c r="A85" s="87" t="s">
+        <v>130</v>
+      </c>
+      <c r="B85" s="89" t="s">
+        <v>352</v>
+      </c>
+      <c r="C85" s="91"/>
+      <c r="D85" s="91"/>
+      <c r="E85" s="91"/>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
     </row>
     <row r="86" spans="1:8" ht="25.5">
-      <c r="A86" s="125" t="s">
-        <v>97</v>
+      <c r="A86" s="87" t="s">
+        <v>91</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>387</v>
-      </c>
-      <c r="C86" s="129"/>
-      <c r="D86" s="129"/>
-      <c r="E86" s="129"/>
+        <v>342</v>
+      </c>
+      <c r="C86" s="91"/>
+      <c r="D86" s="91"/>
+      <c r="E86" s="91"/>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
     </row>
     <row r="87" spans="1:8" ht="25.5">
-      <c r="A87" s="125" t="s">
-        <v>96</v>
+      <c r="A87" s="87" t="s">
+        <v>90</v>
       </c>
       <c r="B87" s="17" t="s">
-        <v>388</v>
-      </c>
-      <c r="C87" s="129"/>
-      <c r="D87" s="129"/>
-      <c r="E87" s="129"/>
+        <v>343</v>
+      </c>
+      <c r="C87" s="91"/>
+      <c r="D87" s="91"/>
+      <c r="E87" s="91"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="125" t="s">
-        <v>163</v>
-      </c>
-      <c r="B88" s="126" t="s">
-        <v>181</v>
-      </c>
-      <c r="C88" s="129"/>
-      <c r="D88" s="129"/>
-      <c r="E88" s="129"/>
+      <c r="A88" s="87" t="s">
+        <v>127</v>
+      </c>
+      <c r="B88" s="88" t="s">
+        <v>145</v>
+      </c>
+      <c r="C88" s="91"/>
+      <c r="D88" s="91"/>
+      <c r="E88" s="91"/>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="125" t="s">
-        <v>167</v>
-      </c>
-      <c r="B89" s="126" t="s">
-        <v>182</v>
-      </c>
-      <c r="C89" s="129"/>
-      <c r="D89" s="129"/>
-      <c r="E89" s="129"/>
+      <c r="A89" s="87" t="s">
+        <v>131</v>
+      </c>
+      <c r="B89" s="88" t="s">
+        <v>146</v>
+      </c>
+      <c r="C89" s="91"/>
+      <c r="D89" s="91"/>
+      <c r="E89" s="91"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="125" t="s">
+      <c r="A90" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="B90" s="126" t="s">
-        <v>183</v>
-      </c>
-      <c r="C90" s="129"/>
-      <c r="D90" s="129"/>
-      <c r="E90" s="129"/>
+      <c r="B90" s="88" t="s">
+        <v>147</v>
+      </c>
+      <c r="C90" s="91"/>
+      <c r="D90" s="91"/>
+      <c r="E90" s="91"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
     </row>
     <row r="91" spans="1:8">
-      <c r="A91" s="125" t="s">
-        <v>168</v>
-      </c>
-      <c r="B91" s="126" t="s">
-        <v>373</v>
-      </c>
-      <c r="C91" s="129"/>
-      <c r="D91" s="129"/>
-      <c r="E91" s="129"/>
+      <c r="A91" s="87" t="s">
+        <v>132</v>
+      </c>
+      <c r="B91" s="88" t="s">
+        <v>330</v>
+      </c>
+      <c r="C91" s="91"/>
+      <c r="D91" s="91"/>
+      <c r="E91" s="91"/>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" s="125" t="s">
-        <v>169</v>
-      </c>
-      <c r="B92" s="126" t="s">
-        <v>185</v>
-      </c>
-      <c r="C92" s="129"/>
-      <c r="D92" s="129"/>
-      <c r="E92" s="129"/>
+      <c r="A92" s="87" t="s">
+        <v>133</v>
+      </c>
+      <c r="B92" s="88" t="s">
+        <v>149</v>
+      </c>
+      <c r="C92" s="91"/>
+      <c r="D92" s="91"/>
+      <c r="E92" s="91"/>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="125" t="s">
-        <v>170</v>
-      </c>
-      <c r="B93" s="126" t="s">
-        <v>184</v>
-      </c>
-      <c r="C93" s="129"/>
-      <c r="D93" s="129"/>
-      <c r="E93" s="129"/>
+      <c r="A93" s="87" t="s">
+        <v>134</v>
+      </c>
+      <c r="B93" s="88" t="s">
+        <v>148</v>
+      </c>
+      <c r="C93" s="91"/>
+      <c r="D93" s="91"/>
+      <c r="E93" s="91"/>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
     </row>
     <row r="94" spans="1:8">
-      <c r="A94" s="125" t="s">
-        <v>171</v>
+      <c r="A94" s="87" t="s">
+        <v>135</v>
       </c>
       <c r="B94" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="C94" s="129"/>
-      <c r="D94" s="129"/>
-      <c r="E94" s="129"/>
+        <v>139</v>
+      </c>
+      <c r="C94" s="91"/>
+      <c r="D94" s="91"/>
+      <c r="E94" s="91"/>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>

--- a/Web_Form_Chek_list.xlsx
+++ b/Web_Form_Chek_list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8E010C-4808-45BD-BD7F-78DD0333F0A7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639B5550-6813-4BF1-93C2-ECE4B28AE072}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="385">
   <si>
     <t>ID</t>
   </si>
@@ -1398,6 +1398,39 @@
   </si>
   <si>
     <t>Opera</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Surname</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Alexandra</t>
+  </si>
+  <si>
+    <t>Fedotov</t>
+  </si>
+  <si>
+    <t>dvjdii@mail.ru</t>
+  </si>
+  <si>
+    <t>dftght@@mail.ru</t>
+  </si>
+  <si>
+    <t>hdGjsg@jdj9</t>
+  </si>
+  <si>
+    <t>Ы</t>
+  </si>
+  <si>
+    <t>I</t>
   </si>
 </sst>
 </file>
@@ -1595,7 +1628,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -2061,12 +2094,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -2323,6 +2369,51 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2368,50 +2459,65 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7338,15 +7444,15 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="4" customFormat="1">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="100"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="115"/>
     </row>
     <row r="3" spans="1:40" ht="39.75" customHeight="1">
       <c r="A3" s="13">
@@ -7481,15 +7587,15 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" s="101" t="s">
+      <c r="A9" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="102"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="102"/>
-      <c r="G9" s="103"/>
+      <c r="B9" s="117"/>
+      <c r="C9" s="117"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="118"/>
     </row>
     <row r="10" spans="1:40" ht="39.75" customHeight="1">
       <c r="A10" s="13">
@@ -7620,26 +7726,26 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" s="95" t="s">
+      <c r="A16" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="96"/>
-      <c r="C16" s="96"/>
-      <c r="D16" s="96"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="97"/>
+      <c r="B16" s="111"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="112"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="92" t="s">
+      <c r="A17" s="107" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="93"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="94"/>
+      <c r="B17" s="108"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="109"/>
     </row>
     <row r="18" spans="1:7" ht="38.25">
       <c r="A18" s="13">
@@ -7772,15 +7878,15 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="92" t="s">
+      <c r="A24" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="93"/>
-      <c r="C24" s="93"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="94"/>
+      <c r="B24" s="108"/>
+      <c r="C24" s="108"/>
+      <c r="D24" s="108"/>
+      <c r="E24" s="108"/>
+      <c r="F24" s="108"/>
+      <c r="G24" s="109"/>
     </row>
     <row r="25" spans="1:7" ht="38.25">
       <c r="A25" s="13">
@@ -7913,15 +8019,15 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="92" t="s">
+      <c r="A31" s="107" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="93"/>
-      <c r="C31" s="93"/>
-      <c r="D31" s="93"/>
-      <c r="E31" s="93"/>
-      <c r="F31" s="93"/>
-      <c r="G31" s="94"/>
+      <c r="B31" s="108"/>
+      <c r="C31" s="108"/>
+      <c r="D31" s="108"/>
+      <c r="E31" s="108"/>
+      <c r="F31" s="108"/>
+      <c r="G31" s="109"/>
     </row>
     <row r="32" spans="1:7" ht="38.25">
       <c r="A32" s="13">
@@ -8054,15 +8160,15 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="95" t="s">
+      <c r="A38" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="B38" s="96"/>
-      <c r="C38" s="96"/>
-      <c r="D38" s="96"/>
-      <c r="E38" s="96"/>
-      <c r="F38" s="96"/>
-      <c r="G38" s="97"/>
+      <c r="B38" s="111"/>
+      <c r="C38" s="111"/>
+      <c r="D38" s="111"/>
+      <c r="E38" s="111"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="112"/>
     </row>
     <row r="39" spans="1:9" ht="38.25">
       <c r="A39" s="13">
@@ -12630,15 +12736,15 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="97"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="112"/>
     </row>
     <row r="3" spans="1:9" ht="43.5" customHeight="1">
       <c r="A3" s="13">
@@ -12685,15 +12791,15 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="97"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="112"/>
     </row>
     <row r="6" spans="1:9" ht="42.75" customHeight="1">
       <c r="A6" s="13">
@@ -12740,26 +12846,26 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="95" t="s">
+      <c r="A8" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="96"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="97"/>
+      <c r="B8" s="111"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="112"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="104" t="s">
+      <c r="A9" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="105"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="106"/>
+      <c r="B9" s="120"/>
+      <c r="C9" s="120"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="121"/>
     </row>
     <row r="10" spans="1:9" ht="42.75" customHeight="1">
       <c r="A10" s="13">
@@ -12771,7 +12877,7 @@
       <c r="C10" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="D10" s="107" t="s">
+      <c r="D10" s="92" t="s">
         <v>358</v>
       </c>
       <c r="E10" s="33" t="s">
@@ -12829,15 +12935,15 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="104" t="s">
+      <c r="A13" s="119" t="s">
         <v>110</v>
       </c>
-      <c r="B13" s="105"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="106"/>
+      <c r="B13" s="120"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="121"/>
     </row>
     <row r="14" spans="1:9" ht="38.25">
       <c r="A14" s="13">
@@ -12870,7 +12976,7 @@
       <c r="C15" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="D15" s="107" t="s">
+      <c r="D15" s="92" t="s">
         <v>358</v>
       </c>
       <c r="E15" s="33" t="s">
@@ -12885,15 +12991,15 @@
       <c r="I15" s="37"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="104" t="s">
+      <c r="A16" s="119" t="s">
         <v>115</v>
       </c>
-      <c r="B16" s="105"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="105"/>
-      <c r="G16" s="106"/>
+      <c r="B16" s="120"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="121"/>
     </row>
     <row r="17" spans="1:11" ht="38.25">
       <c r="A17" s="13">
@@ -12940,15 +13046,15 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="95" t="s">
+      <c r="A19" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="96"/>
-      <c r="C19" s="96"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="97"/>
+      <c r="B19" s="111"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="111"/>
+      <c r="G19" s="112"/>
     </row>
     <row r="20" spans="1:11" ht="38.25">
       <c r="A20" s="13">
@@ -13230,8 +13336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D3211F-EF34-4901-963A-D16631416C21}">
   <dimension ref="A1:E421"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13240,343 +13346,424 @@
     <col min="2" max="3" width="10.28515625" customWidth="1"/>
     <col min="4" max="4" width="17.42578125" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="117" t="s">
+      <c r="B1" s="102" t="s">
         <v>363</v>
       </c>
-      <c r="C1" s="118" t="s">
+      <c r="C1" s="103" t="s">
         <v>364</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="119">
+      <c r="A2" s="104">
         <v>1</v>
       </c>
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="99" t="s">
         <v>365</v>
       </c>
-      <c r="C2" s="115" t="s">
+      <c r="C2" s="100" t="s">
         <v>366</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="120">
+      <c r="A3" s="105">
         <v>2</v>
       </c>
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="94" t="s">
         <v>365</v>
       </c>
-      <c r="C3" s="108" t="s">
+      <c r="C3" s="93" t="s">
         <v>367</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="120">
+      <c r="A4" s="105">
         <v>3</v>
       </c>
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="94" t="s">
         <v>365</v>
       </c>
-      <c r="C4" s="108" t="s">
+      <c r="C4" s="93" t="s">
         <v>368</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A5" s="120">
+      <c r="A5" s="105">
         <v>4</v>
       </c>
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="94" t="s">
         <v>365</v>
       </c>
-      <c r="C5" s="108" t="s">
+      <c r="C5" s="93" t="s">
         <v>369</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A6" s="120">
+      <c r="A6" s="105">
         <v>5</v>
       </c>
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="95" t="s">
         <v>370</v>
       </c>
-      <c r="C6" s="108" t="s">
+      <c r="C6" s="93" t="s">
         <v>367</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="120">
+      <c r="A7" s="105">
         <v>6</v>
       </c>
-      <c r="B7" s="110" t="s">
+      <c r="B7" s="95" t="s">
         <v>370</v>
       </c>
-      <c r="C7" s="108" t="s">
+      <c r="C7" s="93" t="s">
         <v>368</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="120">
+      <c r="A8" s="105">
         <v>7</v>
       </c>
-      <c r="B8" s="110" t="s">
+      <c r="B8" s="95" t="s">
         <v>370</v>
       </c>
-      <c r="C8" s="108" t="s">
+      <c r="C8" s="93" t="s">
         <v>369</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="120">
+      <c r="A9" s="105">
         <v>8</v>
       </c>
-      <c r="B9" s="110" t="s">
+      <c r="B9" s="95" t="s">
         <v>370</v>
       </c>
-      <c r="C9" s="108" t="s">
+      <c r="C9" s="93" t="s">
         <v>366</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="120">
+      <c r="A10" s="105">
         <v>9</v>
       </c>
-      <c r="B10" s="111" t="s">
+      <c r="B10" s="96" t="s">
         <v>371</v>
       </c>
-      <c r="C10" s="108" t="s">
+      <c r="C10" s="93" t="s">
         <v>368</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="120">
+      <c r="A11" s="105">
         <v>10</v>
       </c>
-      <c r="B11" s="111" t="s">
+      <c r="B11" s="96" t="s">
         <v>371</v>
       </c>
-      <c r="C11" s="108" t="s">
+      <c r="C11" s="93" t="s">
         <v>369</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="120">
+      <c r="A12" s="105">
         <v>11</v>
       </c>
-      <c r="B12" s="111" t="s">
+      <c r="B12" s="96" t="s">
         <v>371</v>
       </c>
-      <c r="C12" s="108" t="s">
+      <c r="C12" s="93" t="s">
         <v>366</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="120">
+      <c r="A13" s="105">
         <v>12</v>
       </c>
-      <c r="B13" s="111" t="s">
+      <c r="B13" s="96" t="s">
         <v>371</v>
       </c>
-      <c r="C13" s="108" t="s">
+      <c r="C13" s="93" t="s">
         <v>367</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="120">
+      <c r="A14" s="105">
         <v>13</v>
       </c>
-      <c r="B14" s="112" t="s">
+      <c r="B14" s="97" t="s">
         <v>372</v>
       </c>
-      <c r="C14" s="108" t="s">
+      <c r="C14" s="93" t="s">
         <v>369</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="120">
+      <c r="A15" s="105">
         <v>14</v>
       </c>
-      <c r="B15" s="112" t="s">
+      <c r="B15" s="97" t="s">
         <v>372</v>
       </c>
-      <c r="C15" s="108" t="s">
+      <c r="C15" s="93" t="s">
         <v>366</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="120">
+      <c r="A16" s="105">
         <v>15</v>
       </c>
-      <c r="B16" s="112" t="s">
+      <c r="B16" s="97" t="s">
         <v>372</v>
       </c>
-      <c r="C16" s="108" t="s">
+      <c r="C16" s="93" t="s">
         <v>367</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="120">
+      <c r="A17" s="105">
         <v>16</v>
       </c>
-      <c r="B17" s="112" t="s">
+      <c r="B17" s="97" t="s">
         <v>372</v>
       </c>
-      <c r="C17" s="108" t="s">
+      <c r="C17" s="93" t="s">
         <v>368</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="120">
+      <c r="A18" s="105">
         <v>17</v>
       </c>
-      <c r="B18" s="113" t="s">
+      <c r="B18" s="98" t="s">
         <v>373</v>
       </c>
-      <c r="C18" s="108" t="s">
+      <c r="C18" s="93" t="s">
         <v>366</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="120">
+      <c r="A19" s="105">
         <v>18</v>
       </c>
-      <c r="B19" s="113" t="s">
+      <c r="B19" s="98" t="s">
         <v>373</v>
       </c>
-      <c r="C19" s="108" t="s">
+      <c r="C19" s="93" t="s">
         <v>367</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="120">
+      <c r="A20" s="105">
         <v>19</v>
       </c>
-      <c r="B20" s="113" t="s">
+      <c r="B20" s="98" t="s">
         <v>373</v>
       </c>
-      <c r="C20" s="108" t="s">
+      <c r="C20" s="93" t="s">
         <v>368</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A21" s="121">
+      <c r="A21" s="106">
         <v>20</v>
       </c>
-      <c r="B21" s="113" t="s">
+      <c r="B21" s="98" t="s">
         <v>373</v>
       </c>
-      <c r="C21" s="108" t="s">
+      <c r="C21" s="93" t="s">
         <v>369</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" ht="15.75" thickBot="1">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+    <row r="23" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A23" s="132" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="131" t="s">
+        <v>374</v>
+      </c>
+      <c r="C23" s="124" t="s">
+        <v>375</v>
+      </c>
+      <c r="D23" s="124" t="s">
+        <v>376</v>
+      </c>
+      <c r="E23" s="125" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="A24" s="128">
+        <v>1</v>
+      </c>
+      <c r="B24" s="126" t="s">
+        <v>378</v>
+      </c>
+      <c r="C24" s="123" t="s">
+        <v>379</v>
+      </c>
+      <c r="D24" s="135" t="s">
+        <v>380</v>
+      </c>
+      <c r="E24" s="138">
+        <v>83765</v>
+      </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+      <c r="A25" s="129">
+        <v>2</v>
+      </c>
+      <c r="B25" s="127" t="s">
+        <v>378</v>
+      </c>
+      <c r="C25" s="122" t="s">
+        <v>379</v>
+      </c>
+      <c r="D25" s="122" t="s">
+        <v>381</v>
+      </c>
+      <c r="E25" s="139" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="A26" s="129">
+        <v>3</v>
+      </c>
+      <c r="B26" s="127" t="s">
+        <v>378</v>
+      </c>
+      <c r="C26" s="122" t="s">
+        <v>383</v>
+      </c>
+      <c r="D26" s="136" t="s">
+        <v>380</v>
+      </c>
+      <c r="E26" s="139" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+      <c r="A27" s="129">
+        <v>4</v>
+      </c>
+      <c r="B27" s="127" t="s">
+        <v>378</v>
+      </c>
+      <c r="C27" s="122" t="s">
+        <v>383</v>
+      </c>
+      <c r="D27" s="122" t="s">
+        <v>381</v>
+      </c>
+      <c r="E27" s="140">
+        <v>83765</v>
+      </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="A28" s="129">
+        <v>5</v>
+      </c>
+      <c r="B28" s="127" t="s">
+        <v>384</v>
+      </c>
+      <c r="C28" s="122" t="s">
+        <v>379</v>
+      </c>
+      <c r="D28" s="122" t="s">
+        <v>381</v>
+      </c>
+      <c r="E28" s="139" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="A29" s="129">
+        <v>6</v>
+      </c>
+      <c r="B29" s="127" t="s">
+        <v>384</v>
+      </c>
+      <c r="C29" s="122" t="s">
+        <v>379</v>
+      </c>
+      <c r="D29" s="136" t="s">
+        <v>380</v>
+      </c>
+      <c r="E29" s="140">
+        <v>83765</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A30" s="130">
+        <v>7</v>
+      </c>
+      <c r="B30" s="133" t="s">
+        <v>384</v>
+      </c>
+      <c r="C30" s="134" t="s">
+        <v>383</v>
+      </c>
+      <c r="D30" s="137" t="s">
+        <v>380</v>
+      </c>
+      <c r="E30" s="141" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2"/>
@@ -16316,8 +16503,18 @@
       <c r="E421" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D24" r:id="rId1" display="mailto:dvjdii@mail.ru" xr:uid="{7D539105-D3E6-40B5-9E16-76FBCE305843}"/>
+    <hyperlink ref="E25" r:id="rId2" display="mailto:hdGjsg@jdj9" xr:uid="{34439FA7-300F-40A2-9261-9940F873D6A3}"/>
+    <hyperlink ref="D26" r:id="rId3" display="mailto:dvjdii@mail.ru" xr:uid="{5EBE68DA-4102-4E86-83A1-55C4E9703D1E}"/>
+    <hyperlink ref="E26" r:id="rId4" display="mailto:hdGjsg@jdj9" xr:uid="{AEE8B64D-87F9-4E57-B84D-214F842030F7}"/>
+    <hyperlink ref="E28" r:id="rId5" display="mailto:hdGjsg@jdj9" xr:uid="{489366A4-FFCE-48F3-89D4-A21EDA0C2B78}"/>
+    <hyperlink ref="D29" r:id="rId6" display="mailto:dvjdii@mail.ru" xr:uid="{F59B3798-A333-456C-9F0E-531A6B82D1B6}"/>
+    <hyperlink ref="D30" r:id="rId7" display="mailto:dvjdii@mail.ru" xr:uid="{66F52AF5-6BE3-4EB1-82D9-1FA850F382E6}"/>
+    <hyperlink ref="E30" r:id="rId8" display="mailto:hdGjsg@jdj9" xr:uid="{201E0BFC-B43F-4E78-83A5-D7CC7341F4DD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId9"/>
 </worksheet>
 </file>
 

--- a/Web_Form_Chek_list.xlsx
+++ b/Web_Form_Chek_list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639B5550-6813-4BF1-93C2-ECE4B28AE072}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FC579E-C4AD-401C-8F9C-9A6281F18303}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="385">
   <si>
     <t>ID</t>
   </si>
@@ -1415,9 +1415,6 @@
     <t>Alexandra</t>
   </si>
   <si>
-    <t>Fedotov</t>
-  </si>
-  <si>
     <t>dvjdii@mail.ru</t>
   </si>
   <si>
@@ -1431,6 +1428,9 @@
   </si>
   <si>
     <t>I</t>
+  </si>
+  <si>
+    <t>Fedotova</t>
   </si>
 </sst>
 </file>
@@ -1524,7 +1524,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1627,8 +1627,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEAD1DC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="36">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -2094,25 +2100,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -2414,6 +2407,33 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2459,65 +2479,32 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7444,15 +7431,15 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="4" customFormat="1">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="115"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="124"/>
     </row>
     <row r="3" spans="1:40" ht="39.75" customHeight="1">
       <c r="A3" s="13">
@@ -7587,15 +7574,15 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" s="116" t="s">
+      <c r="A9" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="117"/>
-      <c r="C9" s="117"/>
-      <c r="D9" s="117"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="117"/>
-      <c r="G9" s="118"/>
+      <c r="B9" s="126"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="127"/>
     </row>
     <row r="10" spans="1:40" ht="39.75" customHeight="1">
       <c r="A10" s="13">
@@ -7726,26 +7713,26 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" s="110" t="s">
+      <c r="A16" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="111"/>
-      <c r="C16" s="111"/>
-      <c r="D16" s="111"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="111"/>
-      <c r="G16" s="112"/>
+      <c r="B16" s="120"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="121"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="107" t="s">
+      <c r="A17" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="108"/>
-      <c r="C17" s="108"/>
-      <c r="D17" s="108"/>
-      <c r="E17" s="108"/>
-      <c r="F17" s="108"/>
-      <c r="G17" s="109"/>
+      <c r="B17" s="117"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="117"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="117"/>
+      <c r="G17" s="118"/>
     </row>
     <row r="18" spans="1:7" ht="38.25">
       <c r="A18" s="13">
@@ -7878,15 +7865,15 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="107" t="s">
+      <c r="A24" s="116" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="108"/>
-      <c r="C24" s="108"/>
-      <c r="D24" s="108"/>
-      <c r="E24" s="108"/>
-      <c r="F24" s="108"/>
-      <c r="G24" s="109"/>
+      <c r="B24" s="117"/>
+      <c r="C24" s="117"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="118"/>
     </row>
     <row r="25" spans="1:7" ht="38.25">
       <c r="A25" s="13">
@@ -8019,15 +8006,15 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="107" t="s">
+      <c r="A31" s="116" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="108"/>
-      <c r="C31" s="108"/>
-      <c r="D31" s="108"/>
-      <c r="E31" s="108"/>
-      <c r="F31" s="108"/>
-      <c r="G31" s="109"/>
+      <c r="B31" s="117"/>
+      <c r="C31" s="117"/>
+      <c r="D31" s="117"/>
+      <c r="E31" s="117"/>
+      <c r="F31" s="117"/>
+      <c r="G31" s="118"/>
     </row>
     <row r="32" spans="1:7" ht="38.25">
       <c r="A32" s="13">
@@ -8160,15 +8147,15 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="110" t="s">
+      <c r="A38" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="B38" s="111"/>
-      <c r="C38" s="111"/>
-      <c r="D38" s="111"/>
-      <c r="E38" s="111"/>
-      <c r="F38" s="111"/>
-      <c r="G38" s="112"/>
+      <c r="B38" s="120"/>
+      <c r="C38" s="120"/>
+      <c r="D38" s="120"/>
+      <c r="E38" s="120"/>
+      <c r="F38" s="120"/>
+      <c r="G38" s="121"/>
     </row>
     <row r="39" spans="1:9" ht="38.25">
       <c r="A39" s="13">
@@ -12736,15 +12723,15 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="112"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="121"/>
     </row>
     <row r="3" spans="1:9" ht="43.5" customHeight="1">
       <c r="A3" s="13">
@@ -12791,15 +12778,15 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="111"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="112"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="121"/>
     </row>
     <row r="6" spans="1:9" ht="42.75" customHeight="1">
       <c r="A6" s="13">
@@ -12846,26 +12833,26 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="111"/>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="111"/>
-      <c r="G8" s="112"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="121"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="119" t="s">
+      <c r="A9" s="128" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="120"/>
-      <c r="C9" s="120"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="120"/>
-      <c r="F9" s="120"/>
-      <c r="G9" s="121"/>
+      <c r="B9" s="129"/>
+      <c r="C9" s="129"/>
+      <c r="D9" s="129"/>
+      <c r="E9" s="129"/>
+      <c r="F9" s="129"/>
+      <c r="G9" s="130"/>
     </row>
     <row r="10" spans="1:9" ht="42.75" customHeight="1">
       <c r="A10" s="13">
@@ -12935,15 +12922,15 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="119" t="s">
+      <c r="A13" s="128" t="s">
         <v>110</v>
       </c>
-      <c r="B13" s="120"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="121"/>
+      <c r="B13" s="129"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="129"/>
+      <c r="G13" s="130"/>
     </row>
     <row r="14" spans="1:9" ht="38.25">
       <c r="A14" s="13">
@@ -12991,15 +12978,15 @@
       <c r="I15" s="37"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="119" t="s">
+      <c r="A16" s="128" t="s">
         <v>115</v>
       </c>
-      <c r="B16" s="120"/>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="121"/>
+      <c r="B16" s="129"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="129"/>
+      <c r="G16" s="130"/>
     </row>
     <row r="17" spans="1:11" ht="38.25">
       <c r="A17" s="13">
@@ -13046,15 +13033,15 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="110" t="s">
+      <c r="A19" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="111"/>
-      <c r="C19" s="111"/>
-      <c r="D19" s="111"/>
-      <c r="E19" s="111"/>
-      <c r="F19" s="111"/>
-      <c r="G19" s="112"/>
+      <c r="B19" s="120"/>
+      <c r="C19" s="120"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="120"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="121"/>
     </row>
     <row r="20" spans="1:11" ht="38.25">
       <c r="A20" s="13">
@@ -13336,8 +13323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D3211F-EF34-4901-963A-D16631416C21}">
   <dimension ref="A1:E421"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13630,140 +13617,130 @@
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A23" s="132" t="s">
+      <c r="A23" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="131" t="s">
+      <c r="B23" s="109" t="s">
         <v>374</v>
       </c>
-      <c r="C23" s="124" t="s">
+      <c r="C23" s="109" t="s">
         <v>375</v>
       </c>
-      <c r="D23" s="124" t="s">
+      <c r="D23" s="109" t="s">
         <v>376</v>
       </c>
-      <c r="E23" s="125" t="s">
+      <c r="E23" s="110" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="128">
+      <c r="A24" s="113">
         <v>1</v>
       </c>
-      <c r="B24" s="126" t="s">
+      <c r="B24" s="111" t="s">
         <v>378</v>
       </c>
-      <c r="C24" s="123" t="s">
+      <c r="C24" s="108" t="s">
+        <v>384</v>
+      </c>
+      <c r="D24" s="108" t="s">
+        <v>380</v>
+      </c>
+      <c r="E24" s="138" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="114">
+        <v>2</v>
+      </c>
+      <c r="B25" s="112" t="s">
+        <v>383</v>
+      </c>
+      <c r="C25" s="107" t="s">
+        <v>382</v>
+      </c>
+      <c r="D25" s="136" t="s">
         <v>379</v>
       </c>
-      <c r="D24" s="135" t="s">
+      <c r="E25" s="137">
+        <v>83765</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="114">
+        <v>3</v>
+      </c>
+      <c r="B26" s="112" t="s">
+        <v>378</v>
+      </c>
+      <c r="C26" s="137" t="s">
+        <v>382</v>
+      </c>
+      <c r="D26" s="107" t="s">
         <v>380</v>
       </c>
-      <c r="E24" s="138">
+      <c r="E26" s="107">
         <v>83765</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="129">
-        <v>2</v>
-      </c>
-      <c r="B25" s="127" t="s">
+    <row r="27" spans="1:5">
+      <c r="A27" s="114">
+        <v>4</v>
+      </c>
+      <c r="B27" s="112" t="s">
+        <v>383</v>
+      </c>
+      <c r="C27" s="137" t="s">
+        <v>384</v>
+      </c>
+      <c r="D27" s="136" t="s">
+        <v>379</v>
+      </c>
+      <c r="E27" s="136" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="114">
+        <v>5</v>
+      </c>
+      <c r="B28" s="112" t="s">
         <v>378</v>
       </c>
-      <c r="C25" s="122" t="s">
+      <c r="C28" s="107" t="s">
+        <v>384</v>
+      </c>
+      <c r="D28" s="135" t="s">
         <v>379</v>
       </c>
-      <c r="D25" s="122" t="s">
+      <c r="E28" s="107">
+        <v>83765</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A29" s="115">
+        <v>6</v>
+      </c>
+      <c r="B29" s="112" t="s">
+        <v>383</v>
+      </c>
+      <c r="C29" s="107" t="s">
+        <v>382</v>
+      </c>
+      <c r="D29" s="137" t="s">
+        <v>380</v>
+      </c>
+      <c r="E29" s="136" t="s">
         <v>381</v>
       </c>
-      <c r="E25" s="139" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="129">
-        <v>3</v>
-      </c>
-      <c r="B26" s="127" t="s">
-        <v>378</v>
-      </c>
-      <c r="C26" s="122" t="s">
-        <v>383</v>
-      </c>
-      <c r="D26" s="136" t="s">
-        <v>380</v>
-      </c>
-      <c r="E26" s="139" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="129">
-        <v>4</v>
-      </c>
-      <c r="B27" s="127" t="s">
-        <v>378</v>
-      </c>
-      <c r="C27" s="122" t="s">
-        <v>383</v>
-      </c>
-      <c r="D27" s="122" t="s">
-        <v>381</v>
-      </c>
-      <c r="E27" s="140">
-        <v>83765</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="129">
-        <v>5</v>
-      </c>
-      <c r="B28" s="127" t="s">
-        <v>384</v>
-      </c>
-      <c r="C28" s="122" t="s">
-        <v>379</v>
-      </c>
-      <c r="D28" s="122" t="s">
-        <v>381</v>
-      </c>
-      <c r="E28" s="139" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="129">
-        <v>6</v>
-      </c>
-      <c r="B29" s="127" t="s">
-        <v>384</v>
-      </c>
-      <c r="C29" s="122" t="s">
-        <v>379</v>
-      </c>
-      <c r="D29" s="136" t="s">
-        <v>380</v>
-      </c>
-      <c r="E29" s="140">
-        <v>83765</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A30" s="130">
-        <v>7</v>
-      </c>
-      <c r="B30" s="133" t="s">
-        <v>384</v>
-      </c>
-      <c r="C30" s="134" t="s">
-        <v>383</v>
-      </c>
-      <c r="D30" s="137" t="s">
-        <v>380</v>
-      </c>
-      <c r="E30" s="141" t="s">
-        <v>382</v>
-      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="131"/>
+      <c r="B30" s="132"/>
+      <c r="C30" s="132"/>
+      <c r="D30" s="133"/>
+      <c r="E30" s="134"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2"/>
@@ -16504,17 +16481,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D24" r:id="rId1" display="mailto:dvjdii@mail.ru" xr:uid="{7D539105-D3E6-40B5-9E16-76FBCE305843}"/>
-    <hyperlink ref="E25" r:id="rId2" display="mailto:hdGjsg@jdj9" xr:uid="{34439FA7-300F-40A2-9261-9940F873D6A3}"/>
-    <hyperlink ref="D26" r:id="rId3" display="mailto:dvjdii@mail.ru" xr:uid="{5EBE68DA-4102-4E86-83A1-55C4E9703D1E}"/>
-    <hyperlink ref="E26" r:id="rId4" display="mailto:hdGjsg@jdj9" xr:uid="{AEE8B64D-87F9-4E57-B84D-214F842030F7}"/>
-    <hyperlink ref="E28" r:id="rId5" display="mailto:hdGjsg@jdj9" xr:uid="{489366A4-FFCE-48F3-89D4-A21EDA0C2B78}"/>
-    <hyperlink ref="D29" r:id="rId6" display="mailto:dvjdii@mail.ru" xr:uid="{F59B3798-A333-456C-9F0E-531A6B82D1B6}"/>
-    <hyperlink ref="D30" r:id="rId7" display="mailto:dvjdii@mail.ru" xr:uid="{66F52AF5-6BE3-4EB1-82D9-1FA850F382E6}"/>
-    <hyperlink ref="E30" r:id="rId8" display="mailto:hdGjsg@jdj9" xr:uid="{201E0BFC-B43F-4E78-83A5-D7CC7341F4DD}"/>
+    <hyperlink ref="E24" r:id="rId1" display="mailto:hdGjsg@jdj9" xr:uid="{3BD93B1F-E0FC-4BF2-884A-9CAF837950E4}"/>
+    <hyperlink ref="D25" r:id="rId2" display="mailto:dvjdii@mail.ru" xr:uid="{007403B9-08BA-49A0-8304-E3518D3FCB44}"/>
+    <hyperlink ref="D27" r:id="rId3" display="mailto:dvjdii@mail.ru" xr:uid="{3081815C-3E6B-416C-BAB4-2821D7DDE3EA}"/>
+    <hyperlink ref="E27" r:id="rId4" display="mailto:hdGjsg@jdj9" xr:uid="{160EF8C3-4F72-4AA7-A3DD-515EC77BEA30}"/>
+    <hyperlink ref="D28" r:id="rId5" display="mailto:dvjdii@mail.ru" xr:uid="{FF5FA43D-15E4-4707-8776-F4CD02AC2AE7}"/>
+    <hyperlink ref="E29" r:id="rId6" display="mailto:hdGjsg@jdj9" xr:uid="{DD03F33F-C6B8-48AC-84A0-F12AA8E00B35}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId7"/>
 </worksheet>
 </file>
 
